--- a/BackTest/2019-10-19 BackTest ETH.xlsx
+++ b/BackTest/2019-10-19 BackTest ETH.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>900</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-50</v>
+      </c>
       <c r="L12" t="n">
         <v>205720</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>900</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-71.42857142857143</v>
+      </c>
       <c r="L13" t="n">
         <v>205680</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>900</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-71.42857142857143</v>
+      </c>
       <c r="L14" t="n">
         <v>205630</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1000</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-75</v>
+      </c>
       <c r="L15" t="n">
         <v>205570</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1000</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-71.42857142857143</v>
+      </c>
       <c r="L16" t="n">
         <v>205510</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1100</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-71.42857142857143</v>
+      </c>
       <c r="L17" t="n">
         <v>205450</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1800</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>23.07692307692308</v>
+      </c>
       <c r="L18" t="n">
         <v>205470</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2100</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-6.666666666666667</v>
+      </c>
       <c r="L19" t="n">
         <v>205470</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2200</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>205450</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2200</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>7.692307692307693</v>
+      </c>
       <c r="L21" t="n">
         <v>205450</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2400</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
       <c r="L22" t="n">
         <v>205480</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2600</v>
       </c>
       <c r="K23" t="n">
-        <v>-12</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L23" t="n">
         <v>205490</v>
@@ -1466,7 +1488,7 @@
         <v>2700</v>
       </c>
       <c r="K24" t="n">
-        <v>-12</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L24" t="n">
         <v>205510</v>
@@ -1515,7 +1537,7 @@
         <v>2900</v>
       </c>
       <c r="K25" t="n">
-        <v>-18.51851851851852</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L25" t="n">
         <v>205520</v>
@@ -1564,7 +1586,7 @@
         <v>3300</v>
       </c>
       <c r="K26" t="n">
-        <v>-3.225806451612903</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L26" t="n">
         <v>205570</v>
@@ -1613,7 +1635,7 @@
         <v>3400</v>
       </c>
       <c r="K27" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>205640</v>
@@ -1662,7 +1684,7 @@
         <v>3500</v>
       </c>
       <c r="K28" t="n">
-        <v>3.225806451612903</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L28" t="n">
         <v>205630</v>
@@ -1711,7 +1733,7 @@
         <v>3600</v>
       </c>
       <c r="K29" t="n">
-        <v>9.67741935483871</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L29" t="n">
         <v>205660</v>
@@ -1760,7 +1782,7 @@
         <v>3700</v>
       </c>
       <c r="K30" t="n">
-        <v>3.225806451612903</v>
+        <v>20</v>
       </c>
       <c r="L30" t="n">
         <v>205690</v>
@@ -1809,7 +1831,7 @@
         <v>3700</v>
       </c>
       <c r="K31" t="n">
-        <v>10.3448275862069</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L31" t="n">
         <v>205720</v>
@@ -1860,7 +1882,7 @@
         <v>3800</v>
       </c>
       <c r="K32" t="n">
-        <v>10.3448275862069</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L32" t="n">
         <v>205720</v>
@@ -1911,7 +1933,7 @@
         <v>4000</v>
       </c>
       <c r="K33" t="n">
-        <v>3.225806451612903</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L33" t="n">
         <v>205720</v>
@@ -1962,7 +1984,7 @@
         <v>4200</v>
       </c>
       <c r="K34" t="n">
-        <v>-3.03030303030303</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L34" t="n">
         <v>205690</v>
@@ -2013,7 +2035,7 @@
         <v>4400</v>
       </c>
       <c r="K35" t="n">
-        <v>-5.88235294117647</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L35" t="n">
         <v>205660</v>
@@ -2064,7 +2086,7 @@
         <v>4800</v>
       </c>
       <c r="K36" t="n">
-        <v>5.263157894736842</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L36" t="n">
         <v>205630</v>
@@ -2115,7 +2137,7 @@
         <v>5300</v>
       </c>
       <c r="K37" t="n">
-        <v>-4.761904761904762</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L37" t="n">
         <v>205540</v>
@@ -2166,7 +2188,7 @@
         <v>5300</v>
       </c>
       <c r="K38" t="n">
-        <v>-25.71428571428571</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L38" t="n">
         <v>205460</v>
@@ -2217,7 +2239,7 @@
         <v>5300</v>
       </c>
       <c r="K39" t="n">
-        <v>-18.75</v>
+        <v>-50</v>
       </c>
       <c r="L39" t="n">
         <v>205370</v>
@@ -2268,7 +2290,7 @@
         <v>5400</v>
       </c>
       <c r="K40" t="n">
-        <v>-12.5</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L40" t="n">
         <v>205300</v>
@@ -2319,7 +2341,7 @@
         <v>5400</v>
       </c>
       <c r="K41" t="n">
-        <v>-12.5</v>
+        <v>-37.5</v>
       </c>
       <c r="L41" t="n">
         <v>205230</v>
@@ -2370,7 +2392,7 @@
         <v>5400</v>
       </c>
       <c r="K42" t="n">
-        <v>-20</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L42" t="n">
         <v>205170</v>
@@ -2421,7 +2443,7 @@
         <v>5400</v>
       </c>
       <c r="K43" t="n">
-        <v>-14.28571428571428</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L43" t="n">
         <v>205130</v>
@@ -2472,7 +2494,7 @@
         <v>5500</v>
       </c>
       <c r="K44" t="n">
-        <v>-14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L44" t="n">
         <v>205120</v>
@@ -2523,7 +2545,7 @@
         <v>5600</v>
       </c>
       <c r="K45" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L45" t="n">
         <v>205120</v>
@@ -2574,7 +2596,7 @@
         <v>5800</v>
       </c>
       <c r="K46" t="n">
-        <v>-20</v>
+        <v>60</v>
       </c>
       <c r="L46" t="n">
         <v>205100</v>
@@ -2625,7 +2647,7 @@
         <v>5800</v>
       </c>
       <c r="K47" t="n">
-        <v>-25</v>
+        <v>60</v>
       </c>
       <c r="L47" t="n">
         <v>205130</v>
@@ -2676,7 +2698,7 @@
         <v>6000</v>
       </c>
       <c r="K48" t="n">
-        <v>-28</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L48" t="n">
         <v>205140</v>
@@ -2727,7 +2749,7 @@
         <v>6100</v>
       </c>
       <c r="K49" t="n">
-        <v>-28</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L49" t="n">
         <v>205160</v>
@@ -2778,7 +2800,7 @@
         <v>6200</v>
       </c>
       <c r="K50" t="n">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>205160</v>
@@ -2829,7 +2851,7 @@
         <v>6200</v>
       </c>
       <c r="K51" t="n">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>205160</v>
@@ -2880,7 +2902,7 @@
         <v>6400</v>
       </c>
       <c r="K52" t="n">
-        <v>-15.38461538461539</v>
+        <v>20</v>
       </c>
       <c r="L52" t="n">
         <v>205180</v>
@@ -2931,7 +2953,7 @@
         <v>6500</v>
       </c>
       <c r="K53" t="n">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="L53" t="n">
         <v>205210</v>
@@ -2982,7 +3004,7 @@
         <v>7000</v>
       </c>
       <c r="K54" t="n">
-        <v>21.42857142857143</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L54" t="n">
         <v>205280</v>
@@ -3033,7 +3055,7 @@
         <v>7200</v>
       </c>
       <c r="K55" t="n">
-        <v>35.71428571428572</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L55" t="n">
         <v>205380</v>
@@ -3084,7 +3106,7 @@
         <v>7400</v>
       </c>
       <c r="K56" t="n">
-        <v>15.38461538461539</v>
+        <v>37.5</v>
       </c>
       <c r="L56" t="n">
         <v>205440</v>
@@ -3135,7 +3157,7 @@
         <v>7500</v>
       </c>
       <c r="K57" t="n">
-        <v>36.36363636363637</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L57" t="n">
         <v>205490</v>
@@ -3186,7 +3208,7 @@
         <v>7600</v>
       </c>
       <c r="K58" t="n">
-        <v>30.43478260869566</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>205550</v>
@@ -3237,7 +3259,7 @@
         <v>7600</v>
       </c>
       <c r="K59" t="n">
-        <v>30.43478260869566</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L59" t="n">
         <v>205600</v>
@@ -3288,7 +3310,7 @@
         <v>7800</v>
       </c>
       <c r="K60" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L60" t="n">
         <v>205680</v>
@@ -3339,7 +3361,7 @@
         <v>7900</v>
       </c>
       <c r="K61" t="n">
-        <v>36</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L61" t="n">
         <v>205770</v>
@@ -3390,7 +3412,7 @@
         <v>8000</v>
       </c>
       <c r="K62" t="n">
-        <v>30.76923076923077</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L62" t="n">
         <v>205830</v>
@@ -3441,7 +3463,7 @@
         <v>8000</v>
       </c>
       <c r="K63" t="n">
-        <v>30.76923076923077</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>205880</v>
@@ -3492,7 +3514,7 @@
         <v>8100</v>
       </c>
       <c r="K64" t="n">
-        <v>30.76923076923077</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L64" t="n">
         <v>205890</v>
@@ -3543,7 +3565,7 @@
         <v>8500</v>
       </c>
       <c r="K65" t="n">
-        <v>44.82758620689656</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L65" t="n">
         <v>205920</v>
@@ -3594,7 +3616,7 @@
         <v>8800</v>
       </c>
       <c r="K66" t="n">
-        <v>26.66666666666667</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L66" t="n">
         <v>205940</v>
@@ -3645,7 +3667,7 @@
         <v>8900</v>
       </c>
       <c r="K67" t="n">
-        <v>22.58064516129032</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L67" t="n">
         <v>205960</v>
@@ -3696,7 +3718,7 @@
         <v>8900</v>
       </c>
       <c r="K68" t="n">
-        <v>31.03448275862069</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L68" t="n">
         <v>205990</v>
@@ -3747,7 +3769,7 @@
         <v>9100</v>
       </c>
       <c r="K69" t="n">
-        <v>33.33333333333333</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L69" t="n">
         <v>206040</v>
@@ -3798,7 +3820,7 @@
         <v>9100</v>
       </c>
       <c r="K70" t="n">
-        <v>37.93103448275862</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L70" t="n">
         <v>206070</v>
@@ -3849,7 +3871,7 @@
         <v>9200</v>
       </c>
       <c r="K71" t="n">
-        <v>33.33333333333333</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L71" t="n">
         <v>206080</v>
@@ -3900,7 +3922,7 @@
         <v>9200</v>
       </c>
       <c r="K72" t="n">
-        <v>28.57142857142857</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L72" t="n">
         <v>206100</v>
@@ -3951,7 +3973,7 @@
         <v>9200</v>
       </c>
       <c r="K73" t="n">
-        <v>25.92592592592592</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L73" t="n">
         <v>206120</v>
@@ -4002,7 +4024,7 @@
         <v>9400</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L74" t="n">
         <v>206110</v>
@@ -4053,7 +4075,7 @@
         <v>9500</v>
       </c>
       <c r="K75" t="n">
-        <v>-4.347826086956522</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L75" t="n">
         <v>206070</v>
@@ -4104,7 +4126,7 @@
         <v>9700</v>
       </c>
       <c r="K76" t="n">
-        <v>13.04347826086956</v>
+        <v>25</v>
       </c>
       <c r="L76" t="n">
         <v>206080</v>
@@ -4155,7 +4177,7 @@
         <v>9700</v>
       </c>
       <c r="K77" t="n">
-        <v>18.18181818181818</v>
+        <v>25</v>
       </c>
       <c r="L77" t="n">
         <v>206100</v>
@@ -4206,7 +4228,7 @@
         <v>9800</v>
       </c>
       <c r="K78" t="n">
-        <v>27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L78" t="n">
         <v>206130</v>
@@ -4257,7 +4279,7 @@
         <v>10200</v>
       </c>
       <c r="K79" t="n">
-        <v>38.46153846153847</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L79" t="n">
         <v>206180</v>
@@ -4308,7 +4330,7 @@
         <v>11100</v>
       </c>
       <c r="K80" t="n">
-        <v>51.51515151515152</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="L80" t="n">
         <v>206320</v>
@@ -4359,7 +4381,7 @@
         <v>11200</v>
       </c>
       <c r="K81" t="n">
-        <v>51.51515151515152</v>
+        <v>80</v>
       </c>
       <c r="L81" t="n">
         <v>206480</v>
@@ -4410,7 +4432,7 @@
         <v>11300</v>
       </c>
       <c r="K82" t="n">
-        <v>51.51515151515152</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L82" t="n">
         <v>206630</v>
@@ -4461,7 +4483,7 @@
         <v>11800</v>
       </c>
       <c r="K83" t="n">
-        <v>31.57894736842105</v>
+        <v>50</v>
       </c>
       <c r="L83" t="n">
         <v>206730</v>
@@ -4512,7 +4534,7 @@
         <v>12100</v>
       </c>
       <c r="K84" t="n">
-        <v>20</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L84" t="n">
         <v>206820</v>
@@ -4563,7 +4585,7 @@
         <v>12200</v>
       </c>
       <c r="K85" t="n">
-        <v>13.51351351351351</v>
+        <v>28</v>
       </c>
       <c r="L85" t="n">
         <v>206910</v>
@@ -4614,7 +4636,7 @@
         <v>12200</v>
       </c>
       <c r="K86" t="n">
-        <v>23.52941176470588</v>
+        <v>28</v>
       </c>
       <c r="L86" t="n">
         <v>206980</v>
@@ -4665,7 +4687,7 @@
         <v>12500</v>
       </c>
       <c r="K87" t="n">
-        <v>16.66666666666666</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L87" t="n">
         <v>207020</v>
@@ -4716,7 +4738,7 @@
         <v>12600</v>
       </c>
       <c r="K88" t="n">
-        <v>18.91891891891892</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>207060</v>
@@ -4767,7 +4789,7 @@
         <v>12700</v>
       </c>
       <c r="K89" t="n">
-        <v>11.11111111111111</v>
+        <v>-62.5</v>
       </c>
       <c r="L89" t="n">
         <v>207050</v>
@@ -4818,7 +4840,7 @@
         <v>13000</v>
       </c>
       <c r="K90" t="n">
-        <v>17.94871794871795</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L90" t="n">
         <v>206980</v>
@@ -4869,7 +4891,7 @@
         <v>13000</v>
       </c>
       <c r="K91" t="n">
-        <v>21.05263157894737</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L91" t="n">
         <v>206900</v>
@@ -4920,7 +4942,7 @@
         <v>13200</v>
       </c>
       <c r="K92" t="n">
-        <v>15</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L92" t="n">
         <v>206810</v>
@@ -4971,7 +4993,7 @@
         <v>13200</v>
       </c>
       <c r="K93" t="n">
-        <v>15</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L93" t="n">
         <v>206770</v>
@@ -5022,7 +5044,7 @@
         <v>13500</v>
       </c>
       <c r="K94" t="n">
-        <v>12.19512195121951</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L94" t="n">
         <v>206730</v>
@@ -5073,7 +5095,7 @@
         <v>13600</v>
       </c>
       <c r="K95" t="n">
-        <v>12.19512195121951</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L95" t="n">
         <v>206690</v>
@@ -5124,7 +5146,7 @@
         <v>13700</v>
       </c>
       <c r="K96" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>206660</v>
@@ -5175,7 +5197,7 @@
         <v>13700</v>
       </c>
       <c r="K97" t="n">
-        <v>10</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L97" t="n">
         <v>206660</v>
@@ -5226,7 +5248,7 @@
         <v>14100</v>
       </c>
       <c r="K98" t="n">
-        <v>-2.325581395348837</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L98" t="n">
         <v>206610</v>
@@ -5277,7 +5299,7 @@
         <v>14200</v>
       </c>
       <c r="K99" t="n">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="L99" t="n">
         <v>206580</v>
@@ -5328,7 +5350,7 @@
         <v>14500</v>
       </c>
       <c r="K100" t="n">
-        <v>-29.41176470588236</v>
+        <v>-20</v>
       </c>
       <c r="L100" t="n">
         <v>206550</v>
@@ -5379,7 +5401,7 @@
         <v>14700</v>
       </c>
       <c r="K101" t="n">
-        <v>-25.71428571428571</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L101" t="n">
         <v>206540</v>
@@ -5430,7 +5452,7 @@
         <v>15200</v>
       </c>
       <c r="K102" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L102" t="n">
         <v>206500</v>
@@ -5481,7 +5503,7 @@
         <v>15200</v>
       </c>
       <c r="K103" t="n">
-        <v>-23.52941176470588</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L103" t="n">
         <v>206460</v>
@@ -5532,7 +5554,7 @@
         <v>15500</v>
       </c>
       <c r="K104" t="n">
-        <v>-5.88235294117647</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L104" t="n">
         <v>206480</v>
@@ -5583,7 +5605,7 @@
         <v>15700</v>
       </c>
       <c r="K105" t="n">
-        <v>-14.28571428571428</v>
+        <v>-10</v>
       </c>
       <c r="L105" t="n">
         <v>206470</v>
@@ -5634,7 +5656,7 @@
         <v>16100</v>
       </c>
       <c r="K106" t="n">
-        <v>-2.564102564102564</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L106" t="n">
         <v>206490</v>
@@ -5685,7 +5707,7 @@
         <v>16600</v>
       </c>
       <c r="K107" t="n">
-        <v>-7.317073170731707</v>
+        <v>4</v>
       </c>
       <c r="L107" t="n">
         <v>206460</v>
@@ -5736,7 +5758,7 @@
         <v>17000</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L108" t="n">
         <v>206510</v>
@@ -5787,7 +5809,7 @@
         <v>17100</v>
       </c>
       <c r="K109" t="n">
-        <v>4.545454545454546</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L109" t="n">
         <v>206560</v>
@@ -5838,7 +5860,7 @@
         <v>17200</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L110" t="n">
         <v>206590</v>
@@ -5889,7 +5911,7 @@
         <v>17300</v>
       </c>
       <c r="K111" t="n">
-        <v>2.325581395348837</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>206610</v>
@@ -5940,7 +5962,7 @@
         <v>17600</v>
       </c>
       <c r="K112" t="n">
-        <v>13.63636363636363</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L112" t="n">
         <v>206710</v>
@@ -5991,7 +6013,7 @@
         <v>17700</v>
       </c>
       <c r="K113" t="n">
-        <v>15.55555555555556</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L113" t="n">
         <v>206820</v>
@@ -6042,7 +6064,7 @@
         <v>17900</v>
       </c>
       <c r="K114" t="n">
-        <v>18.18181818181818</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L114" t="n">
         <v>206880</v>
@@ -6093,7 +6115,7 @@
         <v>18000</v>
       </c>
       <c r="K115" t="n">
-        <v>18.18181818181818</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L115" t="n">
         <v>206970</v>
@@ -6144,7 +6166,7 @@
         <v>18200</v>
       </c>
       <c r="K116" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L116" t="n">
         <v>207000</v>
@@ -6195,7 +6217,7 @@
         <v>18200</v>
       </c>
       <c r="K117" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L117" t="n">
         <v>207080</v>
@@ -6246,7 +6268,7 @@
         <v>18400</v>
       </c>
       <c r="K118" t="n">
-        <v>16.27906976744186</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L118" t="n">
         <v>207100</v>
@@ -6297,7 +6319,7 @@
         <v>18900</v>
       </c>
       <c r="K119" t="n">
-        <v>2.127659574468085</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L119" t="n">
         <v>207060</v>
@@ -6348,7 +6370,7 @@
         <v>19300</v>
       </c>
       <c r="K120" t="n">
-        <v>4.166666666666666</v>
+        <v>-10</v>
       </c>
       <c r="L120" t="n">
         <v>207050</v>
@@ -6399,7 +6421,7 @@
         <v>19600</v>
       </c>
       <c r="K121" t="n">
-        <v>-6.122448979591836</v>
+        <v>-40</v>
       </c>
       <c r="L121" t="n">
         <v>207000</v>
@@ -6450,7 +6472,7 @@
         <v>19800</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L122" t="n">
         <v>206900</v>
@@ -6501,7 +6523,7 @@
         <v>19900</v>
       </c>
       <c r="K123" t="n">
-        <v>2.127659574468085</v>
+        <v>-40</v>
       </c>
       <c r="L123" t="n">
         <v>206800</v>
@@ -6552,7 +6574,7 @@
         <v>20000</v>
       </c>
       <c r="K124" t="n">
-        <v>-2.222222222222222</v>
+        <v>-40</v>
       </c>
       <c r="L124" t="n">
         <v>206730</v>
@@ -6603,7 +6625,7 @@
         <v>20200</v>
       </c>
       <c r="K125" t="n">
-        <v>6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L125" t="n">
         <v>206670</v>
@@ -6654,7 +6676,7 @@
         <v>20400</v>
       </c>
       <c r="K126" t="n">
-        <v>2.325581395348837</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L126" t="n">
         <v>206650</v>
@@ -6705,7 +6727,7 @@
         <v>20600</v>
       </c>
       <c r="K127" t="n">
-        <v>20</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L127" t="n">
         <v>206650</v>
@@ -6756,7 +6778,7 @@
         <v>20900</v>
       </c>
       <c r="K128" t="n">
-        <v>2.564102564102564</v>
+        <v>20</v>
       </c>
       <c r="L128" t="n">
         <v>206640</v>
@@ -6807,7 +6829,7 @@
         <v>21200</v>
       </c>
       <c r="K129" t="n">
-        <v>-7.317073170731707</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L129" t="n">
         <v>206650</v>
@@ -6858,7 +6880,7 @@
         <v>21200</v>
       </c>
       <c r="K130" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>206620</v>
@@ -6909,7 +6931,7 @@
         <v>21300</v>
       </c>
       <c r="K131" t="n">
-        <v>-15</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L131" t="n">
         <v>206610</v>
@@ -6960,7 +6982,7 @@
         <v>21500</v>
       </c>
       <c r="K132" t="n">
-        <v>-28.2051282051282</v>
+        <v>-12.5</v>
       </c>
       <c r="L132" t="n">
         <v>206600</v>
@@ -7011,7 +7033,7 @@
         <v>21500</v>
       </c>
       <c r="K133" t="n">
-        <v>-31.57894736842105</v>
+        <v>-20</v>
       </c>
       <c r="L133" t="n">
         <v>206580</v>
@@ -7062,7 +7084,7 @@
         <v>21800</v>
       </c>
       <c r="K134" t="n">
-        <v>-17.94871794871795</v>
+        <v>-12.5</v>
       </c>
       <c r="L134" t="n">
         <v>206580</v>
@@ -7113,7 +7135,7 @@
         <v>21800</v>
       </c>
       <c r="K135" t="n">
-        <v>-21.05263157894737</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L135" t="n">
         <v>206560</v>
@@ -7164,7 +7186,7 @@
         <v>21900</v>
       </c>
       <c r="K136" t="n">
-        <v>-13.51351351351351</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L136" t="n">
         <v>206530</v>
@@ -7215,7 +7237,7 @@
         <v>22100</v>
       </c>
       <c r="K137" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>206500</v>
@@ -7266,7 +7288,7 @@
         <v>22500</v>
       </c>
       <c r="K138" t="n">
-        <v>-12.19512195121951</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L138" t="n">
         <v>206460</v>
@@ -7317,7 +7339,7 @@
         <v>22700</v>
       </c>
       <c r="K139" t="n">
-        <v>-5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L139" t="n">
         <v>206430</v>
@@ -7368,7 +7390,7 @@
         <v>22800</v>
       </c>
       <c r="K140" t="n">
-        <v>-14.28571428571428</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L140" t="n">
         <v>206410</v>
@@ -7419,7 +7441,7 @@
         <v>22900</v>
       </c>
       <c r="K141" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>206390</v>
@@ -7470,7 +7492,7 @@
         <v>23100</v>
       </c>
       <c r="K142" t="n">
-        <v>3.03030303030303</v>
+        <v>12.5</v>
       </c>
       <c r="L142" t="n">
         <v>206410</v>
@@ -7521,7 +7543,7 @@
         <v>23300</v>
       </c>
       <c r="K143" t="n">
-        <v>-5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L143" t="n">
         <v>206410</v>
@@ -7572,7 +7594,7 @@
         <v>23400</v>
       </c>
       <c r="K144" t="n">
-        <v>-5.88235294117647</v>
+        <v>-12.5</v>
       </c>
       <c r="L144" t="n">
         <v>206390</v>
@@ -7623,7 +7645,7 @@
         <v>23400</v>
       </c>
       <c r="K145" t="n">
-        <v>-12.5</v>
+        <v>-20</v>
       </c>
       <c r="L145" t="n">
         <v>206370</v>
@@ -7674,7 +7696,7 @@
         <v>23700</v>
       </c>
       <c r="K146" t="n">
-        <v>-9.090909090909092</v>
+        <v>-12.5</v>
       </c>
       <c r="L146" t="n">
         <v>206370</v>
@@ -7725,7 +7747,7 @@
         <v>24000</v>
       </c>
       <c r="K147" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L147" t="n">
         <v>206380</v>
@@ -7776,7 +7798,7 @@
         <v>24200</v>
       </c>
       <c r="K148" t="n">
-        <v>-3.03030303030303</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>206410</v>
@@ -7827,7 +7849,7 @@
         <v>24300</v>
       </c>
       <c r="K149" t="n">
-        <v>9.67741935483871</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L149" t="n">
         <v>206470</v>
@@ -7878,7 +7900,7 @@
         <v>24500</v>
       </c>
       <c r="K150" t="n">
-        <v>3.03030303030303</v>
+        <v>25</v>
       </c>
       <c r="L150" t="n">
         <v>206500</v>
@@ -7929,7 +7951,7 @@
         <v>24500</v>
       </c>
       <c r="K151" t="n">
-        <v>6.25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L151" t="n">
         <v>206540</v>
@@ -7980,7 +8002,7 @@
         <v>24500</v>
       </c>
       <c r="K152" t="n">
-        <v>13.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L152" t="n">
         <v>206560</v>
@@ -8031,7 +8053,7 @@
         <v>24700</v>
       </c>
       <c r="K153" t="n">
-        <v>6.25</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L153" t="n">
         <v>206580</v>
@@ -8082,7 +8104,7 @@
         <v>24800</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L154" t="n">
         <v>206600</v>
@@ -8133,7 +8155,7 @@
         <v>25000</v>
       </c>
       <c r="K155" t="n">
-        <v>-6.25</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L155" t="n">
         <v>206600</v>
@@ -8184,7 +8206,7 @@
         <v>25000</v>
       </c>
       <c r="K156" t="n">
-        <v>-9.67741935483871</v>
+        <v>-60</v>
       </c>
       <c r="L156" t="n">
         <v>206570</v>
@@ -8235,7 +8257,7 @@
         <v>25200</v>
       </c>
       <c r="K157" t="n">
-        <v>-22.58064516129032</v>
+        <v>-60</v>
       </c>
       <c r="L157" t="n">
         <v>206490</v>
@@ -8286,7 +8308,7 @@
         <v>25400</v>
       </c>
       <c r="K158" t="n">
-        <v>-3.448275862068965</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L158" t="n">
         <v>206450</v>
@@ -8337,7 +8359,7 @@
         <v>25500</v>
       </c>
       <c r="K159" t="n">
-        <v>7.142857142857142</v>
+        <v>-20</v>
       </c>
       <c r="L159" t="n">
         <v>206410</v>
@@ -8388,7 +8410,7 @@
         <v>25600</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L160" t="n">
         <v>206380</v>
@@ -8439,7 +8461,7 @@
         <v>25700</v>
       </c>
       <c r="K161" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L161" t="n">
         <v>206340</v>
@@ -8490,7 +8512,7 @@
         <v>25800</v>
       </c>
       <c r="K162" t="n">
-        <v>-3.703703703703703</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L162" t="n">
         <v>206310</v>
@@ -8541,7 +8563,7 @@
         <v>25800</v>
       </c>
       <c r="K163" t="n">
-        <v>4</v>
+        <v>-20</v>
       </c>
       <c r="L163" t="n">
         <v>206300</v>
@@ -8694,7 +8716,7 @@
         <v>25800</v>
       </c>
       <c r="K166" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L166" t="n">
         <v>206280</v>
@@ -8745,7 +8767,7 @@
         <v>25900</v>
       </c>
       <c r="K167" t="n">
-        <v>-36.84210526315789</v>
+        <v>-20</v>
       </c>
       <c r="L167" t="n">
         <v>206290</v>
@@ -8796,7 +8818,7 @@
         <v>26000</v>
       </c>
       <c r="K168" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L168" t="n">
         <v>206270</v>
@@ -8847,7 +8869,7 @@
         <v>26000</v>
       </c>
       <c r="K169" t="n">
-        <v>-41.17647058823529</v>
+        <v>-50</v>
       </c>
       <c r="L169" t="n">
         <v>206240</v>
@@ -8949,7 +8971,7 @@
         <v>26100</v>
       </c>
       <c r="K171" t="n">
-        <v>-37.5</v>
+        <v>-100</v>
       </c>
       <c r="L171" t="n">
         <v>206200</v>
@@ -9000,7 +9022,7 @@
         <v>26300</v>
       </c>
       <c r="K172" t="n">
-        <v>-44.44444444444444</v>
+        <v>-100</v>
       </c>
       <c r="L172" t="n">
         <v>206150</v>
@@ -9051,7 +9073,7 @@
         <v>26600</v>
       </c>
       <c r="K173" t="n">
-        <v>-47.36842105263158</v>
+        <v>-100</v>
       </c>
       <c r="L173" t="n">
         <v>206070</v>
@@ -9102,7 +9124,7 @@
         <v>26700</v>
       </c>
       <c r="K174" t="n">
-        <v>-47.36842105263158</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L174" t="n">
         <v>206000</v>
@@ -9153,7 +9175,7 @@
         <v>26800</v>
       </c>
       <c r="K175" t="n">
-        <v>-44.44444444444444</v>
+        <v>-80</v>
       </c>
       <c r="L175" t="n">
         <v>205920</v>
@@ -9204,7 +9226,7 @@
         <v>26900</v>
       </c>
       <c r="K176" t="n">
-        <v>-47.36842105263158</v>
+        <v>-80</v>
       </c>
       <c r="L176" t="n">
         <v>205830</v>
@@ -9255,7 +9277,7 @@
         <v>27000</v>
       </c>
       <c r="K177" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L177" t="n">
         <v>205760</v>
@@ -9306,7 +9328,7 @@
         <v>27100</v>
       </c>
       <c r="K178" t="n">
-        <v>-41.17647058823529</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L178" t="n">
         <v>205710</v>
@@ -9357,7 +9379,7 @@
         <v>27200</v>
       </c>
       <c r="K179" t="n">
-        <v>-52.94117647058824</v>
+        <v>-50</v>
       </c>
       <c r="L179" t="n">
         <v>205650</v>
@@ -9408,7 +9430,7 @@
         <v>27200</v>
       </c>
       <c r="K180" t="n">
-        <v>-50</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L180" t="n">
         <v>205590</v>
@@ -9459,7 +9481,7 @@
         <v>27200</v>
       </c>
       <c r="K181" t="n">
-        <v>-46.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L181" t="n">
         <v>205540</v>
@@ -9510,7 +9532,7 @@
         <v>27300</v>
       </c>
       <c r="K182" t="n">
-        <v>-46.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L182" t="n">
         <v>205520</v>
@@ -9561,7 +9583,7 @@
         <v>27400</v>
       </c>
       <c r="K183" t="n">
-        <v>-37.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L183" t="n">
         <v>205540</v>
@@ -9612,7 +9634,7 @@
         <v>27500</v>
       </c>
       <c r="K184" t="n">
-        <v>-41.17647058823529</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L184" t="n">
         <v>205540</v>
@@ -9663,7 +9685,7 @@
         <v>27600</v>
       </c>
       <c r="K185" t="n">
-        <v>-33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L185" t="n">
         <v>205560</v>
@@ -9714,7 +9736,7 @@
         <v>27700</v>
       </c>
       <c r="K186" t="n">
-        <v>-26.31578947368421</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L186" t="n">
         <v>205600</v>
@@ -9765,7 +9787,7 @@
         <v>28200</v>
       </c>
       <c r="K187" t="n">
-        <v>4.347826086956522</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L187" t="n">
         <v>205680</v>
@@ -9816,7 +9838,7 @@
         <v>28200</v>
       </c>
       <c r="K188" t="n">
-        <v>9.090909090909092</v>
+        <v>80</v>
       </c>
       <c r="L188" t="n">
         <v>205750</v>
@@ -9867,7 +9889,7 @@
         <v>28500</v>
       </c>
       <c r="K189" t="n">
-        <v>-4</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L189" t="n">
         <v>205800</v>
@@ -9918,7 +9940,7 @@
         <v>28500</v>
       </c>
       <c r="K190" t="n">
-        <v>-4</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L190" t="n">
         <v>205850</v>
@@ -9969,7 +9991,7 @@
         <v>28600</v>
       </c>
       <c r="K191" t="n">
-        <v>4</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L191" t="n">
         <v>205910</v>
@@ -10020,7 +10042,7 @@
         <v>28700</v>
       </c>
       <c r="K192" t="n">
-        <v>8.333333333333332</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L192" t="n">
         <v>205950</v>
@@ -10071,7 +10093,7 @@
         <v>28700</v>
       </c>
       <c r="K193" t="n">
-        <v>23.80952380952381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L193" t="n">
         <v>205980</v>
@@ -10122,7 +10144,7 @@
         <v>28900</v>
       </c>
       <c r="K194" t="n">
-        <v>9.090909090909092</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L194" t="n">
         <v>206000</v>
@@ -10173,7 +10195,7 @@
         <v>29000</v>
       </c>
       <c r="K195" t="n">
-        <v>18.18181818181818</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L195" t="n">
         <v>206020</v>
@@ -10224,7 +10246,7 @@
         <v>29100</v>
       </c>
       <c r="K196" t="n">
-        <v>18.18181818181818</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L196" t="n">
         <v>206020</v>
@@ -10275,7 +10297,7 @@
         <v>29300</v>
       </c>
       <c r="K197" t="n">
-        <v>21.73913043478261</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L197" t="n">
         <v>205990</v>
@@ -10326,7 +10348,7 @@
         <v>29300</v>
       </c>
       <c r="K198" t="n">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>205960</v>
@@ -10377,7 +10399,7 @@
         <v>29300</v>
       </c>
       <c r="K199" t="n">
-        <v>23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>205960</v>
@@ -10428,7 +10450,7 @@
         <v>29500</v>
       </c>
       <c r="K200" t="n">
-        <v>30.43478260869566</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L200" t="n">
         <v>205980</v>
@@ -10479,7 +10501,7 @@
         <v>29500</v>
       </c>
       <c r="K201" t="n">
-        <v>30.43478260869566</v>
+        <v>25</v>
       </c>
       <c r="L201" t="n">
         <v>205990</v>
@@ -10530,7 +10552,7 @@
         <v>29600</v>
       </c>
       <c r="K202" t="n">
-        <v>30.43478260869566</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L202" t="n">
         <v>206020</v>
@@ -10581,7 +10603,7 @@
         <v>29700</v>
       </c>
       <c r="K203" t="n">
-        <v>21.73913043478261</v>
+        <v>50</v>
       </c>
       <c r="L203" t="n">
         <v>206040</v>
@@ -10632,7 +10654,7 @@
         <v>29800</v>
       </c>
       <c r="K204" t="n">
-        <v>30.43478260869566</v>
+        <v>50</v>
       </c>
       <c r="L204" t="n">
         <v>206090</v>
@@ -10683,7 +10705,7 @@
         <v>30000</v>
       </c>
       <c r="K205" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>206110</v>
@@ -10734,7 +10756,7 @@
         <v>30000</v>
       </c>
       <c r="K206" t="n">
-        <v>13.04347826086956</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L206" t="n">
         <v>206140</v>
@@ -10785,7 +10807,7 @@
         <v>30200</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L207" t="n">
         <v>206170</v>
@@ -10836,7 +10858,7 @@
         <v>30300</v>
       </c>
       <c r="K208" t="n">
-        <v>-4.761904761904762</v>
+        <v>20</v>
       </c>
       <c r="L208" t="n">
         <v>206190</v>
@@ -10887,7 +10909,7 @@
         <v>30600</v>
       </c>
       <c r="K209" t="n">
-        <v>23.80952380952381</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L209" t="n">
         <v>206240</v>
@@ -10938,7 +10960,7 @@
         <v>30600</v>
       </c>
       <c r="K210" t="n">
-        <v>23.80952380952381</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L210" t="n">
         <v>206270</v>
@@ -10989,7 +11011,7 @@
         <v>30900</v>
       </c>
       <c r="K211" t="n">
-        <v>4.347826086956522</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L211" t="n">
         <v>206270</v>
@@ -11040,7 +11062,7 @@
         <v>31000</v>
       </c>
       <c r="K212" t="n">
-        <v>13.04347826086956</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L212" t="n">
         <v>206270</v>
@@ -11091,7 +11113,7 @@
         <v>31000</v>
       </c>
       <c r="K213" t="n">
-        <v>13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L213" t="n">
         <v>206280</v>
@@ -11142,7 +11164,7 @@
         <v>31200</v>
       </c>
       <c r="K214" t="n">
-        <v>30.43478260869566</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L214" t="n">
         <v>206300</v>
@@ -11193,7 +11215,7 @@
         <v>31300</v>
       </c>
       <c r="K215" t="n">
-        <v>21.73913043478261</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L215" t="n">
         <v>206330</v>
@@ -11244,7 +11266,7 @@
         <v>31500</v>
       </c>
       <c r="K216" t="n">
-        <v>16.66666666666666</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L216" t="n">
         <v>206340</v>
@@ -11295,7 +11317,7 @@
         <v>31800</v>
       </c>
       <c r="K217" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="L217" t="n">
         <v>206300</v>
@@ -11346,7 +11368,7 @@
         <v>31900</v>
       </c>
       <c r="K218" t="n">
-        <v>0</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L218" t="n">
         <v>206280</v>
@@ -11397,7 +11419,7 @@
         <v>32100</v>
       </c>
       <c r="K219" t="n">
-        <v>-7.142857142857142</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L219" t="n">
         <v>206210</v>
@@ -11499,7 +11521,7 @@
         <v>32600</v>
       </c>
       <c r="K221" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>206190</v>
@@ -11550,7 +11572,7 @@
         <v>32700</v>
       </c>
       <c r="K222" t="n">
-        <v>3.225806451612903</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L222" t="n">
         <v>206200</v>
@@ -11601,7 +11623,7 @@
         <v>33100</v>
       </c>
       <c r="K223" t="n">
-        <v>-5.88235294117647</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L223" t="n">
         <v>206170</v>
@@ -11652,7 +11674,7 @@
         <v>33400</v>
       </c>
       <c r="K224" t="n">
-        <v>0</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L224" t="n">
         <v>206150</v>
@@ -11703,7 +11725,7 @@
         <v>33500</v>
       </c>
       <c r="K225" t="n">
-        <v>2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>206130</v>
@@ -11754,7 +11776,7 @@
         <v>33600</v>
       </c>
       <c r="K226" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L226" t="n">
         <v>206120</v>
@@ -11805,7 +11827,7 @@
         <v>33700</v>
       </c>
       <c r="K227" t="n">
-        <v>-2.857142857142857</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L227" t="n">
         <v>206150</v>
@@ -11856,7 +11878,7 @@
         <v>34000</v>
       </c>
       <c r="K228" t="n">
-        <v>8.108108108108109</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L228" t="n">
         <v>206200</v>
@@ -11907,7 +11929,7 @@
         <v>34200</v>
       </c>
       <c r="K229" t="n">
-        <v>5.555555555555555</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L229" t="n">
         <v>206290</v>
@@ -11958,7 +11980,7 @@
         <v>34700</v>
       </c>
       <c r="K230" t="n">
-        <v>-7.317073170731707</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L230" t="n">
         <v>206290</v>
@@ -12009,7 +12031,7 @@
         <v>34900</v>
       </c>
       <c r="K231" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
         <v>206300</v>
@@ -12060,7 +12082,7 @@
         <v>35200</v>
       </c>
       <c r="K232" t="n">
-        <v>-4.761904761904762</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L232" t="n">
         <v>206270</v>
@@ -12111,7 +12133,7 @@
         <v>35300</v>
       </c>
       <c r="K233" t="n">
-        <v>-6.976744186046512</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L233" t="n">
         <v>206270</v>
@@ -12162,7 +12184,7 @@
         <v>35500</v>
       </c>
       <c r="K234" t="n">
-        <v>-16.27906976744186</v>
+        <v>-20</v>
       </c>
       <c r="L234" t="n">
         <v>206220</v>
@@ -12213,7 +12235,7 @@
         <v>35600</v>
       </c>
       <c r="K235" t="n">
-        <v>-16.27906976744186</v>
+        <v>-20</v>
       </c>
       <c r="L235" t="n">
         <v>206170</v>
@@ -12264,7 +12286,7 @@
         <v>35700</v>
       </c>
       <c r="K236" t="n">
-        <v>-14.28571428571428</v>
+        <v>-30</v>
       </c>
       <c r="L236" t="n">
         <v>206120</v>
@@ -12315,7 +12337,7 @@
         <v>35900</v>
       </c>
       <c r="K237" t="n">
-        <v>-2.439024390243902</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L237" t="n">
         <v>206080</v>
@@ -12366,7 +12388,7 @@
         <v>36000</v>
       </c>
       <c r="K238" t="n">
-        <v>-7.317073170731707</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L238" t="n">
         <v>206000</v>
@@ -12417,7 +12439,7 @@
         <v>36000</v>
       </c>
       <c r="K239" t="n">
-        <v>-2.564102564102564</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L239" t="n">
         <v>205900</v>
@@ -12468,7 +12490,7 @@
         <v>36000</v>
       </c>
       <c r="K240" t="n">
-        <v>-14.28571428571428</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L240" t="n">
         <v>205850</v>
@@ -12519,7 +12541,7 @@
         <v>36000</v>
       </c>
       <c r="K241" t="n">
-        <v>-17.64705882352941</v>
+        <v>-50</v>
       </c>
       <c r="L241" t="n">
         <v>205780</v>
@@ -12570,7 +12592,7 @@
         <v>36000</v>
       </c>
       <c r="K242" t="n">
-        <v>-21.21212121212121</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L242" t="n">
         <v>205740</v>
@@ -12621,7 +12643,7 @@
         <v>36100</v>
       </c>
       <c r="K243" t="n">
-        <v>-13.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L243" t="n">
         <v>205700</v>
@@ -12672,7 +12694,7 @@
         <v>36200</v>
       </c>
       <c r="K244" t="n">
-        <v>-28.57142857142857</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L244" t="n">
         <v>205670</v>
@@ -12723,7 +12745,7 @@
         <v>36200</v>
       </c>
       <c r="K245" t="n">
-        <v>-25.92592592592592</v>
+        <v>-20</v>
       </c>
       <c r="L245" t="n">
         <v>205650</v>
@@ -12774,7 +12796,7 @@
         <v>36300</v>
       </c>
       <c r="K246" t="n">
-        <v>-25.92592592592592</v>
+        <v>-100</v>
       </c>
       <c r="L246" t="n">
         <v>205630</v>
@@ -12825,7 +12847,7 @@
         <v>36500</v>
       </c>
       <c r="K247" t="n">
-        <v>-35.71428571428572</v>
+        <v>-100</v>
       </c>
       <c r="L247" t="n">
         <v>205570</v>
@@ -12876,7 +12898,7 @@
         <v>36700</v>
       </c>
       <c r="K248" t="n">
-        <v>-40.74074074074074</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L248" t="n">
         <v>205540</v>
@@ -12927,7 +12949,7 @@
         <v>36800</v>
       </c>
       <c r="K249" t="n">
-        <v>-46.15384615384615</v>
+        <v>-25</v>
       </c>
       <c r="L249" t="n">
         <v>205520</v>
@@ -12978,7 +13000,7 @@
         <v>36900</v>
       </c>
       <c r="K250" t="n">
-        <v>-36.36363636363637</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L250" t="n">
         <v>205490</v>
@@ -13029,7 +13051,7 @@
         <v>36900</v>
       </c>
       <c r="K251" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L251" t="n">
         <v>205460</v>
@@ -13080,7 +13102,7 @@
         <v>36900</v>
       </c>
       <c r="K252" t="n">
-        <v>-41.17647058823529</v>
+        <v>-25</v>
       </c>
       <c r="L252" t="n">
         <v>205430</v>
@@ -13131,7 +13153,7 @@
         <v>37500</v>
       </c>
       <c r="K253" t="n">
-        <v>-54.54545454545454</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L253" t="n">
         <v>205350</v>
@@ -13182,7 +13204,7 @@
         <v>37700</v>
       </c>
       <c r="K254" t="n">
-        <v>-36.36363636363637</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L254" t="n">
         <v>205300</v>
@@ -13233,7 +13255,7 @@
         <v>37700</v>
       </c>
       <c r="K255" t="n">
-        <v>-33.33333333333333</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L255" t="n">
         <v>205250</v>
@@ -13284,7 +13306,7 @@
         <v>37700</v>
       </c>
       <c r="K256" t="n">
-        <v>-30</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L256" t="n">
         <v>205210</v>
@@ -13335,7 +13357,7 @@
         <v>37800</v>
       </c>
       <c r="K257" t="n">
-        <v>-47.36842105263158</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L257" t="n">
         <v>205180</v>
@@ -13386,7 +13408,7 @@
         <v>38000</v>
       </c>
       <c r="K258" t="n">
-        <v>-30</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L258" t="n">
         <v>205150</v>
@@ -13437,7 +13459,7 @@
         <v>38000</v>
       </c>
       <c r="K259" t="n">
-        <v>-30</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L259" t="n">
         <v>205110</v>
@@ -13488,7 +13510,7 @@
         <v>38000</v>
       </c>
       <c r="K260" t="n">
-        <v>-30</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L260" t="n">
         <v>205080</v>
@@ -13539,7 +13561,7 @@
         <v>38200</v>
       </c>
       <c r="K261" t="n">
-        <v>-36.36363636363637</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L261" t="n">
         <v>205030</v>
@@ -13590,7 +13612,7 @@
         <v>38300</v>
       </c>
       <c r="K262" t="n">
-        <v>-30.43478260869566</v>
+        <v>25</v>
       </c>
       <c r="L262" t="n">
         <v>204990</v>
@@ -13641,7 +13663,7 @@
         <v>38600</v>
       </c>
       <c r="K263" t="n">
-        <v>-12</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L263" t="n">
         <v>205040</v>
@@ -13692,7 +13714,7 @@
         <v>38700</v>
       </c>
       <c r="K264" t="n">
-        <v>-12</v>
+        <v>20</v>
       </c>
       <c r="L264" t="n">
         <v>205060</v>
@@ -13743,7 +13765,7 @@
         <v>38700</v>
       </c>
       <c r="K265" t="n">
-        <v>-12</v>
+        <v>20</v>
       </c>
       <c r="L265" t="n">
         <v>205080</v>
@@ -13794,7 +13816,7 @@
         <v>38700</v>
       </c>
       <c r="K266" t="n">
-        <v>-8.333333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L266" t="n">
         <v>205100</v>
@@ -13845,7 +13867,7 @@
         <v>38900</v>
       </c>
       <c r="K267" t="n">
-        <v>8.333333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L267" t="n">
         <v>205150</v>
@@ -13896,7 +13918,7 @@
         <v>39000</v>
       </c>
       <c r="K268" t="n">
-        <v>-4.347826086956522</v>
+        <v>20</v>
       </c>
       <c r="L268" t="n">
         <v>205170</v>
@@ -13947,7 +13969,7 @@
         <v>39100</v>
       </c>
       <c r="K269" t="n">
-        <v>-13.04347826086956</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L269" t="n">
         <v>205180</v>
@@ -13998,7 +14020,7 @@
         <v>39100</v>
       </c>
       <c r="K270" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L270" t="n">
         <v>205190</v>
@@ -14049,7 +14071,7 @@
         <v>39400</v>
       </c>
       <c r="K271" t="n">
-        <v>4</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L271" t="n">
         <v>205250</v>
@@ -14100,7 +14122,7 @@
         <v>39500</v>
       </c>
       <c r="K272" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L272" t="n">
         <v>205290</v>
@@ -14151,7 +14173,7 @@
         <v>39500</v>
       </c>
       <c r="K273" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L273" t="n">
         <v>205300</v>
@@ -14202,7 +14224,7 @@
         <v>39600</v>
       </c>
       <c r="K274" t="n">
-        <v>26.31578947368421</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L274" t="n">
         <v>205330</v>
@@ -14253,7 +14275,7 @@
         <v>39800</v>
       </c>
       <c r="K275" t="n">
-        <v>14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L275" t="n">
         <v>205340</v>
@@ -14304,7 +14326,7 @@
         <v>39800</v>
       </c>
       <c r="K276" t="n">
-        <v>14.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L276" t="n">
         <v>205350</v>
@@ -14406,7 +14428,7 @@
         <v>40700</v>
       </c>
       <c r="K278" t="n">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L278" t="n">
         <v>205370</v>
@@ -14457,7 +14479,7 @@
         <v>40900</v>
       </c>
       <c r="K279" t="n">
-        <v>-3.448275862068965</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L279" t="n">
         <v>205350</v>
@@ -14508,7 +14530,7 @@
         <v>41000</v>
       </c>
       <c r="K280" t="n">
-        <v>-6.666666666666667</v>
+        <v>-37.5</v>
       </c>
       <c r="L280" t="n">
         <v>205320</v>
@@ -14559,7 +14581,7 @@
         <v>41100</v>
       </c>
       <c r="K281" t="n">
-        <v>-3.448275862068965</v>
+        <v>-37.5</v>
       </c>
       <c r="L281" t="n">
         <v>205250</v>
@@ -14610,7 +14632,7 @@
         <v>41100</v>
       </c>
       <c r="K282" t="n">
-        <v>-7.142857142857142</v>
+        <v>-37.5</v>
       </c>
       <c r="L282" t="n">
         <v>205190</v>
@@ -14661,7 +14683,7 @@
         <v>41200</v>
       </c>
       <c r="K283" t="n">
-        <v>-15.38461538461539</v>
+        <v>-37.5</v>
       </c>
       <c r="L283" t="n">
         <v>205140</v>
@@ -14712,7 +14734,7 @@
         <v>41400</v>
       </c>
       <c r="K284" t="n">
-        <v>-3.703703703703703</v>
+        <v>-12.5</v>
       </c>
       <c r="L284" t="n">
         <v>205100</v>
@@ -14763,7 +14785,7 @@
         <v>41500</v>
       </c>
       <c r="K285" t="n">
-        <v>-7.142857142857142</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L285" t="n">
         <v>205070</v>
@@ -14814,7 +14836,7 @@
         <v>41500</v>
       </c>
       <c r="K286" t="n">
-        <v>-7.142857142857142</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L286" t="n">
         <v>205040</v>
@@ -14865,7 +14887,7 @@
         <v>41800</v>
       </c>
       <c r="K287" t="n">
-        <v>-24.13793103448276</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L287" t="n">
         <v>204940</v>
@@ -14916,7 +14938,7 @@
         <v>41900</v>
       </c>
       <c r="K288" t="n">
-        <v>-17.24137931034483</v>
+        <v>-20</v>
       </c>
       <c r="L288" t="n">
         <v>204900</v>
@@ -14967,7 +14989,7 @@
         <v>42200</v>
       </c>
       <c r="K289" t="n">
-        <v>-22.58064516129032</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L289" t="n">
         <v>204850</v>
@@ -15018,7 +15040,7 @@
         <v>42200</v>
       </c>
       <c r="K290" t="n">
-        <v>-22.58064516129032</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L290" t="n">
         <v>204810</v>
@@ -15069,7 +15091,7 @@
         <v>42300</v>
       </c>
       <c r="K291" t="n">
-        <v>-31.03448275862069</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L291" t="n">
         <v>204790</v>
@@ -15120,7 +15142,7 @@
         <v>42600</v>
       </c>
       <c r="K292" t="n">
-        <v>-35.48387096774194</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L292" t="n">
         <v>204740</v>
@@ -15171,7 +15193,7 @@
         <v>43000</v>
       </c>
       <c r="K293" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L293" t="n">
         <v>204720</v>
@@ -15222,7 +15244,7 @@
         <v>43100</v>
       </c>
       <c r="K294" t="n">
-        <v>-25.71428571428571</v>
+        <v>-25</v>
       </c>
       <c r="L294" t="n">
         <v>204670</v>
@@ -15273,7 +15295,7 @@
         <v>43100</v>
       </c>
       <c r="K295" t="n">
-        <v>-21.21212121212121</v>
+        <v>-25</v>
       </c>
       <c r="L295" t="n">
         <v>204630</v>
@@ -15324,7 +15346,7 @@
         <v>43500</v>
       </c>
       <c r="K296" t="n">
-        <v>-29.72972972972973</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L296" t="n">
         <v>204550</v>
@@ -15375,7 +15397,7 @@
         <v>43500</v>
       </c>
       <c r="K297" t="n">
-        <v>-45.45454545454545</v>
+        <v>-37.5</v>
       </c>
       <c r="L297" t="n">
         <v>204500</v>
@@ -15426,7 +15448,7 @@
         <v>43700</v>
       </c>
       <c r="K298" t="n">
-        <v>-26.66666666666667</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L298" t="n">
         <v>204460</v>
@@ -15477,7 +15499,7 @@
         <v>43700</v>
       </c>
       <c r="K299" t="n">
-        <v>-21.42857142857143</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L299" t="n">
         <v>204450</v>
@@ -15528,7 +15550,7 @@
         <v>43900</v>
       </c>
       <c r="K300" t="n">
-        <v>-10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>204460</v>
@@ -15579,7 +15601,7 @@
         <v>44000</v>
       </c>
       <c r="K301" t="n">
-        <v>-10.3448275862069</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L301" t="n">
         <v>204450</v>
@@ -15630,7 +15652,7 @@
         <v>44200</v>
       </c>
       <c r="K302" t="n">
-        <v>-16.12903225806452</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L302" t="n">
         <v>204450</v>
@@ -15681,7 +15703,7 @@
         <v>44300</v>
       </c>
       <c r="K303" t="n">
-        <v>-16.12903225806452</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L303" t="n">
         <v>204420</v>
@@ -15732,7 +15754,7 @@
         <v>44500</v>
       </c>
       <c r="K304" t="n">
-        <v>-29.03225806451613</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L304" t="n">
         <v>204380</v>
@@ -15783,7 +15805,7 @@
         <v>44700</v>
       </c>
       <c r="K305" t="n">
-        <v>-31.25</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L305" t="n">
         <v>204320</v>
@@ -15834,7 +15856,7 @@
         <v>44700</v>
       </c>
       <c r="K306" t="n">
-        <v>-31.25</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L306" t="n">
         <v>204300</v>
@@ -15885,7 +15907,7 @@
         <v>44700</v>
       </c>
       <c r="K307" t="n">
-        <v>-24.13793103448276</v>
+        <v>-40</v>
       </c>
       <c r="L307" t="n">
         <v>204280</v>
@@ -15936,7 +15958,7 @@
         <v>44800</v>
       </c>
       <c r="K308" t="n">
-        <v>-24.13793103448276</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L308" t="n">
         <v>204250</v>
@@ -15987,7 +16009,7 @@
         <v>44900</v>
       </c>
       <c r="K309" t="n">
-        <v>-11.11111111111111</v>
+        <v>-40</v>
       </c>
       <c r="L309" t="n">
         <v>204230</v>
@@ -16089,7 +16111,7 @@
         <v>45400</v>
       </c>
       <c r="K311" t="n">
-        <v>3.225806451612903</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L311" t="n">
         <v>204240</v>
@@ -16140,7 +16162,7 @@
         <v>45600</v>
       </c>
       <c r="K312" t="n">
-        <v>6.666666666666667</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L312" t="n">
         <v>204260</v>
@@ -16191,7 +16213,7 @@
         <v>45800</v>
       </c>
       <c r="K313" t="n">
-        <v>-14.28571428571428</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L313" t="n">
         <v>204250</v>
@@ -16242,7 +16264,7 @@
         <v>46000</v>
       </c>
       <c r="K314" t="n">
-        <v>-3.448275862068965</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L314" t="n">
         <v>204280</v>
@@ -16293,7 +16315,7 @@
         <v>46000</v>
       </c>
       <c r="K315" t="n">
-        <v>-3.448275862068965</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L315" t="n">
         <v>204330</v>
@@ -16344,7 +16366,7 @@
         <v>46000</v>
       </c>
       <c r="K316" t="n">
-        <v>12</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L316" t="n">
         <v>204380</v>
@@ -16395,7 +16417,7 @@
         <v>46000</v>
       </c>
       <c r="K317" t="n">
-        <v>12</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L317" t="n">
         <v>204430</v>
@@ -16446,7 +16468,7 @@
         <v>46000</v>
       </c>
       <c r="K318" t="n">
-        <v>4.347826086956522</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L318" t="n">
         <v>204470</v>
@@ -16497,7 +16519,7 @@
         <v>46000</v>
       </c>
       <c r="K319" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>204500</v>
@@ -16548,7 +16570,7 @@
         <v>46200</v>
       </c>
       <c r="K320" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L320" t="n">
         <v>204520</v>
@@ -16599,7 +16621,7 @@
         <v>46300</v>
       </c>
       <c r="K321" t="n">
-        <v>4.347826086956522</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L321" t="n">
         <v>204510</v>
@@ -16650,7 +16672,7 @@
         <v>46500</v>
       </c>
       <c r="K322" t="n">
-        <v>4.347826086956522</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L322" t="n">
         <v>204500</v>
@@ -16701,7 +16723,7 @@
         <v>46500</v>
       </c>
       <c r="K323" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L323" t="n">
         <v>204510</v>
@@ -16752,7 +16774,7 @@
         <v>46600</v>
       </c>
       <c r="K324" t="n">
-        <v>4.761904761904762</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L324" t="n">
         <v>204490</v>
@@ -16803,7 +16825,7 @@
         <v>46800</v>
       </c>
       <c r="K325" t="n">
-        <v>23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L325" t="n">
         <v>204490</v>
@@ -16854,7 +16876,7 @@
         <v>47000</v>
       </c>
       <c r="K326" t="n">
-        <v>30.43478260869566</v>
+        <v>20</v>
       </c>
       <c r="L326" t="n">
         <v>204510</v>
@@ -16905,7 +16927,7 @@
         <v>47300</v>
       </c>
       <c r="K327" t="n">
-        <v>15.38461538461539</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L327" t="n">
         <v>204500</v>
@@ -16956,7 +16978,7 @@
         <v>47400</v>
       </c>
       <c r="K328" t="n">
-        <v>15.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="L328" t="n">
         <v>204500</v>
@@ -17007,7 +17029,7 @@
         <v>47700</v>
       </c>
       <c r="K329" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L329" t="n">
         <v>204470</v>
@@ -17058,7 +17080,7 @@
         <v>48000</v>
       </c>
       <c r="K330" t="n">
-        <v>0</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L330" t="n">
         <v>204450</v>
@@ -17109,7 +17131,7 @@
         <v>48400</v>
       </c>
       <c r="K331" t="n">
-        <v>-20</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L331" t="n">
         <v>204400</v>
@@ -17160,7 +17182,7 @@
         <v>48700</v>
       </c>
       <c r="K332" t="n">
-        <v>-3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L332" t="n">
         <v>204400</v>
@@ -17211,7 +17233,7 @@
         <v>48700</v>
       </c>
       <c r="K333" t="n">
-        <v>3.448275862068965</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L333" t="n">
         <v>204400</v>
@@ -17262,7 +17284,7 @@
         <v>48700</v>
       </c>
       <c r="K334" t="n">
-        <v>-3.703703703703703</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L334" t="n">
         <v>204410</v>
@@ -17313,7 +17335,7 @@
         <v>48700</v>
       </c>
       <c r="K335" t="n">
-        <v>-3.703703703703703</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L335" t="n">
         <v>204400</v>
@@ -17364,7 +17386,7 @@
         <v>48800</v>
       </c>
       <c r="K336" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L336" t="n">
         <v>204380</v>
@@ -17415,7 +17437,7 @@
         <v>49000</v>
       </c>
       <c r="K337" t="n">
-        <v>-6.666666666666667</v>
+        <v>-12.5</v>
       </c>
       <c r="L337" t="n">
         <v>204370</v>
@@ -17466,7 +17488,7 @@
         <v>49100</v>
       </c>
       <c r="K338" t="n">
-        <v>-9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="L338" t="n">
         <v>204340</v>
@@ -17568,7 +17590,7 @@
         <v>49600</v>
       </c>
       <c r="K340" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L340" t="n">
         <v>204390</v>
@@ -17619,7 +17641,7 @@
         <v>49900</v>
       </c>
       <c r="K341" t="n">
-        <v>-5.555555555555555</v>
+        <v>0</v>
       </c>
       <c r="L341" t="n">
         <v>204420</v>
@@ -17721,7 +17743,7 @@
         <v>50100</v>
       </c>
       <c r="K343" t="n">
-        <v>5.555555555555555</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L343" t="n">
         <v>204440</v>
@@ -17772,7 +17794,7 @@
         <v>50100</v>
       </c>
       <c r="K344" t="n">
-        <v>8.571428571428571</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L344" t="n">
         <v>204460</v>
@@ -17823,7 +17845,7 @@
         <v>50100</v>
       </c>
       <c r="K345" t="n">
-        <v>3.03030303030303</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L345" t="n">
         <v>204480</v>
@@ -17874,7 +17896,7 @@
         <v>50100</v>
       </c>
       <c r="K346" t="n">
-        <v>-3.225806451612903</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L346" t="n">
         <v>204490</v>
@@ -17925,7 +17947,7 @@
         <v>50300</v>
       </c>
       <c r="K347" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L347" t="n">
         <v>204500</v>
@@ -18027,7 +18049,7 @@
         <v>50600</v>
       </c>
       <c r="K349" t="n">
-        <v>3.448275862068965</v>
+        <v>-40</v>
       </c>
       <c r="L349" t="n">
         <v>204510</v>
@@ -18078,7 +18100,7 @@
         <v>50600</v>
       </c>
       <c r="K350" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L350" t="n">
         <v>204470</v>
@@ -18180,7 +18202,7 @@
         <v>51100</v>
       </c>
       <c r="K352" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L352" t="n">
         <v>204530</v>
@@ -18231,7 +18253,7 @@
         <v>51300</v>
       </c>
       <c r="K353" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L353" t="n">
         <v>204530</v>
@@ -18282,7 +18304,7 @@
         <v>51500</v>
       </c>
       <c r="K354" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L354" t="n">
         <v>204510</v>
@@ -18333,7 +18355,7 @@
         <v>51600</v>
       </c>
       <c r="K355" t="n">
-        <v>3.448275862068965</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L355" t="n">
         <v>204500</v>
@@ -18384,7 +18406,7 @@
         <v>51600</v>
       </c>
       <c r="K356" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L356" t="n">
         <v>204490</v>
@@ -18435,7 +18457,7 @@
         <v>51700</v>
       </c>
       <c r="K357" t="n">
-        <v>3.703703703703703</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L357" t="n">
         <v>204490</v>
@@ -18486,7 +18508,7 @@
         <v>51800</v>
       </c>
       <c r="K358" t="n">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L358" t="n">
         <v>204470</v>
@@ -18537,7 +18559,7 @@
         <v>51800</v>
       </c>
       <c r="K359" t="n">
-        <v>-8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L359" t="n">
         <v>204470</v>
@@ -18588,7 +18610,7 @@
         <v>52000</v>
       </c>
       <c r="K360" t="n">
-        <v>-8.333333333333332</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L360" t="n">
         <v>204490</v>
@@ -18639,7 +18661,7 @@
         <v>52000</v>
       </c>
       <c r="K361" t="n">
-        <v>4.761904761904762</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L361" t="n">
         <v>204480</v>
@@ -18690,7 +18712,7 @@
         <v>52100</v>
       </c>
       <c r="K362" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L362" t="n">
         <v>204460</v>
@@ -18741,7 +18763,7 @@
         <v>52400</v>
       </c>
       <c r="K363" t="n">
-        <v>-13.04347826086956</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L363" t="n">
         <v>204430</v>
@@ -18792,7 +18814,7 @@
         <v>52400</v>
       </c>
       <c r="K364" t="n">
-        <v>-13.04347826086956</v>
+        <v>-25</v>
       </c>
       <c r="L364" t="n">
         <v>204420</v>
@@ -18843,7 +18865,7 @@
         <v>52400</v>
       </c>
       <c r="K365" t="n">
-        <v>-13.04347826086956</v>
+        <v>-25</v>
       </c>
       <c r="L365" t="n">
         <v>204400</v>
@@ -18894,7 +18916,7 @@
         <v>52400</v>
       </c>
       <c r="K366" t="n">
-        <v>-13.04347826086956</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L366" t="n">
         <v>204380</v>
@@ -18945,7 +18967,7 @@
         <v>52400</v>
       </c>
       <c r="K367" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L367" t="n">
         <v>204370</v>
@@ -18996,7 +19018,7 @@
         <v>52400</v>
       </c>
       <c r="K368" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L368" t="n">
         <v>204370</v>
@@ -19047,7 +19069,7 @@
         <v>52600</v>
       </c>
       <c r="K369" t="n">
-        <v>-10</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L369" t="n">
         <v>204350</v>
@@ -19098,7 +19120,7 @@
         <v>52600</v>
       </c>
       <c r="K370" t="n">
-        <v>-10</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L370" t="n">
         <v>204310</v>
@@ -19149,7 +19171,7 @@
         <v>52700</v>
       </c>
       <c r="K371" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L371" t="n">
         <v>204260</v>
@@ -19200,7 +19222,7 @@
         <v>52700</v>
       </c>
       <c r="K372" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L372" t="n">
         <v>204200</v>
@@ -19251,7 +19273,7 @@
         <v>52900</v>
       </c>
       <c r="K373" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L373" t="n">
         <v>204190</v>
@@ -19302,7 +19324,7 @@
         <v>53100</v>
       </c>
       <c r="K374" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L374" t="n">
         <v>204200</v>
@@ -19353,7 +19375,7 @@
         <v>53400</v>
       </c>
       <c r="K375" t="n">
-        <v>-22.22222222222222</v>
+        <v>-20</v>
       </c>
       <c r="L375" t="n">
         <v>204180</v>
@@ -19404,7 +19426,7 @@
         <v>53700</v>
       </c>
       <c r="K376" t="n">
-        <v>-33.33333333333333</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L376" t="n">
         <v>204130</v>
@@ -19455,7 +19477,7 @@
         <v>53900</v>
       </c>
       <c r="K377" t="n">
-        <v>-18.18181818181818</v>
+        <v>-20</v>
       </c>
       <c r="L377" t="n">
         <v>204100</v>
@@ -19506,7 +19528,7 @@
         <v>54100</v>
       </c>
       <c r="K378" t="n">
-        <v>-21.73913043478261</v>
+        <v>-20</v>
       </c>
       <c r="L378" t="n">
         <v>204050</v>
@@ -19557,7 +19579,7 @@
         <v>54200</v>
       </c>
       <c r="K379" t="n">
-        <v>-16.66666666666666</v>
+        <v>-12.5</v>
       </c>
       <c r="L379" t="n">
         <v>204030</v>
@@ -19608,7 +19630,7 @@
         <v>54200</v>
       </c>
       <c r="K380" t="n">
-        <v>-27.27272727272727</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L380" t="n">
         <v>204010</v>
@@ -19659,7 +19681,7 @@
         <v>54300</v>
       </c>
       <c r="K381" t="n">
-        <v>-30.43478260869566</v>
+        <v>-12.5</v>
       </c>
       <c r="L381" t="n">
         <v>203990</v>
@@ -19710,7 +19732,7 @@
         <v>54400</v>
       </c>
       <c r="K382" t="n">
-        <v>-30.43478260869566</v>
+        <v>-20</v>
       </c>
       <c r="L382" t="n">
         <v>203980</v>
@@ -19761,7 +19783,7 @@
         <v>54500</v>
       </c>
       <c r="K383" t="n">
-        <v>-14.28571428571428</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L383" t="n">
         <v>203960</v>
@@ -19812,7 +19834,7 @@
         <v>54500</v>
       </c>
       <c r="K384" t="n">
-        <v>-14.28571428571428</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L384" t="n">
         <v>203920</v>
@@ -19863,7 +19885,7 @@
         <v>54700</v>
       </c>
       <c r="K385" t="n">
-        <v>-21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L385" t="n">
         <v>203890</v>
@@ -19914,7 +19936,7 @@
         <v>54900</v>
       </c>
       <c r="K386" t="n">
-        <v>-28</v>
+        <v>-40</v>
       </c>
       <c r="L386" t="n">
         <v>203870</v>
@@ -19965,7 +19987,7 @@
         <v>55200</v>
       </c>
       <c r="K387" t="n">
-        <v>-14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L387" t="n">
         <v>203860</v>
@@ -20016,7 +20038,7 @@
         <v>55500</v>
       </c>
       <c r="K388" t="n">
-        <v>-22.58064516129032</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L388" t="n">
         <v>203840</v>
@@ -20067,7 +20089,7 @@
         <v>55600</v>
       </c>
       <c r="K389" t="n">
-        <v>-20</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L389" t="n">
         <v>203800</v>
@@ -20118,7 +20140,7 @@
         <v>56000</v>
       </c>
       <c r="K390" t="n">
-        <v>-5.88235294117647</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L390" t="n">
         <v>203800</v>
@@ -20169,7 +20191,7 @@
         <v>56000</v>
       </c>
       <c r="K391" t="n">
-        <v>-3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L391" t="n">
         <v>203810</v>
@@ -20220,7 +20242,7 @@
         <v>56000</v>
       </c>
       <c r="K392" t="n">
-        <v>-3.03030303030303</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L392" t="n">
         <v>203810</v>
@@ -20271,7 +20293,7 @@
         <v>56300</v>
       </c>
       <c r="K393" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L393" t="n">
         <v>203830</v>
@@ -20322,7 +20344,7 @@
         <v>56300</v>
       </c>
       <c r="K394" t="n">
-        <v>-6.25</v>
+        <v>25</v>
       </c>
       <c r="L394" t="n">
         <v>203850</v>
@@ -20373,7 +20395,7 @@
         <v>56400</v>
       </c>
       <c r="K395" t="n">
-        <v>6.666666666666667</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L395" t="n">
         <v>203900</v>
@@ -20424,7 +20446,7 @@
         <v>56400</v>
       </c>
       <c r="K396" t="n">
-        <v>18.51851851851852</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L396" t="n">
         <v>203970</v>
@@ -20475,7 +20497,7 @@
         <v>56400</v>
       </c>
       <c r="K397" t="n">
-        <v>12</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L397" t="n">
         <v>204010</v>
@@ -20526,7 +20548,7 @@
         <v>56500</v>
       </c>
       <c r="K398" t="n">
-        <v>16.66666666666666</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L398" t="n">
         <v>204070</v>
@@ -20577,7 +20599,7 @@
         <v>56700</v>
       </c>
       <c r="K399" t="n">
-        <v>4</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L399" t="n">
         <v>204120</v>
@@ -20628,7 +20650,7 @@
         <v>56800</v>
       </c>
       <c r="K400" t="n">
-        <v>7.692307692307693</v>
+        <v>25</v>
       </c>
       <c r="L400" t="n">
         <v>204140</v>
@@ -20679,7 +20701,7 @@
         <v>56800</v>
       </c>
       <c r="K401" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L401" t="n">
         <v>204160</v>
@@ -20730,7 +20752,7 @@
         <v>56800</v>
       </c>
       <c r="K402" t="n">
-        <v>8.333333333333332</v>
+        <v>-20</v>
       </c>
       <c r="L402" t="n">
         <v>204180</v>
@@ -20781,7 +20803,7 @@
         <v>57000</v>
       </c>
       <c r="K403" t="n">
-        <v>12</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L403" t="n">
         <v>204190</v>
@@ -20832,7 +20854,7 @@
         <v>57000</v>
       </c>
       <c r="K404" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L404" t="n">
         <v>204200</v>
@@ -20883,7 +20905,7 @@
         <v>57100</v>
       </c>
       <c r="K405" t="n">
-        <v>16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L405" t="n">
         <v>204190</v>
@@ -20934,7 +20956,7 @@
         <v>57100</v>
       </c>
       <c r="K406" t="n">
-        <v>27.27272727272727</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L406" t="n">
         <v>204180</v>
@@ -20985,7 +21007,7 @@
         <v>57100</v>
       </c>
       <c r="K407" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L407" t="n">
         <v>204170</v>
@@ -21036,7 +21058,7 @@
         <v>57300</v>
       </c>
       <c r="K408" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L408" t="n">
         <v>204150</v>
@@ -21087,7 +21109,7 @@
         <v>57400</v>
       </c>
       <c r="K409" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L409" t="n">
         <v>204160</v>
@@ -21138,7 +21160,7 @@
         <v>57400</v>
       </c>
       <c r="K410" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L410" t="n">
         <v>204160</v>
@@ -21189,7 +21211,7 @@
         <v>57400</v>
       </c>
       <c r="K411" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L411" t="n">
         <v>204160</v>
@@ -21240,7 +21262,7 @@
         <v>57400</v>
       </c>
       <c r="K412" t="n">
-        <v>14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L412" t="n">
         <v>204160</v>
@@ -21291,7 +21313,7 @@
         <v>57600</v>
       </c>
       <c r="K413" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L413" t="n">
         <v>204160</v>
@@ -21342,7 +21364,7 @@
         <v>57600</v>
       </c>
       <c r="K414" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L414" t="n">
         <v>204160</v>
@@ -21393,7 +21415,7 @@
         <v>57600</v>
       </c>
       <c r="K415" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L415" t="n">
         <v>204170</v>
@@ -21444,7 +21466,7 @@
         <v>57700</v>
       </c>
       <c r="K416" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L416" t="n">
         <v>204190</v>
@@ -21495,7 +21517,7 @@
         <v>57700</v>
       </c>
       <c r="K417" t="n">
-        <v>7.692307692307693</v>
+        <v>100</v>
       </c>
       <c r="L417" t="n">
         <v>204210</v>
@@ -21546,7 +21568,7 @@
         <v>57700</v>
       </c>
       <c r="K418" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L418" t="n">
         <v>204250</v>
@@ -21597,7 +21619,7 @@
         <v>57800</v>
       </c>
       <c r="K419" t="n">
-        <v>27.27272727272727</v>
+        <v>50</v>
       </c>
       <c r="L419" t="n">
         <v>204270</v>
@@ -21648,7 +21670,7 @@
         <v>57900</v>
       </c>
       <c r="K420" t="n">
-        <v>27.27272727272727</v>
+        <v>60</v>
       </c>
       <c r="L420" t="n">
         <v>204300</v>
@@ -21699,7 +21721,7 @@
         <v>58000</v>
       </c>
       <c r="K421" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L421" t="n">
         <v>204320</v>
@@ -21750,7 +21772,7 @@
         <v>58100</v>
       </c>
       <c r="K422" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L422" t="n">
         <v>204350</v>
@@ -21801,7 +21823,7 @@
         <v>58100</v>
       </c>
       <c r="K423" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L423" t="n">
         <v>204360</v>
@@ -21852,7 +21874,7 @@
         <v>58100</v>
       </c>
       <c r="K424" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L424" t="n">
         <v>204370</v>
@@ -21954,7 +21976,7 @@
         <v>58500</v>
       </c>
       <c r="K426" t="n">
-        <v>42.85714285714285</v>
+        <v>50</v>
       </c>
       <c r="L426" t="n">
         <v>204440</v>
@@ -22005,7 +22027,7 @@
         <v>58900</v>
       </c>
       <c r="K427" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L427" t="n">
         <v>204440</v>
@@ -22056,7 +22078,7 @@
         <v>59000</v>
       </c>
       <c r="K428" t="n">
-        <v>29.41176470588236</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L428" t="n">
         <v>204450</v>
@@ -22107,7 +22129,7 @@
         <v>59000</v>
       </c>
       <c r="K429" t="n">
-        <v>25</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L429" t="n">
         <v>204470</v>
@@ -22158,7 +22180,7 @@
         <v>59000</v>
       </c>
       <c r="K430" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L430" t="n">
         <v>204480</v>
@@ -22209,7 +22231,7 @@
         <v>59000</v>
       </c>
       <c r="K431" t="n">
-        <v>25</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L431" t="n">
         <v>204500</v>
@@ -22260,7 +22282,7 @@
         <v>59000</v>
       </c>
       <c r="K432" t="n">
-        <v>25</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L432" t="n">
         <v>204510</v>
@@ -22311,7 +22333,7 @@
         <v>59400</v>
       </c>
       <c r="K433" t="n">
-        <v>33.33333333333333</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L433" t="n">
         <v>204560</v>
@@ -22362,7 +22384,7 @@
         <v>59700</v>
       </c>
       <c r="K434" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L434" t="n">
         <v>204580</v>
@@ -22413,7 +22435,7 @@
         <v>59800</v>
       </c>
       <c r="K435" t="n">
-        <v>9.090909090909092</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L435" t="n">
         <v>204570</v>
@@ -22464,7 +22486,7 @@
         <v>59800</v>
       </c>
       <c r="K436" t="n">
-        <v>4.761904761904762</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L436" t="n">
         <v>204540</v>
@@ -22515,7 +22537,7 @@
         <v>59800</v>
       </c>
       <c r="K437" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L437" t="n">
         <v>204550</v>
@@ -22566,7 +22588,7 @@
         <v>60000</v>
       </c>
       <c r="K438" t="n">
-        <v>13.04347826086956</v>
+        <v>20</v>
       </c>
       <c r="L438" t="n">
         <v>204570</v>
@@ -22617,7 +22639,7 @@
         <v>60200</v>
       </c>
       <c r="K439" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L439" t="n">
         <v>204570</v>
@@ -22668,7 +22690,7 @@
         <v>60300</v>
       </c>
       <c r="K440" t="n">
-        <v>8.333333333333332</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L440" t="n">
         <v>204580</v>
@@ -22719,7 +22741,7 @@
         <v>60400</v>
       </c>
       <c r="K441" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L441" t="n">
         <v>204600</v>
@@ -22770,7 +22792,7 @@
         <v>60500</v>
       </c>
       <c r="K442" t="n">
-        <v>8.333333333333332</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L442" t="n">
         <v>204610</v>
@@ -22821,7 +22843,7 @@
         <v>60500</v>
       </c>
       <c r="K443" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L443" t="n">
         <v>204580</v>
@@ -22872,7 +22894,7 @@
         <v>60600</v>
       </c>
       <c r="K444" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L444" t="n">
         <v>204590</v>
@@ -22923,7 +22945,7 @@
         <v>60800</v>
       </c>
       <c r="K445" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="L445" t="n">
         <v>204630</v>
@@ -22974,7 +22996,7 @@
         <v>61200</v>
       </c>
       <c r="K446" t="n">
-        <v>18.51851851851852</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L446" t="n">
         <v>204710</v>
@@ -23025,7 +23047,7 @@
         <v>61300</v>
       </c>
       <c r="K447" t="n">
-        <v>33.33333333333333</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L447" t="n">
         <v>204780</v>
@@ -23076,7 +23098,7 @@
         <v>61400</v>
       </c>
       <c r="K448" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L448" t="n">
         <v>204840</v>
@@ -23127,7 +23149,7 @@
         <v>61500</v>
       </c>
       <c r="K449" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="L449" t="n">
         <v>204910</v>
@@ -23178,7 +23200,7 @@
         <v>61700</v>
       </c>
       <c r="K450" t="n">
-        <v>33.33333333333333</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L450" t="n">
         <v>204990</v>
@@ -23229,7 +23251,7 @@
         <v>61800</v>
       </c>
       <c r="K451" t="n">
-        <v>28.57142857142857</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L451" t="n">
         <v>205050</v>
@@ -23280,7 +23302,7 @@
         <v>62300</v>
       </c>
       <c r="K452" t="n">
-        <v>39.39393939393939</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L452" t="n">
         <v>205170</v>
@@ -23331,7 +23353,7 @@
         <v>62400</v>
       </c>
       <c r="K453" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L453" t="n">
         <v>205300</v>
@@ -23382,7 +23404,7 @@
         <v>62500</v>
       </c>
       <c r="K454" t="n">
-        <v>50</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L454" t="n">
         <v>205430</v>
@@ -23484,7 +23506,7 @@
         <v>62700</v>
       </c>
       <c r="K456" t="n">
-        <v>58.62068965517241</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L456" t="n">
         <v>205640</v>
@@ -23535,7 +23557,7 @@
         <v>62800</v>
       </c>
       <c r="K457" t="n">
-        <v>53.33333333333334</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L457" t="n">
         <v>205730</v>
@@ -23586,7 +23608,7 @@
         <v>62900</v>
       </c>
       <c r="K458" t="n">
-        <v>44.82758620689656</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L458" t="n">
         <v>205800</v>
@@ -23637,7 +23659,7 @@
         <v>63300</v>
       </c>
       <c r="K459" t="n">
-        <v>61.29032258064516</v>
+        <v>62.5</v>
       </c>
       <c r="L459" t="n">
         <v>205920</v>
@@ -23688,7 +23710,7 @@
         <v>63700</v>
       </c>
       <c r="K460" t="n">
-        <v>41.17647058823529</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L460" t="n">
         <v>205980</v>
@@ -23739,7 +23761,7 @@
         <v>63700</v>
       </c>
       <c r="K461" t="n">
-        <v>39.39393939393939</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L461" t="n">
         <v>206050</v>
@@ -23790,7 +23812,7 @@
         <v>63700</v>
       </c>
       <c r="K462" t="n">
-        <v>43.75</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L462" t="n">
         <v>206070</v>
@@ -23841,7 +23863,7 @@
         <v>63900</v>
       </c>
       <c r="K463" t="n">
-        <v>47.05882352941176</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L463" t="n">
         <v>206100</v>
@@ -23892,7 +23914,7 @@
         <v>64000</v>
       </c>
       <c r="K464" t="n">
-        <v>47.05882352941176</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L464" t="n">
         <v>206130</v>
@@ -23943,7 +23965,7 @@
         <v>64000</v>
       </c>
       <c r="K465" t="n">
-        <v>43.75</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L465" t="n">
         <v>206150</v>
@@ -23994,7 +24016,7 @@
         <v>64200</v>
       </c>
       <c r="K466" t="n">
-        <v>26.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="L466" t="n">
         <v>206140</v>
@@ -24045,7 +24067,7 @@
         <v>64300</v>
       </c>
       <c r="K467" t="n">
-        <v>26.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="L467" t="n">
         <v>206130</v>
@@ -24096,7 +24118,7 @@
         <v>64600</v>
       </c>
       <c r="K468" t="n">
-        <v>31.25</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L468" t="n">
         <v>206160</v>
@@ -24147,7 +24169,7 @@
         <v>64900</v>
       </c>
       <c r="K469" t="n">
-        <v>23.52941176470588</v>
+        <v>0</v>
       </c>
       <c r="L469" t="n">
         <v>206120</v>
@@ -24198,7 +24220,7 @@
         <v>65100</v>
       </c>
       <c r="K470" t="n">
-        <v>23.52941176470588</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L470" t="n">
         <v>206140</v>
@@ -24249,7 +24271,7 @@
         <v>65300</v>
       </c>
       <c r="K471" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L471" t="n">
         <v>206140</v>
@@ -24300,7 +24322,7 @@
         <v>65500</v>
       </c>
       <c r="K472" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L472" t="n">
         <v>206160</v>
@@ -24351,7 +24373,7 @@
         <v>65700</v>
       </c>
       <c r="K473" t="n">
-        <v>3.03030303030303</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L473" t="n">
         <v>206140</v>
@@ -24402,7 +24424,7 @@
         <v>65700</v>
       </c>
       <c r="K474" t="n">
-        <v>0</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L474" t="n">
         <v>206110</v>
@@ -24453,7 +24475,7 @@
         <v>65700</v>
       </c>
       <c r="K475" t="n">
-        <v>-3.225806451612903</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L475" t="n">
         <v>206080</v>
@@ -24504,7 +24526,7 @@
         <v>65700</v>
       </c>
       <c r="K476" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L476" t="n">
         <v>206070</v>
@@ -24555,7 +24577,7 @@
         <v>65800</v>
       </c>
       <c r="K477" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L477" t="n">
         <v>206060</v>
@@ -24606,7 +24628,7 @@
         <v>65900</v>
       </c>
       <c r="K478" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L478" t="n">
         <v>206010</v>
@@ -24657,7 +24679,7 @@
         <v>66000</v>
       </c>
       <c r="K479" t="n">
-        <v>-25.92592592592592</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L479" t="n">
         <v>205980</v>
@@ -24708,7 +24730,7 @@
         <v>66200</v>
       </c>
       <c r="K480" t="n">
-        <v>-4</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L480" t="n">
         <v>205950</v>
@@ -24759,7 +24781,7 @@
         <v>66300</v>
       </c>
       <c r="K481" t="n">
-        <v>-7.692307692307693</v>
+        <v>-50</v>
       </c>
       <c r="L481" t="n">
         <v>205930</v>
@@ -24810,7 +24832,7 @@
         <v>66400</v>
       </c>
       <c r="K482" t="n">
-        <v>-11.11111111111111</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L482" t="n">
         <v>205880</v>
@@ -24912,7 +24934,7 @@
         <v>66600</v>
       </c>
       <c r="K484" t="n">
-        <v>-15.38461538461539</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L484" t="n">
         <v>205860</v>
@@ -24963,7 +24985,7 @@
         <v>66600</v>
       </c>
       <c r="K485" t="n">
-        <v>-15.38461538461539</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L485" t="n">
         <v>205850</v>
@@ -25014,7 +25036,7 @@
         <v>66700</v>
       </c>
       <c r="K486" t="n">
-        <v>-12</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L486" t="n">
         <v>205830</v>
@@ -25065,7 +25087,7 @@
         <v>66800</v>
       </c>
       <c r="K487" t="n">
-        <v>-4</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L487" t="n">
         <v>205830</v>
@@ -25116,7 +25138,7 @@
         <v>66800</v>
       </c>
       <c r="K488" t="n">
-        <v>-18.18181818181818</v>
+        <v>25</v>
       </c>
       <c r="L488" t="n">
         <v>205840</v>
@@ -25167,7 +25189,7 @@
         <v>66800</v>
       </c>
       <c r="K489" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L489" t="n">
         <v>205860</v>
@@ -25218,7 +25240,7 @@
         <v>67000</v>
       </c>
       <c r="K490" t="n">
-        <v>-5.263157894736842</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L490" t="n">
         <v>205880</v>
@@ -25269,7 +25291,7 @@
         <v>67100</v>
       </c>
       <c r="K491" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L491" t="n">
         <v>205900</v>
@@ -25320,7 +25342,7 @@
         <v>67100</v>
       </c>
       <c r="K492" t="n">
-        <v>-12.5</v>
+        <v>20</v>
       </c>
       <c r="L492" t="n">
         <v>205930</v>
@@ -25371,7 +25393,7 @@
         <v>67200</v>
       </c>
       <c r="K493" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L493" t="n">
         <v>205930</v>
@@ -25422,7 +25444,7 @@
         <v>67500</v>
       </c>
       <c r="K494" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L494" t="n">
         <v>205960</v>
@@ -25473,7 +25495,7 @@
         <v>67600</v>
       </c>
       <c r="K495" t="n">
-        <v>5.263157894736842</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L495" t="n">
         <v>205980</v>
@@ -25524,7 +25546,7 @@
         <v>67600</v>
       </c>
       <c r="K496" t="n">
-        <v>5.263157894736842</v>
+        <v>25</v>
       </c>
       <c r="L496" t="n">
         <v>206010</v>
@@ -25575,7 +25597,7 @@
         <v>67800</v>
       </c>
       <c r="K497" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L497" t="n">
         <v>206050</v>
@@ -25626,7 +25648,7 @@
         <v>68000</v>
       </c>
       <c r="K498" t="n">
-        <v>14.28571428571428</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L498" t="n">
         <v>206070</v>
@@ -25677,7 +25699,7 @@
         <v>68000</v>
       </c>
       <c r="K499" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L499" t="n">
         <v>206090</v>
@@ -25728,7 +25750,7 @@
         <v>68200</v>
       </c>
       <c r="K500" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L500" t="n">
         <v>206070</v>
@@ -25779,7 +25801,7 @@
         <v>68300</v>
       </c>
       <c r="K501" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L501" t="n">
         <v>206050</v>
@@ -25830,7 +25852,7 @@
         <v>68300</v>
       </c>
       <c r="K502" t="n">
-        <v>5.263157894736842</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L502" t="n">
         <v>206030</v>
@@ -25881,7 +25903,7 @@
         <v>68300</v>
       </c>
       <c r="K503" t="n">
-        <v>-5.88235294117647</v>
+        <v>-50</v>
       </c>
       <c r="L503" t="n">
         <v>206020</v>
@@ -25932,7 +25954,7 @@
         <v>68500</v>
       </c>
       <c r="K504" t="n">
-        <v>5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L504" t="n">
         <v>206000</v>
@@ -25983,7 +26005,7 @@
         <v>68500</v>
       </c>
       <c r="K505" t="n">
-        <v>5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L505" t="n">
         <v>205990</v>
@@ -26034,7 +26056,7 @@
         <v>68500</v>
       </c>
       <c r="K506" t="n">
-        <v>11.11111111111111</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L506" t="n">
         <v>205980</v>
@@ -26085,7 +26107,7 @@
         <v>68500</v>
       </c>
       <c r="K507" t="n">
-        <v>5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L507" t="n">
         <v>205950</v>
@@ -26136,7 +26158,7 @@
         <v>68500</v>
       </c>
       <c r="K508" t="n">
-        <v>5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L508" t="n">
         <v>205940</v>
@@ -26187,7 +26209,7 @@
         <v>68500</v>
       </c>
       <c r="K509" t="n">
-        <v>5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L509" t="n">
         <v>205930</v>
@@ -26238,7 +26260,7 @@
         <v>68500</v>
       </c>
       <c r="K510" t="n">
-        <v>-6.666666666666667</v>
+        <v>100</v>
       </c>
       <c r="L510" t="n">
         <v>205940</v>
@@ -26289,7 +26311,7 @@
         <v>68600</v>
       </c>
       <c r="K511" t="n">
-        <v>6.666666666666667</v>
+        <v>100</v>
       </c>
       <c r="L511" t="n">
         <v>205970</v>
@@ -26340,7 +26362,7 @@
         <v>68800</v>
       </c>
       <c r="K512" t="n">
-        <v>-5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L512" t="n">
         <v>205980</v>
@@ -26391,7 +26413,7 @@
         <v>68800</v>
       </c>
       <c r="K513" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L513" t="n">
         <v>205990</v>
@@ -26442,7 +26464,7 @@
         <v>68900</v>
       </c>
       <c r="K514" t="n">
-        <v>-28.57142857142857</v>
+        <v>-50</v>
       </c>
       <c r="L514" t="n">
         <v>205970</v>
@@ -26493,7 +26515,7 @@
         <v>69000</v>
       </c>
       <c r="K515" t="n">
-        <v>-28.57142857142857</v>
+        <v>-60</v>
       </c>
       <c r="L515" t="n">
         <v>205940</v>
@@ -26544,7 +26566,7 @@
         <v>69000</v>
       </c>
       <c r="K516" t="n">
-        <v>-28.57142857142857</v>
+        <v>-60</v>
       </c>
       <c r="L516" t="n">
         <v>205910</v>
@@ -26595,7 +26617,7 @@
         <v>69100</v>
       </c>
       <c r="K517" t="n">
-        <v>-38.46153846153847</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L517" t="n">
         <v>205890</v>
@@ -26646,7 +26668,7 @@
         <v>69200</v>
       </c>
       <c r="K518" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L518" t="n">
         <v>205880</v>
@@ -26697,7 +26719,7 @@
         <v>69300</v>
       </c>
       <c r="K519" t="n">
-        <v>-23.07692307692308</v>
+        <v>-25</v>
       </c>
       <c r="L519" t="n">
         <v>205860</v>
@@ -26748,7 +26770,7 @@
         <v>69500</v>
       </c>
       <c r="K520" t="n">
-        <v>7.692307692307693</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L520" t="n">
         <v>205860</v>
@@ -26799,7 +26821,7 @@
         <v>69700</v>
       </c>
       <c r="K521" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L521" t="n">
         <v>205830</v>
@@ -26850,7 +26872,7 @@
         <v>69700</v>
       </c>
       <c r="K522" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L522" t="n">
         <v>205820</v>
@@ -26901,7 +26923,7 @@
         <v>69800</v>
       </c>
       <c r="K523" t="n">
-        <v>6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L523" t="n">
         <v>205820</v>
@@ -26952,7 +26974,7 @@
         <v>69900</v>
       </c>
       <c r="K524" t="n">
-        <v>-14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L524" t="n">
         <v>205820</v>
@@ -27003,7 +27025,7 @@
         <v>69900</v>
       </c>
       <c r="K525" t="n">
-        <v>-14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L525" t="n">
         <v>205830</v>
@@ -27054,7 +27076,7 @@
         <v>70100</v>
       </c>
       <c r="K526" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L526" t="n">
         <v>205860</v>
@@ -27105,7 +27127,7 @@
         <v>70200</v>
       </c>
       <c r="K527" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L527" t="n">
         <v>205870</v>
@@ -27156,7 +27178,7 @@
         <v>70500</v>
       </c>
       <c r="K528" t="n">
-        <v>10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L528" t="n">
         <v>205900</v>
@@ -27258,7 +27280,7 @@
         <v>70800</v>
       </c>
       <c r="K530" t="n">
-        <v>4.347826086956522</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L530" t="n">
         <v>205930</v>
@@ -27309,7 +27331,7 @@
         <v>71000</v>
       </c>
       <c r="K531" t="n">
-        <v>-8.333333333333332</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L531" t="n">
         <v>205940</v>
@@ -27360,7 +27382,7 @@
         <v>71100</v>
       </c>
       <c r="K532" t="n">
-        <v>4.347826086956522</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L532" t="n">
         <v>205960</v>
@@ -27411,7 +27433,7 @@
         <v>71300</v>
       </c>
       <c r="K533" t="n">
-        <v>12</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L533" t="n">
         <v>205990</v>
@@ -27462,7 +27484,7 @@
         <v>71300</v>
       </c>
       <c r="K534" t="n">
-        <v>16.66666666666666</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L534" t="n">
         <v>206030</v>
@@ -27513,7 +27535,7 @@
         <v>71400</v>
       </c>
       <c r="K535" t="n">
-        <v>16.66666666666666</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L535" t="n">
         <v>206060</v>
@@ -27564,7 +27586,7 @@
         <v>71500</v>
       </c>
       <c r="K536" t="n">
-        <v>20</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L536" t="n">
         <v>206080</v>
@@ -27615,7 +27637,7 @@
         <v>71700</v>
       </c>
       <c r="K537" t="n">
-        <v>7.692307692307693</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L537" t="n">
         <v>206090</v>
@@ -27666,7 +27688,7 @@
         <v>71800</v>
       </c>
       <c r="K538" t="n">
-        <v>7.692307692307693</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L538" t="n">
         <v>206080</v>
@@ -27717,7 +27739,7 @@
         <v>71900</v>
       </c>
       <c r="K539" t="n">
-        <v>15.38461538461539</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L539" t="n">
         <v>206100</v>
@@ -27768,7 +27790,7 @@
         <v>72100</v>
       </c>
       <c r="K540" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L540" t="n">
         <v>206090</v>
@@ -27819,7 +27841,7 @@
         <v>72300</v>
       </c>
       <c r="K541" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L541" t="n">
         <v>206080</v>
@@ -27870,7 +27892,7 @@
         <v>72300</v>
       </c>
       <c r="K542" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L542" t="n">
         <v>206060</v>
@@ -27921,7 +27943,7 @@
         <v>72400</v>
       </c>
       <c r="K543" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L543" t="n">
         <v>206030</v>
@@ -27972,7 +27994,7 @@
         <v>72700</v>
       </c>
       <c r="K544" t="n">
-        <v>-7.142857142857142</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L544" t="n">
         <v>205970</v>
@@ -28023,7 +28045,7 @@
         <v>72800</v>
       </c>
       <c r="K545" t="n">
-        <v>-10.3448275862069</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L545" t="n">
         <v>205910</v>
@@ -28074,7 +28096,7 @@
         <v>72900</v>
       </c>
       <c r="K546" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L546" t="n">
         <v>205850</v>
@@ -28125,7 +28147,7 @@
         <v>72900</v>
       </c>
       <c r="K547" t="n">
-        <v>-11.11111111111111</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L547" t="n">
         <v>205810</v>
@@ -28176,7 +28198,7 @@
         <v>73000</v>
       </c>
       <c r="K548" t="n">
-        <v>-20</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L548" t="n">
         <v>205770</v>
@@ -28227,7 +28249,7 @@
         <v>73200</v>
       </c>
       <c r="K549" t="n">
-        <v>-20</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L549" t="n">
         <v>205700</v>
@@ -28278,7 +28300,7 @@
         <v>73500</v>
       </c>
       <c r="K550" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L550" t="n">
         <v>205680</v>
@@ -28380,7 +28402,7 @@
         <v>73700</v>
       </c>
       <c r="K552" t="n">
-        <v>-15.38461538461539</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L552" t="n">
         <v>205650</v>
@@ -28431,7 +28453,7 @@
         <v>73800</v>
       </c>
       <c r="K553" t="n">
-        <v>-28</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L553" t="n">
         <v>205610</v>
@@ -28482,7 +28504,7 @@
         <v>74000</v>
       </c>
       <c r="K554" t="n">
-        <v>-18.51851851851852</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L554" t="n">
         <v>205620</v>
@@ -28533,7 +28555,7 @@
         <v>74300</v>
       </c>
       <c r="K555" t="n">
-        <v>-24.13793103448276</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L555" t="n">
         <v>205610</v>
@@ -28584,7 +28606,7 @@
         <v>74400</v>
       </c>
       <c r="K556" t="n">
-        <v>-24.13793103448276</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L556" t="n">
         <v>205600</v>
@@ -28635,7 +28657,7 @@
         <v>74500</v>
       </c>
       <c r="K557" t="n">
-        <v>-14.28571428571428</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L557" t="n">
         <v>205600</v>
@@ -28686,7 +28708,7 @@
         <v>74600</v>
       </c>
       <c r="K558" t="n">
-        <v>-21.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L558" t="n">
         <v>205580</v>
@@ -28737,7 +28759,7 @@
         <v>74700</v>
       </c>
       <c r="K559" t="n">
-        <v>-28.57142857142857</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L559" t="n">
         <v>205570</v>
@@ -28788,7 +28810,7 @@
         <v>74800</v>
       </c>
       <c r="K560" t="n">
-        <v>-18.51851851851852</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L560" t="n">
         <v>205540</v>
@@ -28839,7 +28861,7 @@
         <v>74800</v>
       </c>
       <c r="K561" t="n">
-        <v>-12</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L561" t="n">
         <v>205520</v>
@@ -28890,7 +28912,7 @@
         <v>74900</v>
       </c>
       <c r="K562" t="n">
-        <v>-7.692307692307693</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L562" t="n">
         <v>205520</v>
@@ -28941,7 +28963,7 @@
         <v>75000</v>
       </c>
       <c r="K563" t="n">
-        <v>-15.38461538461539</v>
+        <v>-20</v>
       </c>
       <c r="L563" t="n">
         <v>205520</v>
@@ -28992,7 +29014,7 @@
         <v>75200</v>
       </c>
       <c r="K564" t="n">
-        <v>4</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L564" t="n">
         <v>205520</v>
@@ -29094,7 +29116,7 @@
         <v>75700</v>
       </c>
       <c r="K566" t="n">
-        <v>7.142857142857142</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L566" t="n">
         <v>205560</v>
@@ -29145,7 +29167,7 @@
         <v>76000</v>
       </c>
       <c r="K567" t="n">
-        <v>-3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L567" t="n">
         <v>205550</v>
@@ -29196,7 +29218,7 @@
         <v>76100</v>
       </c>
       <c r="K568" t="n">
-        <v>-3.225806451612903</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L568" t="n">
         <v>205560</v>
@@ -29247,7 +29269,7 @@
         <v>76100</v>
       </c>
       <c r="K569" t="n">
-        <v>3.448275862068965</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L569" t="n">
         <v>205580</v>
@@ -29298,7 +29320,7 @@
         <v>76200</v>
       </c>
       <c r="K570" t="n">
-        <v>-3.703703703703703</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L570" t="n">
         <v>205600</v>
@@ -29349,7 +29371,7 @@
         <v>76400</v>
       </c>
       <c r="K571" t="n">
-        <v>7.142857142857142</v>
+        <v>20</v>
       </c>
       <c r="L571" t="n">
         <v>205640</v>
@@ -29400,7 +29422,7 @@
         <v>76600</v>
       </c>
       <c r="K572" t="n">
-        <v>3.448275862068965</v>
+        <v>12.5</v>
       </c>
       <c r="L572" t="n">
         <v>205650</v>
@@ -29451,7 +29473,7 @@
         <v>76800</v>
       </c>
       <c r="K573" t="n">
-        <v>13.33333333333333</v>
+        <v>12.5</v>
       </c>
       <c r="L573" t="n">
         <v>205690</v>
@@ -29502,7 +29524,7 @@
         <v>76800</v>
       </c>
       <c r="K574" t="n">
-        <v>7.142857142857142</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L574" t="n">
         <v>205710</v>
@@ -29553,7 +29575,7 @@
         <v>77000</v>
       </c>
       <c r="K575" t="n">
-        <v>25.92592592592592</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L575" t="n">
         <v>205770</v>
@@ -29604,7 +29626,7 @@
         <v>77000</v>
       </c>
       <c r="K576" t="n">
-        <v>23.07692307692308</v>
+        <v>60</v>
       </c>
       <c r="L576" t="n">
         <v>205800</v>
@@ -29655,7 +29677,7 @@
         <v>77200</v>
       </c>
       <c r="K577" t="n">
-        <v>11.11111111111111</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L577" t="n">
         <v>205840</v>
@@ -29706,7 +29728,7 @@
         <v>77200</v>
       </c>
       <c r="K578" t="n">
-        <v>15.38461538461539</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L578" t="n">
         <v>205870</v>
@@ -29757,7 +29779,7 @@
         <v>77300</v>
       </c>
       <c r="K579" t="n">
-        <v>15.38461538461539</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L579" t="n">
         <v>205890</v>
@@ -29808,7 +29830,7 @@
         <v>77300</v>
       </c>
       <c r="K580" t="n">
-        <v>12</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L580" t="n">
         <v>205900</v>
@@ -29859,7 +29881,7 @@
         <v>77500</v>
       </c>
       <c r="K581" t="n">
-        <v>3.703703703703703</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L581" t="n">
         <v>205870</v>
@@ -29910,7 +29932,7 @@
         <v>77800</v>
       </c>
       <c r="K582" t="n">
-        <v>10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L582" t="n">
         <v>205890</v>
@@ -29961,7 +29983,7 @@
         <v>77900</v>
       </c>
       <c r="K583" t="n">
-        <v>10.3448275862069</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L583" t="n">
         <v>205880</v>
@@ -30012,7 +30034,7 @@
         <v>78000</v>
       </c>
       <c r="K584" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L584" t="n">
         <v>205860</v>
@@ -30063,7 +30085,7 @@
         <v>78000</v>
       </c>
       <c r="K585" t="n">
-        <v>7.692307692307693</v>
+        <v>-40</v>
       </c>
       <c r="L585" t="n">
         <v>205820</v>
@@ -30114,7 +30136,7 @@
         <v>78000</v>
       </c>
       <c r="K586" t="n">
-        <v>-4.347826086956522</v>
+        <v>-25</v>
       </c>
       <c r="L586" t="n">
         <v>205780</v>
@@ -30165,7 +30187,7 @@
         <v>78100</v>
       </c>
       <c r="K587" t="n">
-        <v>4.761904761904762</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L587" t="n">
         <v>205750</v>
@@ -30216,7 +30238,7 @@
         <v>78300</v>
       </c>
       <c r="K588" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L588" t="n">
         <v>205740</v>
@@ -30267,7 +30289,7 @@
         <v>78300</v>
       </c>
       <c r="K589" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L589" t="n">
         <v>205740</v>
@@ -30318,7 +30340,7 @@
         <v>78600</v>
       </c>
       <c r="K590" t="n">
-        <v>-8.333333333333332</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L590" t="n">
         <v>205710</v>
@@ -30369,7 +30391,7 @@
         <v>78800</v>
       </c>
       <c r="K591" t="n">
-        <v>-25</v>
+        <v>-60</v>
       </c>
       <c r="L591" t="n">
         <v>205680</v>
@@ -30420,7 +30442,7 @@
         <v>78800</v>
       </c>
       <c r="K592" t="n">
-        <v>-18.18181818181818</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L592" t="n">
         <v>205620</v>
@@ -30471,7 +30493,7 @@
         <v>78900</v>
       </c>
       <c r="K593" t="n">
-        <v>-33.33333333333333</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L593" t="n">
         <v>205560</v>
@@ -30522,7 +30544,7 @@
         <v>78900</v>
       </c>
       <c r="K594" t="n">
-        <v>-33.33333333333333</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L594" t="n">
         <v>205510</v>
@@ -30573,7 +30595,7 @@
         <v>79100</v>
       </c>
       <c r="K595" t="n">
-        <v>-52.38095238095239</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L595" t="n">
         <v>205440</v>
@@ -30624,7 +30646,7 @@
         <v>79100</v>
       </c>
       <c r="K596" t="n">
-        <v>-52.38095238095239</v>
+        <v>-60</v>
       </c>
       <c r="L596" t="n">
         <v>205370</v>
@@ -30675,7 +30697,7 @@
         <v>79100</v>
       </c>
       <c r="K597" t="n">
-        <v>-47.36842105263158</v>
+        <v>-100</v>
       </c>
       <c r="L597" t="n">
         <v>205310</v>
@@ -30726,7 +30748,7 @@
         <v>79100</v>
       </c>
       <c r="K598" t="n">
-        <v>-47.36842105263158</v>
+        <v>-100</v>
       </c>
       <c r="L598" t="n">
         <v>205230</v>
@@ -30777,7 +30799,7 @@
         <v>79400</v>
       </c>
       <c r="K599" t="n">
-        <v>-23.80952380952381</v>
+        <v>-25</v>
       </c>
       <c r="L599" t="n">
         <v>205180</v>
@@ -30828,7 +30850,7 @@
         <v>79500</v>
       </c>
       <c r="K600" t="n">
-        <v>-27.27272727272727</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L600" t="n">
         <v>205150</v>
@@ -30879,7 +30901,7 @@
         <v>79700</v>
       </c>
       <c r="K601" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L601" t="n">
         <v>205120</v>
@@ -30930,7 +30952,7 @@
         <v>79700</v>
       </c>
       <c r="K602" t="n">
-        <v>-47.36842105263158</v>
+        <v>-25</v>
       </c>
       <c r="L602" t="n">
         <v>205090</v>
@@ -30981,7 +31003,7 @@
         <v>79800</v>
       </c>
       <c r="K603" t="n">
-        <v>-47.36842105263158</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L603" t="n">
         <v>205060</v>
@@ -31032,7 +31054,7 @@
         <v>80300</v>
       </c>
       <c r="K604" t="n">
-        <v>-13.04347826086956</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L604" t="n">
         <v>205080</v>
@@ -31083,7 +31105,7 @@
         <v>80600</v>
       </c>
       <c r="K605" t="n">
-        <v>-23.07692307692308</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L605" t="n">
         <v>205090</v>
@@ -31134,7 +31156,7 @@
         <v>81200</v>
       </c>
       <c r="K606" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L606" t="n">
         <v>205160</v>
@@ -31185,7 +31207,7 @@
         <v>81300</v>
       </c>
       <c r="K607" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L607" t="n">
         <v>205220</v>
@@ -31236,7 +31258,7 @@
         <v>81600</v>
       </c>
       <c r="K608" t="n">
-        <v>-15.15151515151515</v>
+        <v>0</v>
       </c>
       <c r="L608" t="n">
         <v>205250</v>
@@ -31287,7 +31309,7 @@
         <v>81700</v>
       </c>
       <c r="K609" t="n">
-        <v>-11.76470588235294</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L609" t="n">
         <v>205260</v>
@@ -31338,7 +31360,7 @@
         <v>81900</v>
       </c>
       <c r="K610" t="n">
-        <v>-9.090909090909092</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L610" t="n">
         <v>205260</v>
@@ -31389,7 +31411,7 @@
         <v>82200</v>
       </c>
       <c r="K611" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L611" t="n">
         <v>205310</v>
@@ -31440,7 +31462,7 @@
         <v>82200</v>
       </c>
       <c r="K612" t="n">
-        <v>5.88235294117647</v>
+        <v>25</v>
       </c>
       <c r="L612" t="n">
         <v>205360</v>
@@ -31491,7 +31513,7 @@
         <v>82200</v>
       </c>
       <c r="K613" t="n">
-        <v>9.090909090909092</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L613" t="n">
         <v>205420</v>
@@ -31542,7 +31564,7 @@
         <v>82200</v>
       </c>
       <c r="K614" t="n">
-        <v>9.090909090909092</v>
+        <v>25</v>
       </c>
       <c r="L614" t="n">
         <v>205430</v>
@@ -31593,7 +31615,7 @@
         <v>82200</v>
       </c>
       <c r="K615" t="n">
-        <v>16.12903225806452</v>
+        <v>-20</v>
       </c>
       <c r="L615" t="n">
         <v>205470</v>
@@ -31644,7 +31666,7 @@
         <v>82300</v>
       </c>
       <c r="K616" t="n">
-        <v>12.5</v>
+        <v>-20</v>
       </c>
       <c r="L616" t="n">
         <v>205440</v>
@@ -31695,7 +31717,7 @@
         <v>82700</v>
       </c>
       <c r="K617" t="n">
-        <v>22.22222222222222</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L617" t="n">
         <v>205460</v>
@@ -31746,7 +31768,7 @@
         <v>83100</v>
       </c>
       <c r="K618" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L618" t="n">
         <v>205470</v>
@@ -31797,7 +31819,7 @@
         <v>83300</v>
       </c>
       <c r="K619" t="n">
-        <v>7.692307692307693</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L619" t="n">
         <v>205490</v>
@@ -31848,7 +31870,7 @@
         <v>83300</v>
       </c>
       <c r="K620" t="n">
-        <v>10.52631578947368</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L620" t="n">
         <v>205530</v>
@@ -31899,7 +31921,7 @@
         <v>83400</v>
       </c>
       <c r="K621" t="n">
-        <v>13.51351351351351</v>
+        <v>0</v>
       </c>
       <c r="L621" t="n">
         <v>205530</v>
@@ -31950,7 +31972,7 @@
         <v>83400</v>
       </c>
       <c r="K622" t="n">
-        <v>13.51351351351351</v>
+        <v>0</v>
       </c>
       <c r="L622" t="n">
         <v>205530</v>
@@ -32001,7 +32023,7 @@
         <v>83500</v>
       </c>
       <c r="K623" t="n">
-        <v>13.51351351351351</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L623" t="n">
         <v>205520</v>
@@ -32052,7 +32074,7 @@
         <v>83600</v>
       </c>
       <c r="K624" t="n">
-        <v>3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L624" t="n">
         <v>205520</v>
@@ -32103,7 +32125,7 @@
         <v>84100</v>
       </c>
       <c r="K625" t="n">
-        <v>25.71428571428571</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L625" t="n">
         <v>205570</v>
@@ -32154,7 +32176,7 @@
         <v>84400</v>
       </c>
       <c r="K626" t="n">
-        <v>0</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L626" t="n">
         <v>205600</v>
@@ -32205,7 +32227,7 @@
         <v>84400</v>
       </c>
       <c r="K627" t="n">
-        <v>3.225806451612903</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L627" t="n">
         <v>205590</v>
@@ -32256,7 +32278,7 @@
         <v>84700</v>
       </c>
       <c r="K628" t="n">
-        <v>22.58064516129032</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L628" t="n">
         <v>205650</v>
@@ -32307,7 +32329,7 @@
         <v>84800</v>
       </c>
       <c r="K629" t="n">
-        <v>16.12903225806452</v>
+        <v>20</v>
       </c>
       <c r="L629" t="n">
         <v>205680</v>
@@ -32358,7 +32380,7 @@
         <v>85100</v>
       </c>
       <c r="K630" t="n">
-        <v>12.5</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L630" t="n">
         <v>205680</v>
@@ -32409,7 +32431,7 @@
         <v>85200</v>
       </c>
       <c r="K631" t="n">
-        <v>6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L631" t="n">
         <v>205700</v>
@@ -32460,7 +32482,7 @@
         <v>85300</v>
       </c>
       <c r="K632" t="n">
-        <v>3.225806451612903</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L632" t="n">
         <v>205710</v>
@@ -32511,7 +32533,7 @@
         <v>85400</v>
       </c>
       <c r="K633" t="n">
-        <v>6.25</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L633" t="n">
         <v>205740</v>
@@ -32562,7 +32584,7 @@
         <v>85500</v>
       </c>
       <c r="K634" t="n">
-        <v>3.03030303030303</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L634" t="n">
         <v>205750</v>
@@ -32613,7 +32635,7 @@
         <v>85500</v>
       </c>
       <c r="K635" t="n">
-        <v>3.03030303030303</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L635" t="n">
         <v>205710</v>
@@ -32664,7 +32686,7 @@
         <v>85600</v>
       </c>
       <c r="K636" t="n">
-        <v>3.03030303030303</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L636" t="n">
         <v>205690</v>
@@ -32715,7 +32737,7 @@
         <v>85800</v>
       </c>
       <c r="K637" t="n">
-        <v>-3.225806451612903</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L637" t="n">
         <v>205690</v>
@@ -32766,7 +32788,7 @@
         <v>85900</v>
       </c>
       <c r="K638" t="n">
-        <v>7.142857142857142</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L638" t="n">
         <v>205650</v>
@@ -32817,7 +32839,7 @@
         <v>86200</v>
       </c>
       <c r="K639" t="n">
-        <v>-10.3448275862069</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L639" t="n">
         <v>205590</v>
@@ -32868,7 +32890,7 @@
         <v>86200</v>
       </c>
       <c r="K640" t="n">
-        <v>-10.3448275862069</v>
+        <v>-40</v>
       </c>
       <c r="L640" t="n">
         <v>205560</v>
@@ -32919,7 +32941,7 @@
         <v>86500</v>
       </c>
       <c r="K641" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L641" t="n">
         <v>205550</v>
@@ -32970,7 +32992,7 @@
         <v>86700</v>
       </c>
       <c r="K642" t="n">
-        <v>-3.03030303030303</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L642" t="n">
         <v>205530</v>
@@ -33021,7 +33043,7 @@
         <v>86800</v>
       </c>
       <c r="K643" t="n">
-        <v>-3.03030303030303</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L643" t="n">
         <v>205490</v>
@@ -33072,7 +33094,7 @@
         <v>86900</v>
       </c>
       <c r="K644" t="n">
-        <v>-3.03030303030303</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L644" t="n">
         <v>205470</v>
@@ -33123,7 +33145,7 @@
         <v>87100</v>
       </c>
       <c r="K645" t="n">
-        <v>-26.66666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L645" t="n">
         <v>205430</v>
@@ -33174,7 +33196,7 @@
         <v>87500</v>
       </c>
       <c r="K646" t="n">
-        <v>-3.225806451612903</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L646" t="n">
         <v>205440</v>
@@ -33225,7 +33247,7 @@
         <v>87500</v>
       </c>
       <c r="K647" t="n">
-        <v>-3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L647" t="n">
         <v>205430</v>
@@ -33276,7 +33298,7 @@
         <v>87500</v>
       </c>
       <c r="K648" t="n">
-        <v>-14.28571428571428</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L648" t="n">
         <v>205430</v>
@@ -33327,7 +33349,7 @@
         <v>87700</v>
       </c>
       <c r="K649" t="n">
-        <v>-17.24137931034483</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L649" t="n">
         <v>205440</v>
@@ -33378,7 +33400,7 @@
         <v>87800</v>
       </c>
       <c r="K650" t="n">
-        <v>-11.11111111111111</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L650" t="n">
         <v>205440</v>
@@ -33429,7 +33451,7 @@
         <v>88000</v>
       </c>
       <c r="K651" t="n">
-        <v>-7.142857142857142</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L651" t="n">
         <v>205430</v>
@@ -33480,7 +33502,7 @@
         <v>88000</v>
       </c>
       <c r="K652" t="n">
-        <v>-3.703703703703703</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L652" t="n">
         <v>205440</v>
@@ -33531,7 +33553,7 @@
         <v>88000</v>
       </c>
       <c r="K653" t="n">
-        <v>-7.692307692307693</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L653" t="n">
         <v>205460</v>
@@ -33582,7 +33604,7 @@
         <v>88200</v>
       </c>
       <c r="K654" t="n">
-        <v>-11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L654" t="n">
         <v>205450</v>
@@ -33633,7 +33655,7 @@
         <v>88400</v>
       </c>
       <c r="K655" t="n">
-        <v>-3.448275862068965</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L655" t="n">
         <v>205480</v>
@@ -33684,7 +33706,7 @@
         <v>88400</v>
       </c>
       <c r="K656" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L656" t="n">
         <v>205470</v>
@@ -33735,7 +33757,7 @@
         <v>88400</v>
       </c>
       <c r="K657" t="n">
-        <v>-7.692307692307693</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L657" t="n">
         <v>205460</v>
@@ -33786,7 +33808,7 @@
         <v>88400</v>
       </c>
       <c r="K658" t="n">
-        <v>-4</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L658" t="n">
         <v>205450</v>
@@ -33837,7 +33859,7 @@
         <v>88400</v>
       </c>
       <c r="K659" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L659" t="n">
         <v>205460</v>
@@ -33888,7 +33910,7 @@
         <v>88400</v>
       </c>
       <c r="K660" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L660" t="n">
         <v>205480</v>
@@ -33939,7 +33961,7 @@
         <v>88400</v>
       </c>
       <c r="K661" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L661" t="n">
         <v>205480</v>
@@ -33990,7 +34012,7 @@
         <v>88500</v>
       </c>
       <c r="K662" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L662" t="n">
         <v>205490</v>
@@ -34041,7 +34063,7 @@
         <v>88600</v>
       </c>
       <c r="K663" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L663" t="n">
         <v>205490</v>
@@ -34092,7 +34114,7 @@
         <v>88800</v>
       </c>
       <c r="K664" t="n">
-        <v>15.78947368421053</v>
+        <v>50</v>
       </c>
       <c r="L664" t="n">
         <v>205530</v>
@@ -34143,7 +34165,7 @@
         <v>88900</v>
       </c>
       <c r="K665" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L665" t="n">
         <v>205540</v>
@@ -34194,7 +34216,7 @@
         <v>89300</v>
       </c>
       <c r="K666" t="n">
-        <v>22.22222222222222</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L666" t="n">
         <v>205590</v>
@@ -34245,7 +34267,7 @@
         <v>89500</v>
       </c>
       <c r="K667" t="n">
-        <v>30</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L667" t="n">
         <v>205660</v>
@@ -34296,7 +34318,7 @@
         <v>90000</v>
       </c>
       <c r="K668" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="L668" t="n">
         <v>205780</v>
@@ -34347,7 +34369,7 @@
         <v>90200</v>
       </c>
       <c r="K669" t="n">
-        <v>44</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L669" t="n">
         <v>205880</v>
@@ -34398,7 +34420,7 @@
         <v>90300</v>
       </c>
       <c r="K670" t="n">
-        <v>44</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L670" t="n">
         <v>205970</v>
@@ -34449,7 +34471,7 @@
         <v>90300</v>
       </c>
       <c r="K671" t="n">
-        <v>39.1304347826087</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L671" t="n">
         <v>206060</v>
@@ -34500,7 +34522,7 @@
         <v>90400</v>
       </c>
       <c r="K672" t="n">
-        <v>41.66666666666667</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L672" t="n">
         <v>206150</v>
@@ -34551,7 +34573,7 @@
         <v>90400</v>
       </c>
       <c r="K673" t="n">
-        <v>41.66666666666667</v>
+        <v>50</v>
       </c>
       <c r="L673" t="n">
         <v>206250</v>
@@ -34602,7 +34624,7 @@
         <v>90500</v>
       </c>
       <c r="K674" t="n">
-        <v>47.82608695652174</v>
+        <v>50</v>
       </c>
       <c r="L674" t="n">
         <v>206320</v>
@@ -34653,7 +34675,7 @@
         <v>90600</v>
       </c>
       <c r="K675" t="n">
-        <v>36.36363636363637</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L675" t="n">
         <v>206390</v>
@@ -34704,7 +34726,7 @@
         <v>90800</v>
       </c>
       <c r="K676" t="n">
-        <v>41.66666666666667</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L676" t="n">
         <v>206440</v>
@@ -34755,7 +34777,7 @@
         <v>91300</v>
       </c>
       <c r="K677" t="n">
-        <v>51.72413793103448</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L677" t="n">
         <v>206520</v>
@@ -34806,7 +34828,7 @@
         <v>91500</v>
       </c>
       <c r="K678" t="n">
-        <v>54.83870967741935</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L678" t="n">
         <v>206570</v>
@@ -34857,7 +34879,7 @@
         <v>91700</v>
       </c>
       <c r="K679" t="n">
-        <v>57.57575757575758</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L679" t="n">
         <v>206660</v>
@@ -34908,7 +34930,7 @@
         <v>92400</v>
       </c>
       <c r="K680" t="n">
-        <v>30</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L680" t="n">
         <v>206690</v>
@@ -34959,7 +34981,7 @@
         <v>92800</v>
       </c>
       <c r="K681" t="n">
-        <v>36.36363636363637</v>
+        <v>25</v>
       </c>
       <c r="L681" t="n">
         <v>206760</v>
@@ -35010,7 +35032,7 @@
         <v>92900</v>
       </c>
       <c r="K682" t="n">
-        <v>31.81818181818182</v>
+        <v>20</v>
       </c>
       <c r="L682" t="n">
         <v>206810</v>
@@ -35061,7 +35083,7 @@
         <v>93000</v>
       </c>
       <c r="K683" t="n">
-        <v>31.81818181818182</v>
+        <v>20</v>
       </c>
       <c r="L683" t="n">
         <v>206850</v>
@@ -35112,7 +35134,7 @@
         <v>93000</v>
       </c>
       <c r="K684" t="n">
-        <v>28.57142857142857</v>
+        <v>25</v>
       </c>
       <c r="L684" t="n">
         <v>206900</v>
@@ -35163,7 +35185,7 @@
         <v>93200</v>
       </c>
       <c r="K685" t="n">
-        <v>25.58139534883721</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L685" t="n">
         <v>206940</v>
@@ -35214,7 +35236,7 @@
         <v>93400</v>
       </c>
       <c r="K686" t="n">
-        <v>12.19512195121951</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L686" t="n">
         <v>206940</v>
@@ -35265,7 +35287,7 @@
         <v>93600</v>
       </c>
       <c r="K687" t="n">
-        <v>2.439024390243902</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L687" t="n">
         <v>206870</v>
@@ -35316,7 +35338,7 @@
         <v>94000</v>
       </c>
       <c r="K688" t="n">
-        <v>0</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L688" t="n">
         <v>206820</v>
@@ -35367,7 +35389,7 @@
         <v>94100</v>
       </c>
       <c r="K689" t="n">
-        <v>2.564102564102564</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L689" t="n">
         <v>206740</v>
@@ -35418,7 +35440,7 @@
         <v>94200</v>
       </c>
       <c r="K690" t="n">
-        <v>2.564102564102564</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L690" t="n">
         <v>206720</v>
@@ -35469,7 +35491,7 @@
         <v>94300</v>
       </c>
       <c r="K691" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L691" t="n">
         <v>206650</v>
@@ -35520,7 +35542,7 @@
         <v>94600</v>
       </c>
       <c r="K692" t="n">
-        <v>4.761904761904762</v>
+        <v>-12.5</v>
       </c>
       <c r="L692" t="n">
         <v>206620</v>
@@ -35571,7 +35593,7 @@
         <v>94800</v>
       </c>
       <c r="K693" t="n">
-        <v>0</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L693" t="n">
         <v>206580</v>
@@ -35622,7 +35644,7 @@
         <v>95000</v>
       </c>
       <c r="K694" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L694" t="n">
         <v>206560</v>
@@ -35673,7 +35695,7 @@
         <v>95300</v>
       </c>
       <c r="K695" t="n">
-        <v>14.8936170212766</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L695" t="n">
         <v>206590</v>
@@ -35724,7 +35746,7 @@
         <v>95400</v>
       </c>
       <c r="K696" t="n">
-        <v>13.04347826086956</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L696" t="n">
         <v>206650</v>
@@ -35775,7 +35797,7 @@
         <v>95700</v>
       </c>
       <c r="K697" t="n">
-        <v>9.090909090909092</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L697" t="n">
         <v>206760</v>
@@ -35826,7 +35848,7 @@
         <v>96200</v>
       </c>
       <c r="K698" t="n">
-        <v>-6.382978723404255</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L698" t="n">
         <v>206780</v>
@@ -35877,7 +35899,7 @@
         <v>96300</v>
       </c>
       <c r="K699" t="n">
-        <v>-13.04347826086956</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L699" t="n">
         <v>206800</v>
@@ -35928,7 +35950,7 @@
         <v>96500</v>
       </c>
       <c r="K700" t="n">
-        <v>7.317073170731707</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L700" t="n">
         <v>206850</v>
@@ -35979,7 +36001,7 @@
         <v>96800</v>
       </c>
       <c r="K701" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L701" t="n">
         <v>206880</v>
@@ -36030,7 +36052,7 @@
         <v>96900</v>
       </c>
       <c r="K702" t="n">
-        <v>-5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L702" t="n">
         <v>206890</v>
@@ -36081,7 +36103,7 @@
         <v>97100</v>
       </c>
       <c r="K703" t="n">
-        <v>-7.317073170731707</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L703" t="n">
         <v>206900</v>
@@ -36132,7 +36154,7 @@
         <v>97100</v>
       </c>
       <c r="K704" t="n">
-        <v>-7.317073170731707</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L704" t="n">
         <v>206890</v>
@@ -36183,7 +36205,7 @@
         <v>97300</v>
       </c>
       <c r="K705" t="n">
-        <v>2.439024390243902</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L705" t="n">
         <v>206870</v>
@@ -36234,7 +36256,7 @@
         <v>97500</v>
       </c>
       <c r="K706" t="n">
-        <v>2.439024390243902</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L706" t="n">
         <v>206820</v>
@@ -36285,7 +36307,7 @@
         <v>97600</v>
       </c>
       <c r="K707" t="n">
-        <v>5</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L707" t="n">
         <v>206730</v>
@@ -36336,7 +36358,7 @@
         <v>97600</v>
       </c>
       <c r="K708" t="n">
-        <v>-5.555555555555555</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L708" t="n">
         <v>206690</v>
@@ -36387,7 +36409,7 @@
         <v>97800</v>
       </c>
       <c r="K709" t="n">
-        <v>-8.108108108108109</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L709" t="n">
         <v>206640</v>
@@ -36438,7 +36460,7 @@
         <v>98000</v>
       </c>
       <c r="K710" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L710" t="n">
         <v>206590</v>
@@ -36489,7 +36511,7 @@
         <v>98300</v>
       </c>
       <c r="K711" t="n">
-        <v>-5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L711" t="n">
         <v>206540</v>
@@ -36540,7 +36562,7 @@
         <v>98300</v>
       </c>
       <c r="K712" t="n">
-        <v>-13.51351351351351</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L712" t="n">
         <v>206480</v>
@@ -36591,7 +36613,7 @@
         <v>98300</v>
       </c>
       <c r="K713" t="n">
-        <v>-8.571428571428571</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L713" t="n">
         <v>206440</v>
@@ -36642,7 +36664,7 @@
         <v>98400</v>
       </c>
       <c r="K714" t="n">
-        <v>-11.76470588235294</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L714" t="n">
         <v>206410</v>
@@ -36693,7 +36715,7 @@
         <v>98400</v>
       </c>
       <c r="K715" t="n">
-        <v>-22.58064516129032</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L715" t="n">
         <v>206360</v>
@@ -36744,7 +36766,7 @@
         <v>98500</v>
       </c>
       <c r="K716" t="n">
-        <v>-29.03225806451613</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L716" t="n">
         <v>206320</v>
@@ -36795,7 +36817,7 @@
         <v>98900</v>
       </c>
       <c r="K717" t="n">
-        <v>-25</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L717" t="n">
         <v>206330</v>
@@ -36846,7 +36868,7 @@
         <v>99100</v>
       </c>
       <c r="K718" t="n">
-        <v>-3.448275862068965</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L718" t="n">
         <v>206360</v>
@@ -36897,7 +36919,7 @@
         <v>99400</v>
       </c>
       <c r="K719" t="n">
-        <v>-9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="L719" t="n">
         <v>206380</v>
@@ -36948,7 +36970,7 @@
         <v>99600</v>
       </c>
       <c r="K720" t="n">
-        <v>-22.58064516129032</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L720" t="n">
         <v>206360</v>
@@ -36999,7 +37021,7 @@
         <v>99700</v>
       </c>
       <c r="K721" t="n">
-        <v>-17.24137931034483</v>
+        <v>0</v>
       </c>
       <c r="L721" t="n">
         <v>206360</v>
@@ -37050,7 +37072,7 @@
         <v>99900</v>
       </c>
       <c r="K722" t="n">
-        <v>-13.33333333333333</v>
+        <v>12.5</v>
       </c>
       <c r="L722" t="n">
         <v>206380</v>
@@ -37101,7 +37123,7 @@
         <v>100100</v>
       </c>
       <c r="K723" t="n">
-        <v>-13.33333333333333</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L723" t="n">
         <v>206380</v>
@@ -37152,7 +37174,7 @@
         <v>100300</v>
       </c>
       <c r="K724" t="n">
-        <v>-6.25</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L724" t="n">
         <v>206390</v>
@@ -37203,7 +37225,7 @@
         <v>100400</v>
       </c>
       <c r="K725" t="n">
-        <v>-16.12903225806452</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L725" t="n">
         <v>206390</v>
@@ -37254,7 +37276,7 @@
         <v>100500</v>
       </c>
       <c r="K726" t="n">
-        <v>-6.666666666666667</v>
+        <v>-12.5</v>
       </c>
       <c r="L726" t="n">
         <v>206410</v>
@@ -37305,7 +37327,7 @@
         <v>100700</v>
       </c>
       <c r="K727" t="n">
-        <v>-9.67741935483871</v>
+        <v>-37.5</v>
       </c>
       <c r="L727" t="n">
         <v>206370</v>
@@ -37356,7 +37378,7 @@
         <v>100800</v>
       </c>
       <c r="K728" t="n">
-        <v>-6.25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L728" t="n">
         <v>206320</v>
@@ -37407,7 +37429,7 @@
         <v>100900</v>
       </c>
       <c r="K729" t="n">
-        <v>-3.225806451612903</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L729" t="n">
         <v>206290</v>
@@ -37458,7 +37480,7 @@
         <v>101000</v>
       </c>
       <c r="K730" t="n">
-        <v>-13.33333333333333</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L730" t="n">
         <v>206270</v>
@@ -37509,7 +37531,7 @@
         <v>101300</v>
       </c>
       <c r="K731" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L731" t="n">
         <v>206290</v>
@@ -37560,7 +37582,7 @@
         <v>101600</v>
       </c>
       <c r="K732" t="n">
-        <v>-3.03030303030303</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L732" t="n">
         <v>206260</v>
@@ -37611,7 +37633,7 @@
         <v>101700</v>
       </c>
       <c r="K733" t="n">
-        <v>-5.88235294117647</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L733" t="n">
         <v>206240</v>
@@ -37662,7 +37684,7 @@
         <v>102100</v>
       </c>
       <c r="K734" t="n">
-        <v>2.702702702702703</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L734" t="n">
         <v>206240</v>
@@ -37713,7 +37735,7 @@
         <v>102100</v>
       </c>
       <c r="K735" t="n">
-        <v>2.702702702702703</v>
+        <v>0</v>
       </c>
       <c r="L735" t="n">
         <v>206250</v>
@@ -37764,7 +37786,7 @@
         <v>102200</v>
       </c>
       <c r="K736" t="n">
-        <v>8.108108108108109</v>
+        <v>20</v>
       </c>
       <c r="L736" t="n">
         <v>206260</v>
@@ -37815,7 +37837,7 @@
         <v>102500</v>
       </c>
       <c r="K737" t="n">
-        <v>-11.11111111111111</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L737" t="n">
         <v>206260</v>
@@ -37866,7 +37888,7 @@
         <v>102600</v>
       </c>
       <c r="K738" t="n">
-        <v>-20</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L738" t="n">
         <v>206240</v>
@@ -37917,7 +37939,7 @@
         <v>102700</v>
       </c>
       <c r="K739" t="n">
-        <v>-9.090909090909092</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L739" t="n">
         <v>206240</v>
@@ -37968,7 +37990,7 @@
         <v>102900</v>
       </c>
       <c r="K740" t="n">
-        <v>-9.090909090909092</v>
+        <v>-25</v>
       </c>
       <c r="L740" t="n">
         <v>206230</v>
@@ -38019,7 +38041,7 @@
         <v>103000</v>
       </c>
       <c r="K741" t="n">
-        <v>-3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L741" t="n">
         <v>206200</v>
@@ -38070,7 +38092,7 @@
         <v>103000</v>
       </c>
       <c r="K742" t="n">
-        <v>-9.67741935483871</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L742" t="n">
         <v>206200</v>
@@ -38121,7 +38143,7 @@
         <v>103100</v>
       </c>
       <c r="K743" t="n">
-        <v>-6.666666666666667</v>
+        <v>-40</v>
       </c>
       <c r="L743" t="n">
         <v>206200</v>
@@ -38172,7 +38194,7 @@
         <v>103200</v>
       </c>
       <c r="K744" t="n">
-        <v>-17.24137931034483</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L744" t="n">
         <v>206150</v>
@@ -38223,7 +38245,7 @@
         <v>103400</v>
       </c>
       <c r="K745" t="n">
-        <v>-20</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L745" t="n">
         <v>206080</v>
@@ -38274,7 +38296,7 @@
         <v>103500</v>
       </c>
       <c r="K746" t="n">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="L746" t="n">
         <v>206010</v>
@@ -38325,7 +38347,7 @@
         <v>103600</v>
       </c>
       <c r="K747" t="n">
-        <v>-10.3448275862069</v>
+        <v>-20</v>
       </c>
       <c r="L747" t="n">
         <v>205980</v>
@@ -38376,7 +38398,7 @@
         <v>103700</v>
       </c>
       <c r="K748" t="n">
-        <v>-17.24137931034483</v>
+        <v>-40</v>
       </c>
       <c r="L748" t="n">
         <v>205950</v>
@@ -38427,7 +38449,7 @@
         <v>104100</v>
       </c>
       <c r="K749" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L749" t="n">
         <v>205950</v>
@@ -38529,7 +38551,7 @@
         <v>104300</v>
       </c>
       <c r="K751" t="n">
-        <v>-13.33333333333333</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L751" t="n">
         <v>205950</v>
@@ -38580,7 +38602,7 @@
         <v>104400</v>
       </c>
       <c r="K752" t="n">
-        <v>-7.142857142857142</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L752" t="n">
         <v>205930</v>
@@ -38631,7 +38653,7 @@
         <v>104500</v>
       </c>
       <c r="K753" t="n">
-        <v>-7.142857142857142</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L753" t="n">
         <v>205910</v>
@@ -38682,7 +38704,7 @@
         <v>104700</v>
       </c>
       <c r="K754" t="n">
-        <v>-15.38461538461539</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L754" t="n">
         <v>205920</v>
@@ -38733,7 +38755,7 @@
         <v>105000</v>
       </c>
       <c r="K755" t="n">
-        <v>-3.448275862068965</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L755" t="n">
         <v>205980</v>
@@ -38784,7 +38806,7 @@
         <v>105100</v>
       </c>
       <c r="K756" t="n">
-        <v>-10.3448275862069</v>
+        <v>20</v>
       </c>
       <c r="L756" t="n">
         <v>206020</v>
@@ -38835,7 +38857,7 @@
         <v>105100</v>
       </c>
       <c r="K757" t="n">
-        <v>0</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L757" t="n">
         <v>206050</v>
@@ -38886,7 +38908,7 @@
         <v>105100</v>
       </c>
       <c r="K758" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L758" t="n">
         <v>206090</v>
@@ -38937,7 +38959,7 @@
         <v>105100</v>
       </c>
       <c r="K759" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L759" t="n">
         <v>206090</v>
@@ -38988,7 +39010,7 @@
         <v>105200</v>
       </c>
       <c r="K760" t="n">
-        <v>4.347826086956522</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L760" t="n">
         <v>206090</v>
@@ -39039,7 +39061,7 @@
         <v>105300</v>
       </c>
       <c r="K761" t="n">
-        <v>-4.347826086956522</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L761" t="n">
         <v>206090</v>
@@ -39090,7 +39112,7 @@
         <v>105500</v>
       </c>
       <c r="K762" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="L762" t="n">
         <v>206080</v>
@@ -39141,7 +39163,7 @@
         <v>105500</v>
       </c>
       <c r="K763" t="n">
-        <v>-8.333333333333332</v>
+        <v>-25</v>
       </c>
       <c r="L763" t="n">
         <v>206080</v>
@@ -39192,7 +39214,7 @@
         <v>105600</v>
       </c>
       <c r="K764" t="n">
-        <v>-8.333333333333332</v>
+        <v>-100</v>
       </c>
       <c r="L764" t="n">
         <v>206050</v>
@@ -39243,7 +39265,7 @@
         <v>105700</v>
       </c>
       <c r="K765" t="n">
-        <v>-4.347826086956522</v>
+        <v>-100</v>
       </c>
       <c r="L765" t="n">
         <v>205980</v>
@@ -39294,7 +39316,7 @@
         <v>105800</v>
       </c>
       <c r="K766" t="n">
-        <v>-13.04347826086956</v>
+        <v>-100</v>
       </c>
       <c r="L766" t="n">
         <v>205910</v>
@@ -39345,7 +39367,7 @@
         <v>106000</v>
       </c>
       <c r="K767" t="n">
-        <v>-8.333333333333332</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L767" t="n">
         <v>205860</v>
@@ -39396,7 +39418,7 @@
         <v>106000</v>
       </c>
       <c r="K768" t="n">
-        <v>-4.347826086956522</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L768" t="n">
         <v>205810</v>
@@ -39447,7 +39469,7 @@
         <v>106100</v>
       </c>
       <c r="K769" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L769" t="n">
         <v>205770</v>
@@ -39498,7 +39520,7 @@
         <v>106200</v>
       </c>
       <c r="K770" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L770" t="n">
         <v>205730</v>
@@ -39549,7 +39571,7 @@
         <v>106300</v>
       </c>
       <c r="K771" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L771" t="n">
         <v>205710</v>
@@ -39600,7 +39622,7 @@
         <v>106300</v>
       </c>
       <c r="K772" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L772" t="n">
         <v>205710</v>
@@ -39651,7 +39673,7 @@
         <v>106400</v>
       </c>
       <c r="K773" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L773" t="n">
         <v>205700</v>
@@ -39702,7 +39724,7 @@
         <v>106400</v>
       </c>
       <c r="K774" t="n">
-        <v>-17.64705882352941</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L774" t="n">
         <v>205700</v>
@@ -39753,7 +39775,7 @@
         <v>106400</v>
       </c>
       <c r="K775" t="n">
-        <v>-42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L775" t="n">
         <v>205710</v>
@@ -39804,7 +39826,7 @@
         <v>106600</v>
       </c>
       <c r="K776" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L776" t="n">
         <v>205750</v>
@@ -39855,7 +39877,7 @@
         <v>107000</v>
       </c>
       <c r="K777" t="n">
-        <v>-36.84210526315789</v>
+        <v>-20</v>
       </c>
       <c r="L777" t="n">
         <v>205730</v>
@@ -39906,7 +39928,7 @@
         <v>107100</v>
       </c>
       <c r="K778" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="L778" t="n">
         <v>205720</v>
@@ -39957,7 +39979,7 @@
         <v>107100</v>
       </c>
       <c r="K779" t="n">
-        <v>-30</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L779" t="n">
         <v>205700</v>
@@ -40008,7 +40030,7 @@
         <v>107100</v>
       </c>
       <c r="K780" t="n">
-        <v>-26.31578947368421</v>
+        <v>-25</v>
       </c>
       <c r="L780" t="n">
         <v>205690</v>
@@ -40059,7 +40081,7 @@
         <v>107100</v>
       </c>
       <c r="K781" t="n">
-        <v>-22.22222222222222</v>
+        <v>-25</v>
       </c>
       <c r="L781" t="n">
         <v>205670</v>
@@ -40110,7 +40132,7 @@
         <v>107200</v>
       </c>
       <c r="K782" t="n">
-        <v>-17.64705882352941</v>
+        <v>-25</v>
       </c>
       <c r="L782" t="n">
         <v>205640</v>
@@ -40161,7 +40183,7 @@
         <v>107200</v>
       </c>
       <c r="K783" t="n">
-        <v>-17.64705882352941</v>
+        <v>-25</v>
       </c>
       <c r="L783" t="n">
         <v>205620</v>
@@ -40212,7 +40234,7 @@
         <v>107500</v>
       </c>
       <c r="K784" t="n">
-        <v>5.263157894736842</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L784" t="n">
         <v>205630</v>
@@ -40263,7 +40285,7 @@
         <v>107600</v>
       </c>
       <c r="K785" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L785" t="n">
         <v>205650</v>
@@ -40314,7 +40336,7 @@
         <v>107700</v>
       </c>
       <c r="K786" t="n">
-        <v>26.31578947368421</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L786" t="n">
         <v>205660</v>
@@ -40365,7 +40387,7 @@
         <v>108000</v>
       </c>
       <c r="K787" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L787" t="n">
         <v>205680</v>
@@ -40416,7 +40438,7 @@
         <v>108100</v>
       </c>
       <c r="K788" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L788" t="n">
         <v>205680</v>
@@ -40467,7 +40489,7 @@
         <v>108200</v>
       </c>
       <c r="K789" t="n">
-        <v>-4.761904761904762</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L789" t="n">
         <v>205690</v>
@@ -40518,7 +40540,7 @@
         <v>108400</v>
       </c>
       <c r="K790" t="n">
-        <v>9.090909090909092</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L790" t="n">
         <v>205720</v>
@@ -40569,7 +40591,7 @@
         <v>108400</v>
       </c>
       <c r="K791" t="n">
-        <v>4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L791" t="n">
         <v>205750</v>
@@ -40620,7 +40642,7 @@
         <v>108600</v>
       </c>
       <c r="K792" t="n">
-        <v>-4.347826086956522</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L792" t="n">
         <v>205770</v>
@@ -40671,7 +40693,7 @@
         <v>108700</v>
       </c>
       <c r="K793" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L793" t="n">
         <v>205800</v>
@@ -40722,7 +40744,7 @@
         <v>108800</v>
       </c>
       <c r="K794" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L794" t="n">
         <v>205790</v>
@@ -40773,7 +40795,7 @@
         <v>109000</v>
       </c>
       <c r="K795" t="n">
-        <v>7.692307692307693</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L795" t="n">
         <v>205790</v>
@@ -40824,7 +40846,7 @@
         <v>109000</v>
       </c>
       <c r="K796" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L796" t="n">
         <v>205780</v>
@@ -40875,7 +40897,7 @@
         <v>109100</v>
       </c>
       <c r="K797" t="n">
-        <v>23.80952380952381</v>
+        <v>40</v>
       </c>
       <c r="L797" t="n">
         <v>205810</v>
@@ -40926,7 +40948,7 @@
         <v>109200</v>
       </c>
       <c r="K798" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L798" t="n">
         <v>205840</v>
@@ -40977,7 +40999,7 @@
         <v>109400</v>
       </c>
       <c r="K799" t="n">
-        <v>4.347826086956522</v>
+        <v>-20</v>
       </c>
       <c r="L799" t="n">
         <v>205840</v>
@@ -41028,7 +41050,7 @@
         <v>109600</v>
       </c>
       <c r="K800" t="n">
-        <v>-4</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L800" t="n">
         <v>205800</v>
@@ -41079,7 +41101,7 @@
         <v>109700</v>
       </c>
       <c r="K801" t="n">
-        <v>-7.692307692307693</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L801" t="n">
         <v>205750</v>
@@ -41130,7 +41152,7 @@
         <v>109800</v>
       </c>
       <c r="K802" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L802" t="n">
         <v>205730</v>
@@ -41181,7 +41203,7 @@
         <v>109800</v>
       </c>
       <c r="K803" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L803" t="n">
         <v>205700</v>
@@ -41232,7 +41254,7 @@
         <v>109800</v>
       </c>
       <c r="K804" t="n">
-        <v>-13.04347826086956</v>
+        <v>-50</v>
       </c>
       <c r="L804" t="n">
         <v>205680</v>
@@ -41283,7 +41305,7 @@
         <v>109800</v>
       </c>
       <c r="K805" t="n">
-        <v>-18.18181818181818</v>
+        <v>-50</v>
       </c>
       <c r="L805" t="n">
         <v>205640</v>
@@ -41334,7 +41356,7 @@
         <v>109900</v>
       </c>
       <c r="K806" t="n">
-        <v>-18.18181818181818</v>
+        <v>-50</v>
       </c>
       <c r="L806" t="n">
         <v>205610</v>
@@ -41385,7 +41407,7 @@
         <v>110000</v>
       </c>
       <c r="K807" t="n">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="L807" t="n">
         <v>205560</v>
@@ -41436,7 +41458,7 @@
         <v>110000</v>
       </c>
       <c r="K808" t="n">
-        <v>-5.263157894736842</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L808" t="n">
         <v>205520</v>
@@ -41487,7 +41509,7 @@
         <v>110100</v>
       </c>
       <c r="K809" t="n">
-        <v>-15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L809" t="n">
         <v>205490</v>
@@ -41538,7 +41560,7 @@
         <v>110200</v>
       </c>
       <c r="K810" t="n">
-        <v>-22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L810" t="n">
         <v>205490</v>
@@ -41589,7 +41611,7 @@
         <v>110300</v>
       </c>
       <c r="K811" t="n">
-        <v>-15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L811" t="n">
         <v>205510</v>
@@ -41640,7 +41662,7 @@
         <v>110300</v>
       </c>
       <c r="K812" t="n">
-        <v>-5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L812" t="n">
         <v>205520</v>
@@ -41691,7 +41713,7 @@
         <v>110400</v>
       </c>
       <c r="K813" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L813" t="n">
         <v>205540</v>
@@ -41742,7 +41764,7 @@
         <v>110500</v>
       </c>
       <c r="K814" t="n">
-        <v>5.88235294117647</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L814" t="n">
         <v>205570</v>
@@ -41793,7 +41815,7 @@
         <v>110700</v>
       </c>
       <c r="K815" t="n">
-        <v>5.88235294117647</v>
+        <v>50</v>
       </c>
       <c r="L815" t="n">
         <v>205620</v>
@@ -41844,7 +41866,7 @@
         <v>110800</v>
       </c>
       <c r="K816" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L816" t="n">
         <v>205650</v>
@@ -41895,7 +41917,7 @@
         <v>110800</v>
       </c>
       <c r="K817" t="n">
-        <v>-5.88235294117647</v>
+        <v>50</v>
       </c>
       <c r="L817" t="n">
         <v>205690</v>
@@ -41946,7 +41968,7 @@
         <v>111000</v>
       </c>
       <c r="K818" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L818" t="n">
         <v>205710</v>
@@ -41997,7 +42019,7 @@
         <v>111000</v>
       </c>
       <c r="K819" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L819" t="n">
         <v>205740</v>
@@ -42048,7 +42070,7 @@
         <v>111100</v>
       </c>
       <c r="K820" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L820" t="n">
         <v>205750</v>
@@ -42099,7 +42121,7 @@
         <v>111300</v>
       </c>
       <c r="K821" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L821" t="n">
         <v>205770</v>
@@ -42150,7 +42172,7 @@
         <v>111300</v>
       </c>
       <c r="K822" t="n">
-        <v>20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L822" t="n">
         <v>205790</v>
@@ -42201,7 +42223,7 @@
         <v>111300</v>
       </c>
       <c r="K823" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L823" t="n">
         <v>205800</v>
@@ -42252,7 +42274,7 @@
         <v>111300</v>
       </c>
       <c r="K824" t="n">
-        <v>20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L824" t="n">
         <v>205800</v>
@@ -42303,7 +42325,7 @@
         <v>111500</v>
       </c>
       <c r="K825" t="n">
-        <v>29.41176470588236</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L825" t="n">
         <v>205800</v>
@@ -42354,7 +42376,7 @@
         <v>111600</v>
       </c>
       <c r="K826" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L826" t="n">
         <v>205800</v>
@@ -42405,7 +42427,7 @@
         <v>111600</v>
       </c>
       <c r="K827" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L827" t="n">
         <v>205800</v>
@@ -42456,7 +42478,7 @@
         <v>111700</v>
       </c>
       <c r="K828" t="n">
-        <v>17.64705882352941</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L828" t="n">
         <v>205810</v>
@@ -42507,7 +42529,7 @@
         <v>111900</v>
       </c>
       <c r="K829" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L829" t="n">
         <v>205840</v>
@@ -42558,7 +42580,7 @@
         <v>112000</v>
       </c>
       <c r="K830" t="n">
-        <v>22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L830" t="n">
         <v>205870</v>
@@ -42609,7 +42631,7 @@
         <v>112000</v>
       </c>
       <c r="K831" t="n">
-        <v>17.64705882352941</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L831" t="n">
         <v>205880</v>
@@ -42660,7 +42682,7 @@
         <v>112200</v>
       </c>
       <c r="K832" t="n">
-        <v>26.31578947368421</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L832" t="n">
         <v>205910</v>
@@ -42711,7 +42733,7 @@
         <v>112400</v>
       </c>
       <c r="K833" t="n">
-        <v>10</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L833" t="n">
         <v>205920</v>
@@ -42762,7 +42784,7 @@
         <v>112400</v>
       </c>
       <c r="K834" t="n">
-        <v>5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L834" t="n">
         <v>205930</v>
@@ -42864,7 +42886,7 @@
         <v>112500</v>
       </c>
       <c r="K836" t="n">
-        <v>-5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L836" t="n">
         <v>205900</v>
@@ -42915,7 +42937,7 @@
         <v>112500</v>
       </c>
       <c r="K837" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L837" t="n">
         <v>205890</v>
@@ -42966,7 +42988,7 @@
         <v>112500</v>
       </c>
       <c r="K838" t="n">
-        <v>6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L838" t="n">
         <v>205890</v>
@@ -43017,7 +43039,7 @@
         <v>112600</v>
       </c>
       <c r="K839" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L839" t="n">
         <v>205860</v>
@@ -43068,7 +43090,7 @@
         <v>112800</v>
       </c>
       <c r="K840" t="n">
-        <v>-5.88235294117647</v>
+        <v>-50</v>
       </c>
       <c r="L840" t="n">
         <v>205820</v>
@@ -43119,7 +43141,7 @@
         <v>113000</v>
       </c>
       <c r="K841" t="n">
-        <v>-5.88235294117647</v>
+        <v>-50</v>
       </c>
       <c r="L841" t="n">
         <v>205800</v>
@@ -43170,7 +43192,7 @@
         <v>113400</v>
       </c>
       <c r="K842" t="n">
-        <v>-23.80952380952381</v>
+        <v>-60</v>
       </c>
       <c r="L842" t="n">
         <v>205720</v>
@@ -43221,7 +43243,7 @@
         <v>113700</v>
       </c>
       <c r="K843" t="n">
-        <v>-8.333333333333332</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L843" t="n">
         <v>205690</v>
@@ -43272,7 +43294,7 @@
         <v>114000</v>
       </c>
       <c r="K844" t="n">
-        <v>-18.51851851851852</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L844" t="n">
         <v>205630</v>
@@ -43323,7 +43345,7 @@
         <v>114300</v>
       </c>
       <c r="K845" t="n">
-        <v>-14.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L845" t="n">
         <v>205610</v>
@@ -43374,7 +43396,7 @@
         <v>114400</v>
       </c>
       <c r="K846" t="n">
-        <v>-14.28571428571428</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L846" t="n">
         <v>205580</v>
@@ -43425,7 +43447,7 @@
         <v>114500</v>
       </c>
       <c r="K847" t="n">
-        <v>-10.3448275862069</v>
+        <v>-10</v>
       </c>
       <c r="L847" t="n">
         <v>205560</v>
@@ -43476,7 +43498,7 @@
         <v>114800</v>
       </c>
       <c r="K848" t="n">
-        <v>-16.12903225806452</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L848" t="n">
         <v>205510</v>
@@ -43527,7 +43549,7 @@
         <v>115100</v>
       </c>
       <c r="K849" t="n">
-        <v>-12.5</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L849" t="n">
         <v>205500</v>
@@ -43578,7 +43600,7 @@
         <v>115300</v>
       </c>
       <c r="K850" t="n">
-        <v>-15.15151515151515</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L850" t="n">
         <v>205490</v>
@@ -43629,7 +43651,7 @@
         <v>115400</v>
       </c>
       <c r="K851" t="n">
-        <v>-11.76470588235294</v>
+        <v>10</v>
       </c>
       <c r="L851" t="n">
         <v>205470</v>
@@ -43680,7 +43702,7 @@
         <v>115500</v>
       </c>
       <c r="K852" t="n">
-        <v>-21.21212121212121</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L852" t="n">
         <v>205480</v>
@@ -43731,7 +43753,7 @@
         <v>115700</v>
       </c>
       <c r="K853" t="n">
-        <v>-9.090909090909092</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L853" t="n">
         <v>205480</v>
@@ -43782,7 +43804,7 @@
         <v>115700</v>
       </c>
       <c r="K854" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L854" t="n">
         <v>205510</v>
@@ -43833,7 +43855,7 @@
         <v>115700</v>
       </c>
       <c r="K855" t="n">
-        <v>-6.25</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L855" t="n">
         <v>205510</v>
@@ -43884,7 +43906,7 @@
         <v>115700</v>
       </c>
       <c r="K856" t="n">
-        <v>-6.25</v>
+        <v>0</v>
       </c>
       <c r="L856" t="n">
         <v>205520</v>
@@ -43935,7 +43957,7 @@
         <v>115800</v>
       </c>
       <c r="K857" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L857" t="n">
         <v>205510</v>
@@ -43986,7 +44008,7 @@
         <v>115900</v>
       </c>
       <c r="K858" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L858" t="n">
         <v>205540</v>
@@ -44037,7 +44059,7 @@
         <v>115900</v>
       </c>
       <c r="K859" t="n">
-        <v>-3.03030303030303</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L859" t="n">
         <v>205540</v>
@@ -44088,7 +44110,7 @@
         <v>116000</v>
       </c>
       <c r="K860" t="n">
-        <v>6.25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L860" t="n">
         <v>205570</v>
@@ -44139,7 +44161,7 @@
         <v>116000</v>
       </c>
       <c r="K861" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L861" t="n">
         <v>205590</v>
@@ -44190,7 +44212,7 @@
         <v>116100</v>
       </c>
       <c r="K862" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L862" t="n">
         <v>205610</v>
@@ -44241,7 +44263,7 @@
         <v>116400</v>
       </c>
       <c r="K863" t="n">
-        <v>11.11111111111111</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L863" t="n">
         <v>205640</v>
@@ -44292,7 +44314,7 @@
         <v>116600</v>
       </c>
       <c r="K864" t="n">
-        <v>15.38461538461539</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L864" t="n">
         <v>205650</v>
@@ -44343,7 +44365,7 @@
         <v>116600</v>
       </c>
       <c r="K865" t="n">
-        <v>4.347826086956522</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L865" t="n">
         <v>205660</v>
@@ -44394,7 +44416,7 @@
         <v>116600</v>
       </c>
       <c r="K866" t="n">
-        <v>9.090909090909092</v>
+        <v>25</v>
       </c>
       <c r="L866" t="n">
         <v>205670</v>
@@ -44445,7 +44467,7 @@
         <v>116600</v>
       </c>
       <c r="K867" t="n">
-        <v>4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L867" t="n">
         <v>205690</v>
@@ -44496,7 +44518,7 @@
         <v>116700</v>
       </c>
       <c r="K868" t="n">
-        <v>26.31578947368421</v>
+        <v>25</v>
       </c>
       <c r="L868" t="n">
         <v>205710</v>
@@ -44547,7 +44569,7 @@
         <v>116800</v>
       </c>
       <c r="K869" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L869" t="n">
         <v>205720</v>
@@ -44598,7 +44620,7 @@
         <v>116800</v>
       </c>
       <c r="K870" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L870" t="n">
         <v>205720</v>
@@ -44700,7 +44722,7 @@
         <v>116900</v>
       </c>
       <c r="K872" t="n">
-        <v>14.28571428571428</v>
+        <v>-60</v>
       </c>
       <c r="L872" t="n">
         <v>205720</v>
@@ -44751,7 +44773,7 @@
         <v>116900</v>
       </c>
       <c r="K873" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L873" t="n">
         <v>205690</v>
@@ -44802,7 +44824,7 @@
         <v>117000</v>
       </c>
       <c r="K874" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L874" t="n">
         <v>205690</v>
@@ -44853,7 +44875,7 @@
         <v>117100</v>
       </c>
       <c r="K875" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L875" t="n">
         <v>205680</v>
@@ -44904,7 +44926,7 @@
         <v>117400</v>
       </c>
       <c r="K876" t="n">
-        <v>17.64705882352941</v>
+        <v>25</v>
       </c>
       <c r="L876" t="n">
         <v>205700</v>
@@ -44955,7 +44977,7 @@
         <v>117700</v>
       </c>
       <c r="K877" t="n">
-        <v>5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L877" t="n">
         <v>205690</v>
@@ -45006,7 +45028,7 @@
         <v>118000</v>
       </c>
       <c r="K878" t="n">
-        <v>14.28571428571428</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L878" t="n">
         <v>205700</v>
@@ -45057,7 +45079,7 @@
         <v>118400</v>
       </c>
       <c r="K879" t="n">
-        <v>-4</v>
+        <v>-12.5</v>
       </c>
       <c r="L879" t="n">
         <v>205680</v>
@@ -45108,7 +45130,7 @@
         <v>118500</v>
       </c>
       <c r="K880" t="n">
-        <v>-12</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L880" t="n">
         <v>205650</v>
@@ -45159,7 +45181,7 @@
         <v>118700</v>
       </c>
       <c r="K881" t="n">
-        <v>-18.51851851851852</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L881" t="n">
         <v>205600</v>
@@ -45210,7 +45232,7 @@
         <v>118900</v>
       </c>
       <c r="K882" t="n">
-        <v>-7.142857142857142</v>
+        <v>-10</v>
       </c>
       <c r="L882" t="n">
         <v>205580</v>
@@ -45261,7 +45283,7 @@
         <v>119000</v>
       </c>
       <c r="K883" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L883" t="n">
         <v>205550</v>
@@ -45312,7 +45334,7 @@
         <v>119300</v>
       </c>
       <c r="K884" t="n">
-        <v>-25.92592592592592</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L884" t="n">
         <v>205480</v>
@@ -45363,7 +45385,7 @@
         <v>119900</v>
       </c>
       <c r="K885" t="n">
-        <v>-39.39393939393939</v>
+        <v>-60</v>
       </c>
       <c r="L885" t="n">
         <v>205360</v>
@@ -45414,7 +45436,7 @@
         <v>120600</v>
       </c>
       <c r="K886" t="n">
-        <v>-50</v>
+        <v>-65.51724137931035</v>
       </c>
       <c r="L886" t="n">
         <v>205140</v>
@@ -45465,7 +45487,7 @@
         <v>120600</v>
       </c>
       <c r="K887" t="n">
-        <v>-50</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L887" t="n">
         <v>204950</v>
@@ -45516,7 +45538,7 @@
         <v>120800</v>
       </c>
       <c r="K888" t="n">
-        <v>-46.34146341463415</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L888" t="n">
         <v>204750</v>
@@ -45567,7 +45589,7 @@
         <v>120800</v>
       </c>
       <c r="K889" t="n">
-        <v>-45</v>
+        <v>-65.21739130434783</v>
       </c>
       <c r="L889" t="n">
         <v>204590</v>
@@ -45618,7 +45640,7 @@
         <v>121100</v>
       </c>
       <c r="K890" t="n">
-        <v>-34.88372093023256</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L890" t="n">
         <v>204470</v>
@@ -45669,7 +45691,7 @@
         <v>121300</v>
       </c>
       <c r="K891" t="n">
-        <v>-37.77777777777778</v>
+        <v>-58.33333333333334</v>
       </c>
       <c r="L891" t="n">
         <v>204350</v>
@@ -45720,7 +45742,7 @@
         <v>121600</v>
       </c>
       <c r="K892" t="n">
-        <v>-40.42553191489361</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L892" t="n">
         <v>204180</v>
@@ -45771,7 +45793,7 @@
         <v>122000</v>
       </c>
       <c r="K893" t="n">
-        <v>-29.41176470588236</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L893" t="n">
         <v>204060</v>
@@ -45822,7 +45844,7 @@
         <v>122100</v>
       </c>
       <c r="K894" t="n">
-        <v>-33.33333333333333</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L894" t="n">
         <v>203960</v>
@@ -45873,7 +45895,7 @@
         <v>122300</v>
       </c>
       <c r="K895" t="n">
-        <v>-26.92307692307692</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L895" t="n">
         <v>203940</v>
@@ -45924,7 +45946,7 @@
         <v>122400</v>
       </c>
       <c r="K896" t="n">
-        <v>-36</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L896" t="n">
         <v>203980</v>
@@ -45975,7 +45997,7 @@
         <v>122400</v>
       </c>
       <c r="K897" t="n">
-        <v>-31.91489361702128</v>
+        <v>12.5</v>
       </c>
       <c r="L897" t="n">
         <v>204020</v>
@@ -46026,7 +46048,7 @@
         <v>122500</v>
       </c>
       <c r="K898" t="n">
-        <v>-37.77777777777778</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L898" t="n">
         <v>204050</v>
@@ -46077,7 +46099,7 @@
         <v>122700</v>
       </c>
       <c r="K899" t="n">
-        <v>-34.88372093023256</v>
+        <v>-12.5</v>
       </c>
       <c r="L899" t="n">
         <v>204060</v>
@@ -46128,7 +46150,7 @@
         <v>122700</v>
       </c>
       <c r="K900" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L900" t="n">
         <v>204040</v>
@@ -46179,7 +46201,7 @@
         <v>122800</v>
       </c>
       <c r="K901" t="n">
-        <v>-31.70731707317073</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L901" t="n">
         <v>204030</v>
@@ -46230,7 +46252,7 @@
         <v>123000</v>
       </c>
       <c r="K902" t="n">
-        <v>-31.70731707317073</v>
+        <v>0</v>
       </c>
       <c r="L902" t="n">
         <v>204070</v>
@@ -46281,7 +46303,7 @@
         <v>123400</v>
       </c>
       <c r="K903" t="n">
-        <v>-18.18181818181818</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L903" t="n">
         <v>204110</v>
@@ -46332,7 +46354,7 @@
         <v>123700</v>
       </c>
       <c r="K904" t="n">
-        <v>-18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L904" t="n">
         <v>204130</v>
@@ -46383,7 +46405,7 @@
         <v>123700</v>
       </c>
       <c r="K905" t="n">
-        <v>-5.263157894736842</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L905" t="n">
         <v>204130</v>
@@ -46434,7 +46456,7 @@
         <v>123700</v>
       </c>
       <c r="K906" t="n">
-        <v>16.12903225806452</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L906" t="n">
         <v>204140</v>
@@ -46485,7 +46507,7 @@
         <v>123900</v>
       </c>
       <c r="K907" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L907" t="n">
         <v>204130</v>
@@ -46536,7 +46558,7 @@
         <v>123900</v>
       </c>
       <c r="K908" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L908" t="n">
         <v>204110</v>
@@ -46587,7 +46609,7 @@
         <v>123900</v>
       </c>
       <c r="K909" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L909" t="n">
         <v>204110</v>
@@ -46638,7 +46660,7 @@
         <v>124100</v>
       </c>
       <c r="K910" t="n">
-        <v>0</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L910" t="n">
         <v>204130</v>
@@ -46689,7 +46711,7 @@
         <v>124500</v>
       </c>
       <c r="K911" t="n">
-        <v>-6.25</v>
+        <v>-20</v>
       </c>
       <c r="L911" t="n">
         <v>204120</v>
@@ -46740,7 +46762,7 @@
         <v>124600</v>
       </c>
       <c r="K912" t="n">
-        <v>6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L912" t="n">
         <v>204100</v>
@@ -46791,7 +46813,7 @@
         <v>124800</v>
       </c>
       <c r="K913" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L913" t="n">
         <v>204060</v>
@@ -46842,7 +46864,7 @@
         <v>124800</v>
       </c>
       <c r="K914" t="n">
-        <v>3.703703703703703</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L914" t="n">
         <v>204050</v>
@@ -46893,7 +46915,7 @@
         <v>125000</v>
       </c>
       <c r="K915" t="n">
-        <v>3.703703703703703</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L915" t="n">
         <v>204060</v>
@@ -46944,7 +46966,7 @@
         <v>125100</v>
       </c>
       <c r="K916" t="n">
-        <v>3.703703703703703</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L916" t="n">
         <v>204060</v>
@@ -46995,7 +47017,7 @@
         <v>125100</v>
       </c>
       <c r="K917" t="n">
-        <v>3.703703703703703</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L917" t="n">
         <v>204080</v>
@@ -47046,7 +47068,7 @@
         <v>125100</v>
       </c>
       <c r="K918" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L918" t="n">
         <v>204100</v>
@@ -47097,7 +47119,7 @@
         <v>125200</v>
       </c>
       <c r="K919" t="n">
-        <v>12</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L919" t="n">
         <v>204130</v>
@@ -47148,7 +47170,7 @@
         <v>125300</v>
       </c>
       <c r="K920" t="n">
-        <v>7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L920" t="n">
         <v>204130</v>
@@ -47199,7 +47221,7 @@
         <v>125400</v>
       </c>
       <c r="K921" t="n">
-        <v>15.38461538461539</v>
+        <v>50</v>
       </c>
       <c r="L921" t="n">
         <v>204180</v>
@@ -47250,7 +47272,7 @@
         <v>125400</v>
       </c>
       <c r="K922" t="n">
-        <v>8.333333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L922" t="n">
         <v>204220</v>
@@ -47301,7 +47323,7 @@
         <v>125500</v>
       </c>
       <c r="K923" t="n">
-        <v>-14.28571428571428</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L923" t="n">
         <v>204230</v>
@@ -47352,7 +47374,7 @@
         <v>125900</v>
       </c>
       <c r="K924" t="n">
-        <v>18.18181818181818</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L924" t="n">
         <v>204280</v>
@@ -47403,7 +47425,7 @@
         <v>128000</v>
       </c>
       <c r="K925" t="n">
-        <v>58.13953488372093</v>
+        <v>86.20689655172413</v>
       </c>
       <c r="L925" t="n">
         <v>204520</v>
@@ -47454,7 +47476,7 @@
         <v>128200</v>
       </c>
       <c r="K926" t="n">
-        <v>51.11111111111111</v>
+        <v>74.19354838709677</v>
       </c>
       <c r="L926" t="n">
         <v>204750</v>
@@ -47505,7 +47527,7 @@
         <v>128600</v>
       </c>
       <c r="K927" t="n">
-        <v>44.68085106382978</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="L927" t="n">
         <v>204940</v>
@@ -47556,7 +47578,7 @@
         <v>128900</v>
       </c>
       <c r="K928" t="n">
-        <v>48</v>
+        <v>56.75675675675676</v>
       </c>
       <c r="L928" t="n">
         <v>205160</v>
@@ -47607,7 +47629,7 @@
         <v>129300</v>
       </c>
       <c r="K929" t="n">
-        <v>51.85185185185185</v>
+        <v>65</v>
       </c>
       <c r="L929" t="n">
         <v>205410</v>
@@ -47658,7 +47680,7 @@
         <v>129700</v>
       </c>
       <c r="K930" t="n">
-        <v>39.28571428571428</v>
+        <v>48.83720930232558</v>
       </c>
       <c r="L930" t="n">
         <v>205630</v>
@@ -47709,7 +47731,7 @@
         <v>129800</v>
       </c>
       <c r="K931" t="n">
-        <v>47.16981132075472</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L931" t="n">
         <v>205830</v>
@@ -47760,7 +47782,7 @@
         <v>129900</v>
       </c>
       <c r="K932" t="n">
-        <v>47.16981132075472</v>
+        <v>50</v>
       </c>
       <c r="L932" t="n">
         <v>206040</v>
@@ -47811,7 +47833,7 @@
         <v>130000</v>
       </c>
       <c r="K933" t="n">
-        <v>46.15384615384615</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="L933" t="n">
         <v>206270</v>
@@ -47862,7 +47884,7 @@
         <v>130100</v>
       </c>
       <c r="K934" t="n">
-        <v>47.16981132075472</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L934" t="n">
         <v>206470</v>
@@ -47913,7 +47935,7 @@
         <v>130100</v>
       </c>
       <c r="K935" t="n">
-        <v>45.09803921568628</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L935" t="n">
         <v>206460</v>
@@ -47964,7 +47986,7 @@
         <v>130500</v>
       </c>
       <c r="K936" t="n">
-        <v>51.85185185185185</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L936" t="n">
         <v>206510</v>
@@ -48015,7 +48037,7 @@
         <v>131200</v>
       </c>
       <c r="K937" t="n">
-        <v>34.42622950819672</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L937" t="n">
         <v>206530</v>
@@ -48066,7 +48088,7 @@
         <v>131300</v>
       </c>
       <c r="K938" t="n">
-        <v>32.25806451612903</v>
+        <v>-30</v>
       </c>
       <c r="L938" t="n">
         <v>206510</v>
@@ -48117,7 +48139,7 @@
         <v>131600</v>
       </c>
       <c r="K939" t="n">
-        <v>34.375</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L939" t="n">
         <v>206480</v>
@@ -48168,7 +48190,7 @@
         <v>131800</v>
       </c>
       <c r="K940" t="n">
-        <v>32.30769230769231</v>
+        <v>0</v>
       </c>
       <c r="L940" t="n">
         <v>206470</v>
@@ -48219,7 +48241,7 @@
         <v>132100</v>
       </c>
       <c r="K941" t="n">
-        <v>34.32835820895522</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L941" t="n">
         <v>206500</v>
@@ -48270,7 +48292,7 @@
         <v>132200</v>
       </c>
       <c r="K942" t="n">
-        <v>35.29411764705883</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L942" t="n">
         <v>206530</v>
@@ -48321,7 +48343,7 @@
         <v>132200</v>
       </c>
       <c r="K943" t="n">
-        <v>37.3134328358209</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L943" t="n">
         <v>206550</v>
@@ -48372,7 +48394,7 @@
         <v>132400</v>
       </c>
       <c r="K944" t="n">
-        <v>29.23076923076923</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L944" t="n">
         <v>206540</v>
@@ -48423,7 +48445,7 @@
         <v>132800</v>
       </c>
       <c r="K945" t="n">
-        <v>4.166666666666666</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L945" t="n">
         <v>206570</v>
@@ -48474,7 +48496,7 @@
         <v>133200</v>
       </c>
       <c r="K946" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L946" t="n">
         <v>206520</v>
@@ -48525,7 +48547,7 @@
         <v>133200</v>
       </c>
       <c r="K947" t="n">
-        <v>8.695652173913043</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L947" t="n">
         <v>206540</v>
@@ -48576,7 +48598,7 @@
         <v>133400</v>
       </c>
       <c r="K948" t="n">
-        <v>-2.222222222222222</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L948" t="n">
         <v>206550</v>
@@ -48627,7 +48649,7 @@
         <v>133500</v>
       </c>
       <c r="K949" t="n">
-        <v>-9.523809523809524</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L949" t="n">
         <v>206540</v>
@@ -48678,7 +48700,7 @@
         <v>133500</v>
       </c>
       <c r="K950" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L950" t="n">
         <v>206550</v>
@@ -48729,7 +48751,7 @@
         <v>133800</v>
       </c>
       <c r="K951" t="n">
-        <v>-5</v>
+        <v>-37.5</v>
       </c>
       <c r="L951" t="n">
         <v>206500</v>
@@ -48780,7 +48802,7 @@
         <v>134300</v>
       </c>
       <c r="K952" t="n">
-        <v>4.545454545454546</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L952" t="n">
         <v>206490</v>
@@ -48831,7 +48853,7 @@
         <v>134300</v>
       </c>
       <c r="K953" t="n">
-        <v>2.325581395348837</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L953" t="n">
         <v>206480</v>
@@ -48882,7 +48904,7 @@
         <v>134500</v>
       </c>
       <c r="K954" t="n">
-        <v>-4.545454545454546</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L954" t="n">
         <v>206470</v>
@@ -48933,7 +48955,7 @@
         <v>134600</v>
       </c>
       <c r="K955" t="n">
-        <v>-2.222222222222222</v>
+        <v>0</v>
       </c>
       <c r="L955" t="n">
         <v>206430</v>
@@ -48984,7 +49006,7 @@
         <v>134700</v>
       </c>
       <c r="K956" t="n">
-        <v>-9.523809523809524</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L956" t="n">
         <v>206440</v>
@@ -49035,7 +49057,7 @@
         <v>134700</v>
       </c>
       <c r="K957" t="n">
-        <v>8.571428571428571</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L957" t="n">
         <v>206450</v>
@@ -49086,7 +49108,7 @@
         <v>134900</v>
       </c>
       <c r="K958" t="n">
-        <v>16.66666666666666</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L958" t="n">
         <v>206500</v>
@@ -49137,7 +49159,7 @@
         <v>134900</v>
       </c>
       <c r="K959" t="n">
-        <v>9.090909090909092</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L959" t="n">
         <v>206540</v>
@@ -49188,7 +49210,7 @@
         <v>134900</v>
       </c>
       <c r="K960" t="n">
-        <v>16.12903225806452</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L960" t="n">
         <v>206580</v>
@@ -49290,7 +49312,7 @@
         <v>135300</v>
       </c>
       <c r="K962" t="n">
-        <v>3.225806451612903</v>
+        <v>20</v>
       </c>
       <c r="L962" t="n">
         <v>206650</v>
@@ -49341,7 +49363,7 @@
         <v>135400</v>
       </c>
       <c r="K963" t="n">
-        <v>6.25</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L963" t="n">
         <v>206680</v>
@@ -49392,7 +49414,7 @@
         <v>135700</v>
       </c>
       <c r="K964" t="n">
-        <v>3.03030303030303</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L964" t="n">
         <v>206700</v>
@@ -49443,7 +49465,7 @@
         <v>136000</v>
       </c>
       <c r="K965" t="n">
-        <v>-18.75</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L965" t="n">
         <v>206680</v>
@@ -49494,7 +49516,7 @@
         <v>136100</v>
       </c>
       <c r="K966" t="n">
-        <v>-10.3448275862069</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L966" t="n">
         <v>206640</v>
@@ -49545,7 +49567,7 @@
         <v>136200</v>
       </c>
       <c r="K967" t="n">
-        <v>-13.33333333333333</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L967" t="n">
         <v>206590</v>
@@ -49596,7 +49618,7 @@
         <v>136200</v>
       </c>
       <c r="K968" t="n">
-        <v>-7.142857142857142</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L968" t="n">
         <v>206520</v>
@@ -49647,7 +49669,7 @@
         <v>136200</v>
       </c>
       <c r="K969" t="n">
-        <v>-11.11111111111111</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L969" t="n">
         <v>206450</v>
@@ -49698,7 +49720,7 @@
         <v>136400</v>
       </c>
       <c r="K970" t="n">
-        <v>-3.448275862068965</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L970" t="n">
         <v>206400</v>
@@ -49749,7 +49771,7 @@
         <v>136600</v>
       </c>
       <c r="K971" t="n">
-        <v>0</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L971" t="n">
         <v>206350</v>
@@ -49800,7 +49822,7 @@
         <v>136700</v>
       </c>
       <c r="K972" t="n">
-        <v>-25</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L972" t="n">
         <v>206270</v>
@@ -49851,7 +49873,7 @@
         <v>136800</v>
       </c>
       <c r="K973" t="n">
-        <v>-28</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L973" t="n">
         <v>206170</v>

--- a/BackTest/2019-10-19 BackTest ETH.xlsx
+++ b/BackTest/2019-10-19 BackTest ETH.xlsx
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -13611,20 +13611,14 @@
         <v>204376.6666666667</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>204000</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L378" t="inlineStr"/>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -13652,20 +13646,14 @@
         <v>204366.6666666667</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>203800</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -13693,20 +13681,14 @@
         <v>204353.3333333333</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>203700</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L380" t="inlineStr"/>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -13734,20 +13716,14 @@
         <v>204340</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>203900</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L381" t="inlineStr"/>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -13775,20 +13751,14 @@
         <v>204331.6666666667</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>203800</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -13816,20 +13786,14 @@
         <v>204325</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>203900</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L383" t="inlineStr"/>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -13857,20 +13821,14 @@
         <v>204320</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>204000</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L384" t="inlineStr"/>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -13898,20 +13856,14 @@
         <v>204308.3333333333</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>204000</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L385" t="inlineStr"/>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -13939,20 +13891,14 @@
         <v>204290</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>203700</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L386" t="inlineStr"/>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -13980,20 +13926,14 @@
         <v>204281.6666666667</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
-        <v>203900</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L387" t="inlineStr"/>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14021,20 +13961,14 @@
         <v>204266.6666666667</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>203600</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L388" t="inlineStr"/>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14062,20 +13996,14 @@
         <v>204255</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>203500</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14103,20 +14031,14 @@
         <v>204245</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>203900</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14152,12 +14074,10 @@
       <c r="J391" t="n">
         <v>203900</v>
       </c>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14185,18 +14105,18 @@
         <v>204233.3333333333</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>203900</v>
-      </c>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>203900</v>
+      </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M392" t="n">
@@ -14226,18 +14146,18 @@
         <v>204230</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>203900</v>
-      </c>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>203900</v>
+      </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M393" t="n">
@@ -14267,15 +14187,15 @@
         <v>204226.6666666667</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>204200</v>
-      </c>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>203900</v>
+      </c>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14308,15 +14228,15 @@
         <v>204225</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="n">
-        <v>204300</v>
-      </c>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>203900</v>
+      </c>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14349,15 +14269,15 @@
         <v>204221.6666666667</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
-        <v>204300</v>
-      </c>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>203900</v>
+      </c>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14390,15 +14310,15 @@
         <v>204221.6666666667</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="n">
-        <v>204300</v>
-      </c>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>203900</v>
+      </c>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14431,15 +14351,15 @@
         <v>204221.6666666667</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
       </c>
-      <c r="J398" t="n">
-        <v>204300</v>
-      </c>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>203900</v>
+      </c>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14472,15 +14392,15 @@
         <v>204213.3333333333</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
       </c>
-      <c r="J399" t="n">
-        <v>204200</v>
-      </c>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>203900</v>
+      </c>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14513,15 +14433,15 @@
         <v>204203.3333333333</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
       </c>
-      <c r="J400" t="n">
-        <v>204100</v>
-      </c>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>203900</v>
+      </c>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14554,15 +14474,15 @@
         <v>204198.3333333333</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
       </c>
-      <c r="J401" t="n">
-        <v>204100</v>
-      </c>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>203900</v>
+      </c>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14595,15 +14515,15 @@
         <v>204193.3333333333</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
       </c>
-      <c r="J402" t="n">
-        <v>204100</v>
-      </c>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>203900</v>
+      </c>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14636,15 +14556,15 @@
         <v>204188.3333333333</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
       </c>
-      <c r="J403" t="n">
-        <v>204200</v>
-      </c>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>203900</v>
+      </c>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14677,15 +14597,15 @@
         <v>204183.3333333333</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
       </c>
-      <c r="J404" t="n">
-        <v>204200</v>
-      </c>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>203900</v>
+      </c>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14718,15 +14638,15 @@
         <v>204176.6666666667</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
       </c>
-      <c r="J405" t="n">
-        <v>204200</v>
-      </c>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>203900</v>
+      </c>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14759,15 +14679,15 @@
         <v>204170</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
       </c>
-      <c r="J406" t="n">
-        <v>204400</v>
-      </c>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>203900</v>
+      </c>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14800,15 +14720,15 @@
         <v>204166.6666666667</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
       </c>
-      <c r="J407" t="n">
-        <v>204200</v>
-      </c>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>203900</v>
+      </c>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14847,7 +14767,9 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>203900</v>
+      </c>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14886,7 +14808,9 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>203900</v>
+      </c>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14919,15 +14843,15 @@
         <v>204151.6666666667</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
       </c>
-      <c r="J410" t="n">
-        <v>204100</v>
-      </c>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>203900</v>
+      </c>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14960,15 +14884,15 @@
         <v>204143.3333333333</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
       </c>
-      <c r="J411" t="n">
-        <v>204100</v>
-      </c>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>203900</v>
+      </c>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15001,15 +14925,15 @@
         <v>204131.6666666667</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
       </c>
-      <c r="J412" t="n">
-        <v>204100</v>
-      </c>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>203900</v>
+      </c>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15042,15 +14966,15 @@
         <v>204126.6666666667</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
       </c>
-      <c r="J413" t="n">
-        <v>204100</v>
-      </c>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>203900</v>
+      </c>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15083,15 +15007,15 @@
         <v>204125</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="n">
-        <v>204300</v>
-      </c>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>203900</v>
+      </c>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15124,15 +15048,15 @@
         <v>204121.6666666667</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
-      <c r="J415" t="n">
-        <v>204300</v>
-      </c>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>203900</v>
+      </c>
       <c r="L415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15165,15 +15089,15 @@
         <v>204120</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="n">
-        <v>204300</v>
-      </c>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>203900</v>
+      </c>
       <c r="L416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15212,7 +15136,9 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>203900</v>
+      </c>
       <c r="L417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15251,7 +15177,9 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>203900</v>
+      </c>
       <c r="L418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15290,7 +15218,9 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>203900</v>
+      </c>
       <c r="L419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15329,7 +15259,9 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>203900</v>
+      </c>
       <c r="L420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15368,7 +15300,9 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>203900</v>
+      </c>
       <c r="L421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15407,7 +15341,9 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>203900</v>
+      </c>
       <c r="L422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15446,7 +15382,9 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>203900</v>
+      </c>
       <c r="L423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15485,7 +15423,9 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>203900</v>
+      </c>
       <c r="L424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15524,7 +15464,9 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>203900</v>
+      </c>
       <c r="L425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15563,7 +15505,9 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>203900</v>
+      </c>
       <c r="L426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15602,7 +15546,9 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>203900</v>
+      </c>
       <c r="L427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15641,7 +15587,9 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>203900</v>
+      </c>
       <c r="L428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15680,7 +15628,9 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>203900</v>
+      </c>
       <c r="L429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15719,7 +15669,9 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>203900</v>
+      </c>
       <c r="L430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15758,7 +15710,9 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>203900</v>
+      </c>
       <c r="L431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15797,7 +15751,9 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>203900</v>
+      </c>
       <c r="L432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15836,7 +15792,9 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>203900</v>
+      </c>
       <c r="L433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15875,7 +15833,9 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>203900</v>
+      </c>
       <c r="L434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15914,7 +15874,9 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>203900</v>
+      </c>
       <c r="L435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15953,7 +15915,9 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>203900</v>
+      </c>
       <c r="L436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15992,7 +15956,9 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>203900</v>
+      </c>
       <c r="L437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16031,7 +15997,9 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>203900</v>
+      </c>
       <c r="L438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16070,7 +16038,9 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>203900</v>
+      </c>
       <c r="L439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16109,7 +16079,9 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>203900</v>
+      </c>
       <c r="L440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16148,7 +16120,9 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>203900</v>
+      </c>
       <c r="L441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16187,7 +16161,9 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>203900</v>
+      </c>
       <c r="L442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16226,7 +16202,9 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>203900</v>
+      </c>
       <c r="L443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16265,7 +16243,9 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>203900</v>
+      </c>
       <c r="L444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16304,7 +16284,9 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>203900</v>
+      </c>
       <c r="L445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16343,7 +16325,9 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>203900</v>
+      </c>
       <c r="L446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16382,7 +16366,9 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>203900</v>
+      </c>
       <c r="L447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16421,7 +16407,9 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>203900</v>
+      </c>
       <c r="L448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16460,7 +16448,9 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>203900</v>
+      </c>
       <c r="L449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16499,7 +16489,9 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>203900</v>
+      </c>
       <c r="L450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16538,7 +16530,9 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>203900</v>
+      </c>
       <c r="L451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16577,7 +16571,9 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>203900</v>
+      </c>
       <c r="L452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16616,7 +16612,9 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>203900</v>
+      </c>
       <c r="L453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16655,7 +16653,9 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>203900</v>
+      </c>
       <c r="L454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16694,7 +16694,9 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>203900</v>
+      </c>
       <c r="L455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16733,7 +16735,9 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>203900</v>
+      </c>
       <c r="L456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16772,7 +16776,9 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>203900</v>
+      </c>
       <c r="L457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16811,7 +16817,9 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>203900</v>
+      </c>
       <c r="L458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16850,7 +16858,9 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>203900</v>
+      </c>
       <c r="L459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16889,7 +16899,9 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>203900</v>
+      </c>
       <c r="L460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16925,16 +16937,20 @@
         <v>0</v>
       </c>
       <c r="I461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>203900</v>
+      </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M461" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M461" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -16965,8 +16981,14 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17000,8 +17022,14 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17035,8 +17063,14 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17067,11 +17101,17 @@
         <v>0</v>
       </c>
       <c r="I465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17102,11 +17142,17 @@
         <v>0</v>
       </c>
       <c r="I466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17140,8 +17186,14 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17175,8 +17227,14 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17210,8 +17268,14 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17245,8 +17309,14 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17280,8 +17350,14 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17315,8 +17391,14 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17350,8 +17432,14 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17382,11 +17470,17 @@
         <v>0</v>
       </c>
       <c r="I474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17420,8 +17514,14 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17455,8 +17555,14 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17490,8 +17596,14 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17525,8 +17637,14 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17560,8 +17678,14 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -17595,8 +17719,14 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -17630,8 +17760,14 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -17665,8 +17801,14 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -17700,8 +17842,14 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -17735,8 +17883,14 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -17770,8 +17924,14 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -17805,8 +17965,14 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -17840,8 +18006,14 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -17875,8 +18047,14 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -17910,8 +18088,14 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -17945,8 +18129,14 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -17980,8 +18170,14 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18015,8 +18211,14 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18050,8 +18252,14 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18085,8 +18293,14 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18120,8 +18334,14 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18155,8 +18375,14 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18190,8 +18416,14 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18225,8 +18457,14 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18260,8 +18498,14 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -18295,8 +18539,14 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -18330,8 +18580,14 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -18365,8 +18621,14 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -18400,8 +18662,14 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18435,8 +18703,14 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18470,8 +18744,14 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18505,8 +18785,14 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18540,8 +18826,14 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18575,8 +18867,14 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -18610,8 +18908,14 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -18645,8 +18949,14 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -18680,8 +18990,14 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -18715,8 +19031,14 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -18750,8 +19072,14 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -18785,8 +19113,14 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -18820,8 +19154,14 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -18855,8 +19195,14 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -18890,8 +19236,14 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -18925,8 +19277,14 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -18960,8 +19318,14 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -18995,8 +19359,14 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19030,8 +19400,14 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19065,8 +19441,14 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19100,8 +19482,14 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19135,8 +19523,14 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19170,8 +19564,14 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19205,8 +19605,14 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19240,8 +19646,14 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19275,8 +19687,14 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19310,8 +19728,14 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19345,8 +19769,14 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19380,8 +19810,14 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19415,8 +19851,14 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19450,8 +19892,14 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19485,8 +19933,14 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19520,8 +19974,14 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19555,8 +20015,14 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19590,8 +20056,14 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19625,8 +20097,14 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19660,8 +20138,14 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19695,8 +20179,14 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19730,8 +20220,14 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19765,8 +20261,14 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19800,8 +20302,14 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -19835,8 +20343,14 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -19870,8 +20384,14 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -19905,8 +20425,14 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -19940,8 +20466,14 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -19975,8 +20507,14 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20010,8 +20548,14 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20045,8 +20589,14 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20080,8 +20630,14 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20115,8 +20671,14 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20150,8 +20712,14 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="K553" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20185,8 +20753,14 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="K554" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20220,8 +20794,14 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20255,8 +20835,14 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20290,8 +20876,14 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20325,8 +20917,14 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20360,8 +20958,14 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="K559" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20395,8 +20999,14 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20430,8 +21040,14 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="K561" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20465,8 +21081,14 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20500,8 +21122,14 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="K563" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20535,8 +21163,14 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="K564" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20570,8 +21204,14 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="K565" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20605,8 +21245,14 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="K566" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20640,8 +21286,14 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="K567" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20675,8 +21327,14 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="K568" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20710,8 +21368,14 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="K569" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20745,8 +21409,14 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="K570" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -20780,8 +21450,14 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="K571" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -20815,8 +21491,14 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="K572" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -20850,8 +21532,14 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="K573" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -20885,8 +21573,14 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="K574" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -20920,8 +21614,14 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="K575" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -20955,8 +21655,14 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="K576" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -20990,8 +21696,14 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="K577" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21025,8 +21737,14 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="K578" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21060,8 +21778,14 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="K579" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21095,8 +21819,14 @@
         <v>0</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="K580" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21130,8 +21860,14 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="K581" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21165,8 +21901,14 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="K582" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21200,8 +21942,14 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="K583" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21235,8 +21983,14 @@
         <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="K584" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -21270,8 +22024,14 @@
         <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="K585" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -21305,8 +22065,14 @@
         <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="K586" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -21340,8 +22106,14 @@
         <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="K587" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -21375,8 +22147,14 @@
         <v>0</v>
       </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="K588" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -21410,8 +22188,14 @@
         <v>0</v>
       </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="K589" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -21445,8 +22229,14 @@
         <v>0</v>
       </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="K590" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -21480,8 +22270,14 @@
         <v>0</v>
       </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="K591" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -21515,8 +22311,14 @@
         <v>0</v>
       </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="K592" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -21550,8 +22352,14 @@
         <v>0</v>
       </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="K593" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -21585,8 +22393,14 @@
         <v>0</v>
       </c>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="K594" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -21620,8 +22434,14 @@
         <v>0</v>
       </c>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="K595" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -21655,8 +22475,14 @@
         <v>0</v>
       </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="K596" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -21690,8 +22516,14 @@
         <v>0</v>
       </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="K597" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -21725,8 +22557,14 @@
         <v>0</v>
       </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="K598" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -21760,8 +22598,14 @@
         <v>0</v>
       </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="K599" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -21795,8 +22639,14 @@
         <v>0</v>
       </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="K600" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -21830,8 +22680,14 @@
         <v>0</v>
       </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="K601" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -21865,8 +22721,14 @@
         <v>0</v>
       </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="K602" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -21900,8 +22762,14 @@
         <v>0</v>
       </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="K603" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -21935,8 +22803,14 @@
         <v>0</v>
       </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="K604" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -21970,8 +22844,14 @@
         <v>0</v>
       </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="K605" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -22005,8 +22885,14 @@
         <v>0</v>
       </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="K606" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -22040,8 +22926,14 @@
         <v>0</v>
       </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="K607" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -22075,8 +22967,14 @@
         <v>0</v>
       </c>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="K608" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -22110,8 +23008,14 @@
         <v>0</v>
       </c>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="K609" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -22145,8 +23049,14 @@
         <v>0</v>
       </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="K610" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -22180,8 +23090,14 @@
         <v>0</v>
       </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="K611" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -22215,8 +23131,14 @@
         <v>0</v>
       </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="K612" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -22250,8 +23172,14 @@
         <v>0</v>
       </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="K613" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -22285,8 +23213,14 @@
         <v>0</v>
       </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="K614" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -22320,8 +23254,14 @@
         <v>0</v>
       </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="K615" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -22355,8 +23295,14 @@
         <v>0</v>
       </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="K616" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -22390,8 +23336,14 @@
         <v>0</v>
       </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="K617" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -22425,8 +23377,14 @@
         <v>0</v>
       </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="K618" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -22460,8 +23418,14 @@
         <v>0</v>
       </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="K619" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -22495,8 +23459,14 @@
         <v>0</v>
       </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="K620" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -22530,8 +23500,14 @@
         <v>0</v>
       </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="K621" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -22565,8 +23541,14 @@
         <v>0</v>
       </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="K622" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -22600,8 +23582,14 @@
         <v>0</v>
       </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="K623" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -22635,8 +23623,14 @@
         <v>0</v>
       </c>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="K624" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -22670,8 +23664,14 @@
         <v>0</v>
       </c>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="K625" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -22705,8 +23705,14 @@
         <v>0</v>
       </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="K626" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -22740,8 +23746,14 @@
         <v>0</v>
       </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="K627" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -22775,8 +23787,14 @@
         <v>0</v>
       </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="K628" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -22810,8 +23828,14 @@
         <v>0</v>
       </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="K629" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -22845,8 +23869,14 @@
         <v>0</v>
       </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="K630" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -22880,8 +23910,14 @@
         <v>0</v>
       </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="K631" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -22915,8 +23951,14 @@
         <v>0</v>
       </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="K632" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -22950,8 +23992,14 @@
         <v>0</v>
       </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="K633" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -22985,8 +24033,14 @@
         <v>0</v>
       </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="K634" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -23020,8 +24074,14 @@
         <v>0</v>
       </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="K635" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23055,8 +24115,14 @@
         <v>0</v>
       </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="K636" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23090,8 +24156,14 @@
         <v>0</v>
       </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="K637" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23125,8 +24197,14 @@
         <v>0</v>
       </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="K638" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -23160,8 +24238,14 @@
         <v>0</v>
       </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="K639" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -23195,8 +24279,14 @@
         <v>0</v>
       </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="K640" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -23230,8 +24320,14 @@
         <v>0</v>
       </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="K641" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -23265,8 +24361,14 @@
         <v>0</v>
       </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="K642" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -23300,8 +24402,14 @@
         <v>0</v>
       </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="K643" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -23335,8 +24443,14 @@
         <v>0</v>
       </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="K644" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -23370,8 +24484,14 @@
         <v>0</v>
       </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="K645" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -23405,8 +24525,14 @@
         <v>0</v>
       </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="K646" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -23440,8 +24566,14 @@
         <v>0</v>
       </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr"/>
+      <c r="K647" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -23475,8 +24607,14 @@
         <v>0</v>
       </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
+      <c r="K648" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -23510,8 +24648,14 @@
         <v>0</v>
       </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="K649" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -23545,8 +24689,14 @@
         <v>0</v>
       </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr"/>
+      <c r="K650" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -23580,8 +24730,14 @@
         <v>0</v>
       </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr"/>
+      <c r="K651" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -23615,8 +24771,14 @@
         <v>0</v>
       </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr"/>
+      <c r="K652" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -23650,8 +24812,14 @@
         <v>0</v>
       </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr"/>
+      <c r="K653" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -23685,8 +24853,14 @@
         <v>0</v>
       </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr"/>
+      <c r="K654" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -23720,8 +24894,14 @@
         <v>0</v>
       </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr"/>
+      <c r="K655" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -23755,8 +24935,14 @@
         <v>0</v>
       </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr"/>
+      <c r="K656" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -23790,8 +24976,14 @@
         <v>0</v>
       </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
+      <c r="K657" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -23825,8 +25017,14 @@
         <v>0</v>
       </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr"/>
+      <c r="K658" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -23860,8 +25058,14 @@
         <v>0</v>
       </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr"/>
+      <c r="K659" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -23895,8 +25099,14 @@
         <v>0</v>
       </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr"/>
+      <c r="K660" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -23930,8 +25140,14 @@
         <v>0</v>
       </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
+      <c r="K661" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -23965,8 +25181,14 @@
         <v>0</v>
       </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
+      <c r="K662" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -24000,8 +25222,14 @@
         <v>0</v>
       </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
+      <c r="K663" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -24035,8 +25263,14 @@
         <v>0</v>
       </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
+      <c r="K664" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -24070,8 +25304,14 @@
         <v>0</v>
       </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
+      <c r="K665" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -24105,8 +25345,14 @@
         <v>0</v>
       </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr"/>
+      <c r="K666" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -24140,8 +25386,14 @@
         <v>0</v>
       </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="K667" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -24175,8 +25427,14 @@
         <v>0</v>
       </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
+      <c r="K668" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -24210,8 +25468,14 @@
         <v>0</v>
       </c>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr"/>
+      <c r="K669" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -24245,8 +25509,14 @@
         <v>0</v>
       </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr"/>
+      <c r="K670" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -24280,8 +25550,14 @@
         <v>0</v>
       </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="K671" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -24315,8 +25591,14 @@
         <v>0</v>
       </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="K672" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -24350,8 +25632,14 @@
         <v>0</v>
       </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="K673" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -24385,8 +25673,14 @@
         <v>0</v>
       </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="K674" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -24420,8 +25714,14 @@
         <v>0</v>
       </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="K675" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -24455,8 +25755,14 @@
         <v>0</v>
       </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="K676" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -24490,8 +25796,14 @@
         <v>0</v>
       </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="K677" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -24525,8 +25837,14 @@
         <v>0</v>
       </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="K678" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -24560,8 +25878,14 @@
         <v>0</v>
       </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="K679" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -24595,8 +25919,14 @@
         <v>0</v>
       </c>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="K680" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -24630,8 +25960,14 @@
         <v>0</v>
       </c>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="K681" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -24665,8 +26001,14 @@
         <v>0</v>
       </c>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="K682" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -24700,8 +26042,14 @@
         <v>0</v>
       </c>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="K683" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -24735,8 +26083,14 @@
         <v>0</v>
       </c>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="K684" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -24770,8 +26124,14 @@
         <v>0</v>
       </c>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="K685" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -24805,8 +26165,14 @@
         <v>0</v>
       </c>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="K686" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -24840,8 +26206,14 @@
         <v>0</v>
       </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="K687" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -24875,8 +26247,14 @@
         <v>0</v>
       </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="K688" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -24910,8 +26288,14 @@
         <v>0</v>
       </c>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="K689" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -24945,8 +26329,14 @@
         <v>0</v>
       </c>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="K690" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -24980,8 +26370,14 @@
         <v>0</v>
       </c>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="K691" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -25015,8 +26411,14 @@
         <v>0</v>
       </c>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="K692" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -25050,8 +26452,14 @@
         <v>0</v>
       </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="K693" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -25085,8 +26493,14 @@
         <v>0</v>
       </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="K694" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -25120,8 +26534,14 @@
         <v>0</v>
       </c>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="K695" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -25155,8 +26575,14 @@
         <v>0</v>
       </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="K696" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -25190,8 +26616,14 @@
         <v>0</v>
       </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr"/>
+      <c r="K697" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -25225,8 +26657,14 @@
         <v>0</v>
       </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr"/>
+      <c r="K698" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -25260,8 +26698,14 @@
         <v>0</v>
       </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="K699" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -25295,8 +26739,14 @@
         <v>0</v>
       </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr"/>
+      <c r="K700" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -25330,8 +26780,14 @@
         <v>0</v>
       </c>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
+      <c r="K701" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -25365,8 +26821,14 @@
         <v>0</v>
       </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
+      <c r="K702" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -25400,8 +26862,14 @@
         <v>0</v>
       </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr"/>
+      <c r="K703" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -25435,8 +26903,14 @@
         <v>0</v>
       </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr"/>
+      <c r="K704" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -25470,8 +26944,14 @@
         <v>0</v>
       </c>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr"/>
+      <c r="K705" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -25505,8 +26985,14 @@
         <v>0</v>
       </c>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr"/>
+      <c r="K706" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -25540,8 +27026,14 @@
         <v>0</v>
       </c>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr"/>
+      <c r="K707" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -25575,8 +27067,14 @@
         <v>0</v>
       </c>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr"/>
+      <c r="K708" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -25610,8 +27108,14 @@
         <v>0</v>
       </c>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
+      <c r="K709" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -25645,8 +27149,14 @@
         <v>0</v>
       </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr"/>
+      <c r="K710" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -25680,8 +27190,14 @@
         <v>0</v>
       </c>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
+      <c r="K711" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -25715,8 +27231,14 @@
         <v>0</v>
       </c>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr"/>
+      <c r="K712" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -25750,8 +27272,14 @@
         <v>0</v>
       </c>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr"/>
+      <c r="K713" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -25785,8 +27313,14 @@
         <v>0</v>
       </c>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr"/>
+      <c r="K714" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -25820,8 +27354,14 @@
         <v>0</v>
       </c>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr"/>
+      <c r="K715" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -25855,8 +27395,14 @@
         <v>0</v>
       </c>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr"/>
+      <c r="K716" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -25890,8 +27436,14 @@
         <v>0</v>
       </c>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr"/>
+      <c r="K717" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -25925,8 +27477,14 @@
         <v>0</v>
       </c>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr"/>
+      <c r="K718" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -25960,8 +27518,14 @@
         <v>0</v>
       </c>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr"/>
+      <c r="K719" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -25995,8 +27559,14 @@
         <v>0</v>
       </c>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr"/>
+      <c r="K720" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -26030,8 +27600,14 @@
         <v>0</v>
       </c>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr"/>
+      <c r="K721" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -26065,8 +27641,14 @@
         <v>0</v>
       </c>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr"/>
+      <c r="K722" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -26100,8 +27682,14 @@
         <v>0</v>
       </c>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr"/>
+      <c r="K723" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -26135,8 +27723,14 @@
         <v>0</v>
       </c>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr"/>
+      <c r="K724" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -26170,8 +27764,14 @@
         <v>0</v>
       </c>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr"/>
+      <c r="K725" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -26205,8 +27805,14 @@
         <v>0</v>
       </c>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr"/>
+      <c r="K726" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -26240,8 +27846,14 @@
         <v>0</v>
       </c>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr"/>
+      <c r="K727" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -26275,8 +27887,14 @@
         <v>0</v>
       </c>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr"/>
+      <c r="K728" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -26310,8 +27928,14 @@
         <v>0</v>
       </c>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr"/>
+      <c r="K729" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -26345,8 +27969,14 @@
         <v>0</v>
       </c>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr"/>
+      <c r="K730" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -26380,8 +28010,14 @@
         <v>0</v>
       </c>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr"/>
+      <c r="K731" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -26415,8 +28051,14 @@
         <v>0</v>
       </c>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr"/>
+      <c r="K732" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -26450,8 +28092,14 @@
         <v>0</v>
       </c>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr"/>
+      <c r="K733" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -26485,8 +28133,14 @@
         <v>0</v>
       </c>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr"/>
+      <c r="K734" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -26520,8 +28174,14 @@
         <v>0</v>
       </c>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr"/>
+      <c r="K735" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -26555,8 +28215,14 @@
         <v>0</v>
       </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr"/>
+      <c r="K736" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -26590,8 +28256,14 @@
         <v>0</v>
       </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr"/>
+      <c r="K737" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -26625,8 +28297,14 @@
         <v>0</v>
       </c>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr"/>
+      <c r="K738" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -26660,8 +28338,14 @@
         <v>0</v>
       </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr"/>
+      <c r="K739" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -26695,8 +28379,14 @@
         <v>0</v>
       </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr"/>
+      <c r="K740" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -26730,8 +28420,14 @@
         <v>0</v>
       </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr"/>
+      <c r="K741" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -26765,8 +28461,14 @@
         <v>0</v>
       </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr"/>
+      <c r="K742" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -26800,8 +28502,14 @@
         <v>0</v>
       </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr"/>
+      <c r="K743" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -26835,8 +28543,14 @@
         <v>0</v>
       </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr"/>
+      <c r="K744" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -26870,8 +28584,14 @@
         <v>0</v>
       </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr"/>
+      <c r="K745" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -26905,8 +28625,14 @@
         <v>0</v>
       </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr"/>
+      <c r="K746" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -26940,8 +28666,14 @@
         <v>0</v>
       </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr"/>
+      <c r="K747" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -26975,8 +28707,14 @@
         <v>0</v>
       </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr"/>
+      <c r="K748" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -27010,8 +28748,14 @@
         <v>0</v>
       </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr"/>
+      <c r="K749" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -27045,8 +28789,14 @@
         <v>0</v>
       </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr"/>
+      <c r="K750" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -27080,8 +28830,14 @@
         <v>0</v>
       </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr"/>
+      <c r="K751" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -27115,8 +28871,14 @@
         <v>0</v>
       </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr"/>
+      <c r="K752" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -27150,8 +28912,14 @@
         <v>0</v>
       </c>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr"/>
+      <c r="K753" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -27185,8 +28953,14 @@
         <v>0</v>
       </c>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr"/>
+      <c r="K754" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -27220,8 +28994,14 @@
         <v>0</v>
       </c>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr"/>
+      <c r="K755" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -27255,8 +29035,14 @@
         <v>0</v>
       </c>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr"/>
+      <c r="K756" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -27290,8 +29076,14 @@
         <v>0</v>
       </c>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr"/>
+      <c r="K757" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -27325,8 +29117,14 @@
         <v>0</v>
       </c>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr"/>
+      <c r="K758" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -27360,8 +29158,14 @@
         <v>0</v>
       </c>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr"/>
+      <c r="K759" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -27395,8 +29199,14 @@
         <v>0</v>
       </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr"/>
+      <c r="K760" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -27430,8 +29240,14 @@
         <v>0</v>
       </c>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr"/>
+      <c r="K761" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -27465,8 +29281,14 @@
         <v>0</v>
       </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr"/>
+      <c r="K762" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -27500,8 +29322,14 @@
         <v>0</v>
       </c>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr"/>
+      <c r="K763" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -27535,8 +29363,14 @@
         <v>0</v>
       </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr"/>
+      <c r="K764" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M764" t="n">
         <v>1</v>
       </c>
@@ -27570,8 +29404,14 @@
         <v>0</v>
       </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr"/>
+      <c r="K765" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M765" t="n">
         <v>1</v>
       </c>
@@ -27605,8 +29445,14 @@
         <v>0</v>
       </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
-      <c r="L766" t="inlineStr"/>
+      <c r="K766" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M766" t="n">
         <v>1</v>
       </c>
@@ -27640,8 +29486,14 @@
         <v>0</v>
       </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
-      <c r="L767" t="inlineStr"/>
+      <c r="K767" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M767" t="n">
         <v>1</v>
       </c>
@@ -27675,8 +29527,14 @@
         <v>0</v>
       </c>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
-      <c r="L768" t="inlineStr"/>
+      <c r="K768" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M768" t="n">
         <v>1</v>
       </c>
@@ -27710,8 +29568,14 @@
         <v>0</v>
       </c>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
-      <c r="L769" t="inlineStr"/>
+      <c r="K769" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M769" t="n">
         <v>1</v>
       </c>
@@ -27745,8 +29609,14 @@
         <v>0</v>
       </c>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr"/>
+      <c r="K770" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M770" t="n">
         <v>1</v>
       </c>
@@ -27780,8 +29650,14 @@
         <v>0</v>
       </c>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
-      <c r="L771" t="inlineStr"/>
+      <c r="K771" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M771" t="n">
         <v>1</v>
       </c>
@@ -27815,8 +29691,14 @@
         <v>0</v>
       </c>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
-      <c r="L772" t="inlineStr"/>
+      <c r="K772" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M772" t="n">
         <v>1</v>
       </c>
@@ -27850,8 +29732,14 @@
         <v>0</v>
       </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
-      <c r="L773" t="inlineStr"/>
+      <c r="K773" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M773" t="n">
         <v>1</v>
       </c>
@@ -27885,8 +29773,14 @@
         <v>0</v>
       </c>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
-      <c r="L774" t="inlineStr"/>
+      <c r="K774" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M774" t="n">
         <v>1</v>
       </c>
@@ -27920,8 +29814,14 @@
         <v>0</v>
       </c>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
-      <c r="L775" t="inlineStr"/>
+      <c r="K775" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M775" t="n">
         <v>1</v>
       </c>
@@ -27955,8 +29855,14 @@
         <v>0</v>
       </c>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
-      <c r="L776" t="inlineStr"/>
+      <c r="K776" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M776" t="n">
         <v>1</v>
       </c>
@@ -27990,8 +29896,14 @@
         <v>0</v>
       </c>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
-      <c r="L777" t="inlineStr"/>
+      <c r="K777" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M777" t="n">
         <v>1</v>
       </c>
@@ -28025,8 +29937,14 @@
         <v>0</v>
       </c>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
-      <c r="L778" t="inlineStr"/>
+      <c r="K778" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M778" t="n">
         <v>1</v>
       </c>
@@ -28060,8 +29978,14 @@
         <v>0</v>
       </c>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
-      <c r="L779" t="inlineStr"/>
+      <c r="K779" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M779" t="n">
         <v>1</v>
       </c>
@@ -28095,8 +30019,14 @@
         <v>0</v>
       </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
-      <c r="L780" t="inlineStr"/>
+      <c r="K780" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M780" t="n">
         <v>1</v>
       </c>
@@ -28130,8 +30060,14 @@
         <v>0</v>
       </c>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
-      <c r="L781" t="inlineStr"/>
+      <c r="K781" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M781" t="n">
         <v>1</v>
       </c>
@@ -28165,8 +30101,14 @@
         <v>0</v>
       </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
-      <c r="L782" t="inlineStr"/>
+      <c r="K782" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M782" t="n">
         <v>1</v>
       </c>
@@ -28200,8 +30142,14 @@
         <v>0</v>
       </c>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
-      <c r="L783" t="inlineStr"/>
+      <c r="K783" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M783" t="n">
         <v>1</v>
       </c>
@@ -28235,8 +30183,14 @@
         <v>0</v>
       </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
-      <c r="L784" t="inlineStr"/>
+      <c r="K784" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M784" t="n">
         <v>1</v>
       </c>
@@ -28270,8 +30224,14 @@
         <v>0</v>
       </c>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
-      <c r="L785" t="inlineStr"/>
+      <c r="K785" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M785" t="n">
         <v>1</v>
       </c>
@@ -28305,8 +30265,14 @@
         <v>0</v>
       </c>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
-      <c r="L786" t="inlineStr"/>
+      <c r="K786" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M786" t="n">
         <v>1</v>
       </c>
@@ -28340,8 +30306,14 @@
         <v>0</v>
       </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
-      <c r="L787" t="inlineStr"/>
+      <c r="K787" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M787" t="n">
         <v>1</v>
       </c>
@@ -28375,8 +30347,14 @@
         <v>0</v>
       </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
-      <c r="L788" t="inlineStr"/>
+      <c r="K788" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M788" t="n">
         <v>1</v>
       </c>
@@ -28410,8 +30388,14 @@
         <v>0</v>
       </c>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
-      <c r="L789" t="inlineStr"/>
+      <c r="K789" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M789" t="n">
         <v>1</v>
       </c>
@@ -28445,8 +30429,14 @@
         <v>0</v>
       </c>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
-      <c r="L790" t="inlineStr"/>
+      <c r="K790" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M790" t="n">
         <v>1</v>
       </c>
@@ -28480,8 +30470,14 @@
         <v>0</v>
       </c>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
-      <c r="L791" t="inlineStr"/>
+      <c r="K791" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M791" t="n">
         <v>1</v>
       </c>
@@ -28515,8 +30511,14 @@
         <v>0</v>
       </c>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
-      <c r="L792" t="inlineStr"/>
+      <c r="K792" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M792" t="n">
         <v>1</v>
       </c>
@@ -28550,8 +30552,14 @@
         <v>0</v>
       </c>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
-      <c r="L793" t="inlineStr"/>
+      <c r="K793" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M793" t="n">
         <v>1</v>
       </c>
@@ -28585,8 +30593,14 @@
         <v>0</v>
       </c>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
-      <c r="L794" t="inlineStr"/>
+      <c r="K794" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M794" t="n">
         <v>1</v>
       </c>
@@ -28620,8 +30634,14 @@
         <v>0</v>
       </c>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
-      <c r="L795" t="inlineStr"/>
+      <c r="K795" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M795" t="n">
         <v>1</v>
       </c>
@@ -28655,8 +30675,14 @@
         <v>0</v>
       </c>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
-      <c r="L796" t="inlineStr"/>
+      <c r="K796" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M796" t="n">
         <v>1</v>
       </c>
@@ -28690,8 +30716,14 @@
         <v>0</v>
       </c>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
-      <c r="L797" t="inlineStr"/>
+      <c r="K797" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M797" t="n">
         <v>1</v>
       </c>
@@ -28725,8 +30757,14 @@
         <v>0</v>
       </c>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
-      <c r="L798" t="inlineStr"/>
+      <c r="K798" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M798" t="n">
         <v>1</v>
       </c>
@@ -28760,8 +30798,14 @@
         <v>0</v>
       </c>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
-      <c r="L799" t="inlineStr"/>
+      <c r="K799" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M799" t="n">
         <v>1</v>
       </c>
@@ -28795,8 +30839,14 @@
         <v>0</v>
       </c>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
-      <c r="L800" t="inlineStr"/>
+      <c r="K800" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M800" t="n">
         <v>1</v>
       </c>
@@ -28830,8 +30880,14 @@
         <v>0</v>
       </c>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
-      <c r="L801" t="inlineStr"/>
+      <c r="K801" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M801" t="n">
         <v>1</v>
       </c>
@@ -28865,8 +30921,14 @@
         <v>0</v>
       </c>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
-      <c r="L802" t="inlineStr"/>
+      <c r="K802" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M802" t="n">
         <v>1</v>
       </c>
@@ -28900,8 +30962,14 @@
         <v>0</v>
       </c>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
-      <c r="L803" t="inlineStr"/>
+      <c r="K803" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M803" t="n">
         <v>1</v>
       </c>
@@ -28935,8 +31003,14 @@
         <v>0</v>
       </c>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
-      <c r="L804" t="inlineStr"/>
+      <c r="K804" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M804" t="n">
         <v>1</v>
       </c>
@@ -28970,8 +31044,14 @@
         <v>0</v>
       </c>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
-      <c r="L805" t="inlineStr"/>
+      <c r="K805" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M805" t="n">
         <v>1</v>
       </c>
@@ -29005,8 +31085,14 @@
         <v>0</v>
       </c>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
-      <c r="L806" t="inlineStr"/>
+      <c r="K806" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M806" t="n">
         <v>1</v>
       </c>
@@ -29040,8 +31126,14 @@
         <v>0</v>
       </c>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
-      <c r="L807" t="inlineStr"/>
+      <c r="K807" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M807" t="n">
         <v>1</v>
       </c>
@@ -29075,8 +31167,14 @@
         <v>0</v>
       </c>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
-      <c r="L808" t="inlineStr"/>
+      <c r="K808" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M808" t="n">
         <v>1</v>
       </c>
@@ -29110,8 +31208,14 @@
         <v>0</v>
       </c>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
-      <c r="L809" t="inlineStr"/>
+      <c r="K809" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M809" t="n">
         <v>1</v>
       </c>
@@ -29145,8 +31249,14 @@
         <v>0</v>
       </c>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
-      <c r="L810" t="inlineStr"/>
+      <c r="K810" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M810" t="n">
         <v>1</v>
       </c>
@@ -29180,8 +31290,14 @@
         <v>0</v>
       </c>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
-      <c r="L811" t="inlineStr"/>
+      <c r="K811" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M811" t="n">
         <v>1</v>
       </c>
@@ -29215,8 +31331,14 @@
         <v>0</v>
       </c>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
-      <c r="L812" t="inlineStr"/>
+      <c r="K812" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M812" t="n">
         <v>1</v>
       </c>
@@ -29250,8 +31372,14 @@
         <v>0</v>
       </c>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
-      <c r="L813" t="inlineStr"/>
+      <c r="K813" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M813" t="n">
         <v>1</v>
       </c>
@@ -29285,8 +31413,14 @@
         <v>0</v>
       </c>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
-      <c r="L814" t="inlineStr"/>
+      <c r="K814" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M814" t="n">
         <v>1</v>
       </c>
@@ -29320,8 +31454,14 @@
         <v>0</v>
       </c>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
-      <c r="L815" t="inlineStr"/>
+      <c r="K815" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M815" t="n">
         <v>1</v>
       </c>
@@ -29355,8 +31495,14 @@
         <v>0</v>
       </c>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
-      <c r="L816" t="inlineStr"/>
+      <c r="K816" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M816" t="n">
         <v>1</v>
       </c>
@@ -29390,8 +31536,14 @@
         <v>0</v>
       </c>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
-      <c r="L817" t="inlineStr"/>
+      <c r="K817" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M817" t="n">
         <v>1</v>
       </c>
@@ -29425,8 +31577,14 @@
         <v>0</v>
       </c>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
-      <c r="L818" t="inlineStr"/>
+      <c r="K818" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M818" t="n">
         <v>1</v>
       </c>
@@ -29460,8 +31618,14 @@
         <v>0</v>
       </c>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
-      <c r="L819" t="inlineStr"/>
+      <c r="K819" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M819" t="n">
         <v>1</v>
       </c>
@@ -29495,8 +31659,14 @@
         <v>0</v>
       </c>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
-      <c r="L820" t="inlineStr"/>
+      <c r="K820" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M820" t="n">
         <v>1</v>
       </c>
@@ -29530,8 +31700,14 @@
         <v>0</v>
       </c>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
-      <c r="L821" t="inlineStr"/>
+      <c r="K821" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M821" t="n">
         <v>1</v>
       </c>
@@ -29565,8 +31741,14 @@
         <v>0</v>
       </c>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
-      <c r="L822" t="inlineStr"/>
+      <c r="K822" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M822" t="n">
         <v>1</v>
       </c>
@@ -29600,8 +31782,14 @@
         <v>0</v>
       </c>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
-      <c r="L823" t="inlineStr"/>
+      <c r="K823" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M823" t="n">
         <v>1</v>
       </c>
@@ -29635,8 +31823,14 @@
         <v>0</v>
       </c>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
-      <c r="L824" t="inlineStr"/>
+      <c r="K824" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M824" t="n">
         <v>1</v>
       </c>
@@ -29670,8 +31864,14 @@
         <v>0</v>
       </c>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
-      <c r="L825" t="inlineStr"/>
+      <c r="K825" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M825" t="n">
         <v>1</v>
       </c>
@@ -29705,8 +31905,14 @@
         <v>0</v>
       </c>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
-      <c r="L826" t="inlineStr"/>
+      <c r="K826" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M826" t="n">
         <v>1</v>
       </c>
@@ -29740,8 +31946,14 @@
         <v>0</v>
       </c>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
-      <c r="L827" t="inlineStr"/>
+      <c r="K827" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M827" t="n">
         <v>1</v>
       </c>
@@ -29775,8 +31987,14 @@
         <v>0</v>
       </c>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
-      <c r="L828" t="inlineStr"/>
+      <c r="K828" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M828" t="n">
         <v>1</v>
       </c>
@@ -29810,8 +32028,14 @@
         <v>0</v>
       </c>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
-      <c r="L829" t="inlineStr"/>
+      <c r="K829" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M829" t="n">
         <v>1</v>
       </c>
@@ -29845,8 +32069,14 @@
         <v>0</v>
       </c>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
-      <c r="L830" t="inlineStr"/>
+      <c r="K830" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M830" t="n">
         <v>1</v>
       </c>
@@ -29880,8 +32110,14 @@
         <v>0</v>
       </c>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
-      <c r="L831" t="inlineStr"/>
+      <c r="K831" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M831" t="n">
         <v>1</v>
       </c>
@@ -29915,8 +32151,14 @@
         <v>0</v>
       </c>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
-      <c r="L832" t="inlineStr"/>
+      <c r="K832" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M832" t="n">
         <v>1</v>
       </c>
@@ -29950,8 +32192,14 @@
         <v>0</v>
       </c>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
-      <c r="L833" t="inlineStr"/>
+      <c r="K833" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M833" t="n">
         <v>1</v>
       </c>
@@ -29985,8 +32233,14 @@
         <v>0</v>
       </c>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
-      <c r="L834" t="inlineStr"/>
+      <c r="K834" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M834" t="n">
         <v>1</v>
       </c>
@@ -30020,8 +32274,14 @@
         <v>0</v>
       </c>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
-      <c r="L835" t="inlineStr"/>
+      <c r="K835" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M835" t="n">
         <v>1</v>
       </c>
@@ -30055,8 +32315,14 @@
         <v>0</v>
       </c>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
-      <c r="L836" t="inlineStr"/>
+      <c r="K836" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M836" t="n">
         <v>1</v>
       </c>
@@ -30090,8 +32356,14 @@
         <v>0</v>
       </c>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
-      <c r="L837" t="inlineStr"/>
+      <c r="K837" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M837" t="n">
         <v>1</v>
       </c>
@@ -30125,8 +32397,14 @@
         <v>0</v>
       </c>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
-      <c r="L838" t="inlineStr"/>
+      <c r="K838" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M838" t="n">
         <v>1</v>
       </c>
@@ -30160,8 +32438,14 @@
         <v>0</v>
       </c>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
-      <c r="L839" t="inlineStr"/>
+      <c r="K839" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M839" t="n">
         <v>1</v>
       </c>
@@ -30195,8 +32479,14 @@
         <v>0</v>
       </c>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
-      <c r="L840" t="inlineStr"/>
+      <c r="K840" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M840" t="n">
         <v>1</v>
       </c>
@@ -30230,8 +32520,14 @@
         <v>0</v>
       </c>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
-      <c r="L841" t="inlineStr"/>
+      <c r="K841" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M841" t="n">
         <v>1</v>
       </c>
@@ -30265,8 +32561,14 @@
         <v>0</v>
       </c>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
-      <c r="L842" t="inlineStr"/>
+      <c r="K842" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M842" t="n">
         <v>1</v>
       </c>
@@ -30300,8 +32602,14 @@
         <v>0</v>
       </c>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
-      <c r="L843" t="inlineStr"/>
+      <c r="K843" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M843" t="n">
         <v>1</v>
       </c>
@@ -30335,8 +32643,14 @@
         <v>0</v>
       </c>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
-      <c r="L844" t="inlineStr"/>
+      <c r="K844" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M844" t="n">
         <v>1</v>
       </c>
@@ -30370,8 +32684,14 @@
         <v>0</v>
       </c>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
-      <c r="L845" t="inlineStr"/>
+      <c r="K845" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M845" t="n">
         <v>1</v>
       </c>
@@ -30405,8 +32725,14 @@
         <v>0</v>
       </c>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
-      <c r="L846" t="inlineStr"/>
+      <c r="K846" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M846" t="n">
         <v>1</v>
       </c>
@@ -30440,8 +32766,14 @@
         <v>0</v>
       </c>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
-      <c r="L847" t="inlineStr"/>
+      <c r="K847" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M847" t="n">
         <v>1</v>
       </c>
@@ -30475,8 +32807,14 @@
         <v>0</v>
       </c>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
-      <c r="L848" t="inlineStr"/>
+      <c r="K848" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M848" t="n">
         <v>1</v>
       </c>
@@ -30510,8 +32848,14 @@
         <v>0</v>
       </c>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
-      <c r="L849" t="inlineStr"/>
+      <c r="K849" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M849" t="n">
         <v>1</v>
       </c>
@@ -30545,8 +32889,14 @@
         <v>0</v>
       </c>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
-      <c r="L850" t="inlineStr"/>
+      <c r="K850" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M850" t="n">
         <v>1</v>
       </c>
@@ -30580,8 +32930,14 @@
         <v>0</v>
       </c>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
-      <c r="L851" t="inlineStr"/>
+      <c r="K851" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M851" t="n">
         <v>1</v>
       </c>
@@ -30615,8 +32971,14 @@
         <v>0</v>
       </c>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
-      <c r="L852" t="inlineStr"/>
+      <c r="K852" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M852" t="n">
         <v>1</v>
       </c>
@@ -30650,8 +33012,14 @@
         <v>0</v>
       </c>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
-      <c r="L853" t="inlineStr"/>
+      <c r="K853" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M853" t="n">
         <v>1</v>
       </c>
@@ -30685,8 +33053,14 @@
         <v>0</v>
       </c>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
-      <c r="L854" t="inlineStr"/>
+      <c r="K854" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M854" t="n">
         <v>1</v>
       </c>
@@ -30720,8 +33094,14 @@
         <v>0</v>
       </c>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
-      <c r="L855" t="inlineStr"/>
+      <c r="K855" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M855" t="n">
         <v>1</v>
       </c>
@@ -30755,8 +33135,14 @@
         <v>0</v>
       </c>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
-      <c r="L856" t="inlineStr"/>
+      <c r="K856" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M856" t="n">
         <v>1</v>
       </c>
@@ -30790,8 +33176,14 @@
         <v>0</v>
       </c>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
-      <c r="L857" t="inlineStr"/>
+      <c r="K857" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M857" t="n">
         <v>1</v>
       </c>
@@ -30825,8 +33217,14 @@
         <v>0</v>
       </c>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
-      <c r="L858" t="inlineStr"/>
+      <c r="K858" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M858" t="n">
         <v>1</v>
       </c>
@@ -30860,8 +33258,14 @@
         <v>0</v>
       </c>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
-      <c r="L859" t="inlineStr"/>
+      <c r="K859" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M859" t="n">
         <v>1</v>
       </c>
@@ -30895,8 +33299,14 @@
         <v>0</v>
       </c>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
-      <c r="L860" t="inlineStr"/>
+      <c r="K860" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M860" t="n">
         <v>1</v>
       </c>
@@ -30930,8 +33340,14 @@
         <v>0</v>
       </c>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
-      <c r="L861" t="inlineStr"/>
+      <c r="K861" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M861" t="n">
         <v>1</v>
       </c>
@@ -30965,8 +33381,14 @@
         <v>0</v>
       </c>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
-      <c r="L862" t="inlineStr"/>
+      <c r="K862" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M862" t="n">
         <v>1</v>
       </c>
@@ -31000,8 +33422,14 @@
         <v>0</v>
       </c>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
-      <c r="L863" t="inlineStr"/>
+      <c r="K863" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M863" t="n">
         <v>1</v>
       </c>
@@ -31035,8 +33463,14 @@
         <v>0</v>
       </c>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
-      <c r="L864" t="inlineStr"/>
+      <c r="K864" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M864" t="n">
         <v>1</v>
       </c>
@@ -31070,8 +33504,14 @@
         <v>0</v>
       </c>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
-      <c r="L865" t="inlineStr"/>
+      <c r="K865" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M865" t="n">
         <v>1</v>
       </c>
@@ -31105,8 +33545,14 @@
         <v>0</v>
       </c>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
-      <c r="L866" t="inlineStr"/>
+      <c r="K866" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M866" t="n">
         <v>1</v>
       </c>
@@ -31140,8 +33586,14 @@
         <v>0</v>
       </c>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
-      <c r="L867" t="inlineStr"/>
+      <c r="K867" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M867" t="n">
         <v>1</v>
       </c>
@@ -31175,8 +33627,14 @@
         <v>0</v>
       </c>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
-      <c r="L868" t="inlineStr"/>
+      <c r="K868" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M868" t="n">
         <v>1</v>
       </c>
@@ -31210,8 +33668,14 @@
         <v>0</v>
       </c>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
-      <c r="L869" t="inlineStr"/>
+      <c r="K869" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M869" t="n">
         <v>1</v>
       </c>
@@ -31245,8 +33709,14 @@
         <v>0</v>
       </c>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
-      <c r="L870" t="inlineStr"/>
+      <c r="K870" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M870" t="n">
         <v>1</v>
       </c>
@@ -31280,8 +33750,14 @@
         <v>0</v>
       </c>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
-      <c r="L871" t="inlineStr"/>
+      <c r="K871" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M871" t="n">
         <v>1</v>
       </c>
@@ -31315,8 +33791,14 @@
         <v>0</v>
       </c>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
-      <c r="L872" t="inlineStr"/>
+      <c r="K872" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M872" t="n">
         <v>1</v>
       </c>
@@ -31350,8 +33832,14 @@
         <v>0</v>
       </c>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
-      <c r="L873" t="inlineStr"/>
+      <c r="K873" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M873" t="n">
         <v>1</v>
       </c>
@@ -31385,8 +33873,14 @@
         <v>0</v>
       </c>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
-      <c r="L874" t="inlineStr"/>
+      <c r="K874" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M874" t="n">
         <v>1</v>
       </c>
@@ -31420,8 +33914,14 @@
         <v>0</v>
       </c>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
-      <c r="L875" t="inlineStr"/>
+      <c r="K875" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M875" t="n">
         <v>1</v>
       </c>
@@ -31455,8 +33955,14 @@
         <v>0</v>
       </c>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
-      <c r="L876" t="inlineStr"/>
+      <c r="K876" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M876" t="n">
         <v>1</v>
       </c>
@@ -31490,8 +33996,14 @@
         <v>0</v>
       </c>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
-      <c r="L877" t="inlineStr"/>
+      <c r="K877" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M877" t="n">
         <v>1</v>
       </c>
@@ -31525,8 +34037,14 @@
         <v>0</v>
       </c>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
-      <c r="L878" t="inlineStr"/>
+      <c r="K878" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M878" t="n">
         <v>1</v>
       </c>
@@ -31560,8 +34078,14 @@
         <v>0</v>
       </c>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
-      <c r="L879" t="inlineStr"/>
+      <c r="K879" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M879" t="n">
         <v>1</v>
       </c>
@@ -31595,8 +34119,14 @@
         <v>0</v>
       </c>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
-      <c r="L880" t="inlineStr"/>
+      <c r="K880" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M880" t="n">
         <v>1</v>
       </c>
@@ -31630,8 +34160,14 @@
         <v>0</v>
       </c>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
-      <c r="L881" t="inlineStr"/>
+      <c r="K881" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M881" t="n">
         <v>1</v>
       </c>
@@ -31665,8 +34201,14 @@
         <v>0</v>
       </c>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
-      <c r="L882" t="inlineStr"/>
+      <c r="K882" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M882" t="n">
         <v>1</v>
       </c>
@@ -31700,8 +34242,14 @@
         <v>0</v>
       </c>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
-      <c r="L883" t="inlineStr"/>
+      <c r="K883" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M883" t="n">
         <v>1</v>
       </c>
@@ -31735,8 +34283,14 @@
         <v>0</v>
       </c>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
-      <c r="L884" t="inlineStr"/>
+      <c r="K884" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M884" t="n">
         <v>1</v>
       </c>
@@ -31770,8 +34324,14 @@
         <v>0</v>
       </c>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
-      <c r="L885" t="inlineStr"/>
+      <c r="K885" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M885" t="n">
         <v>1</v>
       </c>
@@ -31805,8 +34365,14 @@
         <v>0</v>
       </c>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
-      <c r="L886" t="inlineStr"/>
+      <c r="K886" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M886" t="n">
         <v>1</v>
       </c>
@@ -31840,8 +34406,14 @@
         <v>0</v>
       </c>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
-      <c r="L887" t="inlineStr"/>
+      <c r="K887" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M887" t="n">
         <v>1</v>
       </c>
@@ -31875,8 +34447,14 @@
         <v>0</v>
       </c>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
-      <c r="L888" t="inlineStr"/>
+      <c r="K888" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M888" t="n">
         <v>1</v>
       </c>
@@ -31910,8 +34488,14 @@
         <v>0</v>
       </c>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
-      <c r="L889" t="inlineStr"/>
+      <c r="K889" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M889" t="n">
         <v>1</v>
       </c>
@@ -31945,8 +34529,14 @@
         <v>0</v>
       </c>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
-      <c r="L890" t="inlineStr"/>
+      <c r="K890" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M890" t="n">
         <v>1</v>
       </c>
@@ -31980,8 +34570,14 @@
         <v>0</v>
       </c>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
-      <c r="L891" t="inlineStr"/>
+      <c r="K891" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M891" t="n">
         <v>1</v>
       </c>
@@ -32015,8 +34611,14 @@
         <v>0</v>
       </c>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
-      <c r="L892" t="inlineStr"/>
+      <c r="K892" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M892" t="n">
         <v>1</v>
       </c>
@@ -32050,8 +34652,14 @@
         <v>0</v>
       </c>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
-      <c r="L893" t="inlineStr"/>
+      <c r="K893" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M893" t="n">
         <v>1</v>
       </c>
@@ -32085,8 +34693,14 @@
         <v>0</v>
       </c>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
-      <c r="L894" t="inlineStr"/>
+      <c r="K894" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M894" t="n">
         <v>1</v>
       </c>
@@ -32120,8 +34734,14 @@
         <v>0</v>
       </c>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
-      <c r="L895" t="inlineStr"/>
+      <c r="K895" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M895" t="n">
         <v>1</v>
       </c>
@@ -32155,8 +34775,14 @@
         <v>0</v>
       </c>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
-      <c r="L896" t="inlineStr"/>
+      <c r="K896" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M896" t="n">
         <v>1</v>
       </c>
@@ -32190,8 +34816,14 @@
         <v>0</v>
       </c>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
-      <c r="L897" t="inlineStr"/>
+      <c r="K897" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M897" t="n">
         <v>1</v>
       </c>
@@ -32225,8 +34857,14 @@
         <v>0</v>
       </c>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
-      <c r="L898" t="inlineStr"/>
+      <c r="K898" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M898" t="n">
         <v>1</v>
       </c>
@@ -32260,8 +34898,14 @@
         <v>0</v>
       </c>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
-      <c r="L899" t="inlineStr"/>
+      <c r="K899" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M899" t="n">
         <v>1</v>
       </c>
@@ -32295,8 +34939,14 @@
         <v>0</v>
       </c>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
-      <c r="L900" t="inlineStr"/>
+      <c r="K900" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M900" t="n">
         <v>1</v>
       </c>
@@ -32324,14 +34974,22 @@
         <v>205126.6666666667</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I901" t="n">
         <v>0</v>
       </c>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
-      <c r="L901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>204000</v>
+      </c>
+      <c r="K901" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M901" t="n">
         <v>1</v>
       </c>
@@ -32359,14 +35017,22 @@
         <v>205106.6666666667</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I902" t="n">
         <v>0</v>
       </c>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
-      <c r="L902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>203900</v>
+      </c>
+      <c r="K902" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M902" t="n">
         <v>1</v>
       </c>
@@ -32400,8 +35066,14 @@
         <v>0</v>
       </c>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
-      <c r="L903" t="inlineStr"/>
+      <c r="K903" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M903" t="n">
         <v>1</v>
       </c>
@@ -32435,8 +35107,14 @@
         <v>0</v>
       </c>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
-      <c r="L904" t="inlineStr"/>
+      <c r="K904" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M904" t="n">
         <v>1</v>
       </c>
@@ -32470,8 +35148,14 @@
         <v>0</v>
       </c>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
-      <c r="L905" t="inlineStr"/>
+      <c r="K905" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M905" t="n">
         <v>1</v>
       </c>
@@ -32505,8 +35189,14 @@
         <v>0</v>
       </c>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
-      <c r="L906" t="inlineStr"/>
+      <c r="K906" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M906" t="n">
         <v>1</v>
       </c>
@@ -32540,8 +35230,14 @@
         <v>0</v>
       </c>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
-      <c r="L907" t="inlineStr"/>
+      <c r="K907" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M907" t="n">
         <v>1</v>
       </c>
@@ -32575,8 +35271,14 @@
         <v>0</v>
       </c>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
-      <c r="L908" t="inlineStr"/>
+      <c r="K908" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M908" t="n">
         <v>1</v>
       </c>
@@ -32610,8 +35312,14 @@
         <v>0</v>
       </c>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
-      <c r="L909" t="inlineStr"/>
+      <c r="K909" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M909" t="n">
         <v>1</v>
       </c>
@@ -32645,8 +35353,14 @@
         <v>0</v>
       </c>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
-      <c r="L910" t="inlineStr"/>
+      <c r="K910" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M910" t="n">
         <v>1</v>
       </c>
@@ -32674,14 +35388,22 @@
         <v>204901.6666666667</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I911" t="n">
         <v>0</v>
       </c>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
-      <c r="L911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>204200</v>
+      </c>
+      <c r="K911" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M911" t="n">
         <v>1</v>
       </c>
@@ -32709,14 +35431,22 @@
         <v>204876.6666666667</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I912" t="n">
         <v>0</v>
       </c>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
-      <c r="L912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>203800</v>
+      </c>
+      <c r="K912" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M912" t="n">
         <v>1</v>
       </c>
@@ -32744,14 +35474,22 @@
         <v>204851.6666666667</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I913" t="n">
         <v>0</v>
       </c>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
-      <c r="L913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>203900</v>
+      </c>
+      <c r="K913" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M913" t="n">
         <v>1</v>
       </c>
@@ -32779,14 +35517,22 @@
         <v>204826.6666666667</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I914" t="n">
         <v>0</v>
       </c>
-      <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
-      <c r="L914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>204100</v>
+      </c>
+      <c r="K914" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M914" t="n">
         <v>1</v>
       </c>
@@ -32814,14 +35560,22 @@
         <v>204805</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I915" t="n">
         <v>0</v>
       </c>
-      <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
-      <c r="L915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>204100</v>
+      </c>
+      <c r="K915" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M915" t="n">
         <v>1</v>
       </c>
@@ -32849,14 +35603,22 @@
         <v>204781.6666666667</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I916" t="n">
         <v>0</v>
       </c>
-      <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
-      <c r="L916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>204300</v>
+      </c>
+      <c r="K916" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M916" t="n">
         <v>1</v>
       </c>
@@ -32884,14 +35646,22 @@
         <v>204760</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I917" t="n">
         <v>0</v>
       </c>
-      <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
-      <c r="L917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>204200</v>
+      </c>
+      <c r="K917" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M917" t="n">
         <v>1</v>
       </c>
@@ -32919,14 +35689,22 @@
         <v>204736.6666666667</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I918" t="n">
         <v>0</v>
       </c>
-      <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
-      <c r="L918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>204200</v>
+      </c>
+      <c r="K918" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M918" t="n">
         <v>1</v>
       </c>
@@ -32960,8 +35738,14 @@
         <v>0</v>
       </c>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
-      <c r="L919" t="inlineStr"/>
+      <c r="K919" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M919" t="n">
         <v>1</v>
       </c>
@@ -32995,8 +35779,14 @@
         <v>0</v>
       </c>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
-      <c r="L920" t="inlineStr"/>
+      <c r="K920" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M920" t="n">
         <v>1</v>
       </c>
@@ -33030,8 +35820,14 @@
         <v>0</v>
       </c>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
-      <c r="L921" t="inlineStr"/>
+      <c r="K921" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M921" t="n">
         <v>1</v>
       </c>
@@ -33065,8 +35861,14 @@
         <v>0</v>
       </c>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
-      <c r="L922" t="inlineStr"/>
+      <c r="K922" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M922" t="n">
         <v>1</v>
       </c>
@@ -33100,8 +35902,14 @@
         <v>0</v>
       </c>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
-      <c r="L923" t="inlineStr"/>
+      <c r="K923" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M923" t="n">
         <v>1</v>
       </c>
@@ -33135,8 +35943,14 @@
         <v>0</v>
       </c>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
-      <c r="L924" t="inlineStr"/>
+      <c r="K924" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M924" t="n">
         <v>1</v>
       </c>
@@ -33170,8 +35984,14 @@
         <v>0</v>
       </c>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
-      <c r="L925" t="inlineStr"/>
+      <c r="K925" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M925" t="n">
         <v>1</v>
       </c>
@@ -33205,8 +36025,14 @@
         <v>0</v>
       </c>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
-      <c r="L926" t="inlineStr"/>
+      <c r="K926" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M926" t="n">
         <v>1</v>
       </c>
@@ -33240,8 +36066,14 @@
         <v>0</v>
       </c>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
-      <c r="L927" t="inlineStr"/>
+      <c r="K927" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M927" t="n">
         <v>1</v>
       </c>
@@ -33272,13 +36104,19 @@
         <v>0</v>
       </c>
       <c r="I928" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
-      <c r="L928" t="inlineStr"/>
+      <c r="K928" t="n">
+        <v>203900</v>
+      </c>
+      <c r="L928" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M928" t="n">
-        <v>1</v>
+        <v>1.007260912211869</v>
       </c>
     </row>
     <row r="929">

--- a/BackTest/2019-10-19 BackTest ETH.xlsx
+++ b/BackTest/2019-10-19 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>105.3326951243296</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>107.5454951243296</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>205000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>103.1312931750119</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>205100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>70.57949317501186</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>204900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>70.75479317501186</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>204700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>184.3066931750118</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>204900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>153.9666931750118</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>205000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>158.2288931750118</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>204700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>309.7934931750119</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>204900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>309.7934931750119</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>205100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,17 +781,11 @@
         <v>309.7934931750119</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>205100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,17 +814,11 @@
         <v>314.7934931750119</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>205100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -913,17 +847,11 @@
         <v>290.4151931750118</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>205200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -952,17 +880,11 @@
         <v>291.4569931750119</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>205100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -991,17 +913,11 @@
         <v>263.1424931750119</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>205200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1030,17 +946,11 @@
         <v>263.1424931750119</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>205000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1069,17 +979,11 @@
         <v>263.1424931750119</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>205000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1108,17 +1012,11 @@
         <v>265.0927613368841</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>205000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1147,17 +1045,11 @@
         <v>272.0089613368841</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>205100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1186,17 +1078,11 @@
         <v>272.0089613368841</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>205200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1225,17 +1111,11 @@
         <v>267.1077613368841</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>205200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1264,17 +1144,11 @@
         <v>267.1077613368841</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>205000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1303,17 +1177,11 @@
         <v>267.1077613368841</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>205000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1342,17 +1210,11 @@
         <v>245.1587613368841</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>205000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1381,17 +1243,11 @@
         <v>245.1587613368841</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>204800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1420,17 +1276,11 @@
         <v>245.1587613368841</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>204800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1459,17 +1309,11 @@
         <v>245.1587613368841</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>204800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1498,17 +1342,11 @@
         <v>245.1587613368841</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>204800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1537,17 +1375,11 @@
         <v>239.6294613368841</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>204800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1576,17 +1408,11 @@
         <v>239.7803613368841</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>204700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1615,17 +1441,11 @@
         <v>239.7803613368841</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>204800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1654,17 +1474,11 @@
         <v>239.7803613368841</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>204800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1693,17 +1507,11 @@
         <v>239.7803613368841</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>204800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1732,17 +1540,11 @@
         <v>239.7803613368841</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>204800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1776,12 +1578,10 @@
       <c r="I36" t="n">
         <v>204800</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="n">
+        <v>204800</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1810,15 +1610,15 @@
         <v>221.7375613368841</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>205300</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>204800</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -1849,15 +1649,15 @@
         <v>252.278261336884</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>205100</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>204800</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1888,17 +1688,11 @@
         <v>339.576861336884</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>205600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1927,17 +1721,11 @@
         <v>323.442561336884</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>205700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1966,17 +1754,11 @@
         <v>324.078561336884</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>205500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2005,17 +1787,11 @@
         <v>400.8488613368841</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>205600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2044,17 +1820,11 @@
         <v>400.8488613368841</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>205800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2083,17 +1853,11 @@
         <v>397.490661336884</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>205800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2122,17 +1886,11 @@
         <v>330.248361336884</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>205700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2161,17 +1919,11 @@
         <v>332.6149613368841</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>205500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2200,17 +1952,11 @@
         <v>328.902561336884</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>205800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2239,17 +1985,11 @@
         <v>328.902561336884</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>205600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2278,17 +2018,11 @@
         <v>328.902561336884</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>205600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2317,17 +2051,11 @@
         <v>331.402561336884</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>205600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2360,11 +2088,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2397,11 +2121,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2434,11 +2154,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2471,11 +2187,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2508,11 +2220,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2541,17 +2249,11 @@
         <v>290.7741830675598</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>205700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2584,11 +2286,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2617,17 +2315,11 @@
         <v>290.9598830675598</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>205600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2656,17 +2348,11 @@
         <v>290.9598830675598</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>205800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2695,17 +2381,11 @@
         <v>290.9598830675598</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>205800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2734,17 +2414,11 @@
         <v>292.4714830675598</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>205800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2773,17 +2447,11 @@
         <v>289.9032830675598</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>205900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2812,17 +2480,11 @@
         <v>305.6871830675598</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>205800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2851,17 +2513,11 @@
         <v>305.6871830675598</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>205900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2890,17 +2546,11 @@
         <v>305.6871830675598</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>205900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2929,17 +2579,11 @@
         <v>305.4846830675598</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>205900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2968,17 +2612,11 @@
         <v>288.3941830675598</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>205800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3007,17 +2645,11 @@
         <v>286.3712830675598</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>205700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3046,17 +2678,11 @@
         <v>298.5138830675598</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>205600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3085,17 +2711,11 @@
         <v>258.5138830675598</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>205700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3124,17 +2744,11 @@
         <v>240.2176830675598</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>205500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3163,17 +2777,11 @@
         <v>240.2176830675598</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>205400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3202,17 +2810,11 @@
         <v>240.2176830675598</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>205400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3241,17 +2843,11 @@
         <v>239.3073830675598</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>205400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3280,17 +2876,11 @@
         <v>239.3073830675598</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>205300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3319,17 +2909,11 @@
         <v>229.6209830675598</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>205300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3358,17 +2942,11 @@
         <v>384.5417830675599</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>205200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3397,17 +2975,11 @@
         <v>335.1967830675599</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>205900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3436,17 +3008,11 @@
         <v>329.8139830675599</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>205600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3475,17 +3041,11 @@
         <v>329.8139830675599</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>205500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3514,17 +3074,11 @@
         <v>330.4898830675599</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>205500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3553,17 +3107,11 @@
         <v>328.5243830675599</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>205700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3592,17 +3140,11 @@
         <v>338.4864830675599</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>205500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3631,17 +3173,11 @@
         <v>328.4984830675599</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>205600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3670,17 +3206,11 @@
         <v>364.3524830675599</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>205400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3709,17 +3239,11 @@
         <v>364.6280830675599</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>205800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3748,17 +3272,11 @@
         <v>354.9117830675599</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>205900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3787,17 +3305,11 @@
         <v>380.0686830675599</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>205800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3826,17 +3338,11 @@
         <v>378.1521830675599</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>205900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3865,17 +3371,11 @@
         <v>378.1521830675599</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>205800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3904,17 +3404,11 @@
         <v>321.5325830675599</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>205800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3943,17 +3437,11 @@
         <v>284.98108306756</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>205700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3986,11 +3474,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4019,17 +3503,11 @@
         <v>217.6171830675599</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>205300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4058,17 +3536,11 @@
         <v>217.9550830675599</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>205100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4097,17 +3569,11 @@
         <v>57.01498306755994</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>205500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4136,17 +3602,11 @@
         <v>57.01498306755994</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>205000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4175,17 +3635,11 @@
         <v>57.01498306755994</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>205000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4214,17 +3668,11 @@
         <v>84.63668306755994</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>205000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4253,17 +3701,11 @@
         <v>84.63668306755994</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>205100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4292,17 +3734,11 @@
         <v>84.63668306755994</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>205100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4331,17 +3767,11 @@
         <v>84.63668306755994</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>205100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4370,17 +3800,11 @@
         <v>85.02334801148973</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>205100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4417,7 +3841,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -4526,11 +3950,9 @@
         <v>29.02324801148973</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>205300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -7165,16 +6587,18 @@
         <v>2683.434857449579</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L178" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
       <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
@@ -7200,11 +6624,15 @@
         <v>2699.149657449579</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7233,11 +6661,15 @@
         <v>2696.948557449579</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7266,11 +6698,15 @@
         <v>2696.528257449579</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7299,11 +6735,15 @@
         <v>2705.764257449579</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7332,11 +6772,15 @@
         <v>2709.833957449579</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7365,11 +6809,15 @@
         <v>2719.006957449578</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7398,11 +6846,15 @@
         <v>2720.851357449578</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7431,11 +6883,15 @@
         <v>2720.899657449578</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7464,11 +6920,15 @@
         <v>2696.955957449578</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7497,11 +6957,15 @@
         <v>2680.719857449578</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7530,11 +6994,15 @@
         <v>2680.719857449578</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7563,11 +7031,15 @@
         <v>2545.984357449578</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7596,11 +7068,15 @@
         <v>2545.789457449578</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7629,11 +7105,15 @@
         <v>2545.789457449578</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7662,11 +7142,15 @@
         <v>2546.786657449578</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7699,7 +7183,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7732,7 +7220,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7765,7 +7257,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7794,11 +7290,15 @@
         <v>2460.749781047256</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7827,11 +7327,15 @@
         <v>2373.307981047256</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7860,11 +7364,15 @@
         <v>2413.244481047256</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7893,11 +7401,15 @@
         <v>2396.472081047256</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7926,11 +7438,15 @@
         <v>2396.670081047256</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7963,7 +7479,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7996,7 +7516,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8029,7 +7553,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8062,7 +7590,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8095,7 +7627,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8124,11 +7660,15 @@
         <v>2394.295281047256</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8157,11 +7697,15 @@
         <v>2410.495281047256</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8190,11 +7734,15 @@
         <v>2389.304081047256</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8223,11 +7771,15 @@
         <v>2389.304081047256</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8256,11 +7808,15 @@
         <v>2389.304081047256</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8289,11 +7845,15 @@
         <v>2385.576181047256</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8322,11 +7882,15 @@
         <v>2385.590981047256</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8355,11 +7919,15 @@
         <v>2384.366681047256</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8388,11 +7956,15 @@
         <v>2384.366681047256</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8421,11 +7993,15 @@
         <v>2384.351981047256</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8454,11 +8030,15 @@
         <v>2384.895181047256</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8487,11 +8067,15 @@
         <v>2387.895181047256</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8520,11 +8104,15 @@
         <v>2375.405281047256</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8553,11 +8141,15 @@
         <v>2375.059081047256</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8586,11 +8178,15 @@
         <v>2643.225281047256</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8619,11 +8215,15 @@
         <v>2643.225281047256</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8652,11 +8252,15 @@
         <v>2643.225281047256</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8685,11 +8289,15 @@
         <v>2643.225281047256</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8722,7 +8330,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8755,7 +8367,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8788,7 +8404,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8821,7 +8441,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8854,7 +8478,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8887,7 +8515,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8920,7 +8552,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8949,11 +8585,15 @@
         <v>2551.566181047256</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8982,11 +8622,15 @@
         <v>2559.977681047256</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9015,11 +8659,15 @@
         <v>2548.814981047256</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9048,11 +8696,15 @@
         <v>2543.934581047256</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9085,7 +8737,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9118,7 +8774,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9151,7 +8811,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9184,7 +8848,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9217,7 +8885,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9250,7 +8922,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9283,7 +8959,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9316,7 +8996,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9349,7 +9033,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9382,7 +9070,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9415,7 +9107,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9448,7 +9144,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9481,7 +9181,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9514,7 +9218,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9547,7 +9255,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9580,7 +9292,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9613,7 +9329,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9646,7 +9366,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9679,7 +9403,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9712,7 +9440,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9745,7 +9477,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9778,7 +9514,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9811,7 +9551,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9844,7 +9588,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9877,7 +9625,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9910,7 +9662,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9943,7 +9699,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9976,7 +9736,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10009,7 +9773,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10042,7 +9810,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10075,7 +9847,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10108,7 +9884,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10141,7 +9921,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10174,7 +9958,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10207,7 +9995,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10240,7 +10032,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10273,7 +10069,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10306,7 +10106,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10339,7 +10143,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10372,7 +10180,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10405,7 +10217,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10438,7 +10254,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10471,7 +10291,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10504,7 +10328,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10537,7 +10365,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10570,7 +10402,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10603,7 +10439,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10636,7 +10476,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10669,7 +10513,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10702,7 +10550,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10735,7 +10587,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10768,7 +10624,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10801,7 +10661,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10834,7 +10698,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10867,7 +10735,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10900,7 +10772,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10933,7 +10809,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10966,7 +10846,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10999,7 +10883,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11028,11 +10916,15 @@
         <v>2531.056543717615</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11065,7 +10957,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11094,11 +10990,15 @@
         <v>2552.721833027625</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11131,7 +11031,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11164,7 +11068,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11197,7 +11105,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11230,7 +11142,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11263,7 +11179,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11296,7 +11216,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11329,7 +11253,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11362,7 +11290,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11395,7 +11327,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11428,7 +11364,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11461,7 +11401,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11494,7 +11438,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11527,7 +11475,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11560,7 +11512,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11593,7 +11549,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11626,7 +11586,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11659,7 +11623,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11692,7 +11660,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11725,7 +11697,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11758,7 +11734,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11791,7 +11771,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11824,7 +11808,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11857,7 +11845,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11890,7 +11882,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11923,7 +11919,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11956,7 +11956,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11989,7 +11993,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12022,7 +12030,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12055,7 +12067,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12088,7 +12104,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12121,7 +12141,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12154,7 +12178,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12187,7 +12215,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12220,7 +12252,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12253,7 +12289,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12286,7 +12326,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12319,7 +12363,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12352,7 +12400,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12385,7 +12437,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12418,7 +12474,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12451,7 +12511,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12484,7 +12548,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12517,7 +12585,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12550,7 +12622,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12583,7 +12659,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12616,7 +12696,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12649,7 +12733,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12682,7 +12770,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12715,7 +12807,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12748,7 +12844,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12781,7 +12881,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12814,7 +12918,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12847,7 +12955,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12880,7 +12992,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12913,7 +13029,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12946,7 +13066,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12979,7 +13103,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13012,7 +13140,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13045,7 +13177,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13078,7 +13214,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13111,7 +13251,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13144,7 +13288,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13177,7 +13325,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13210,7 +13362,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13243,7 +13399,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13276,7 +13436,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13309,7 +13473,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13342,7 +13510,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13375,7 +13547,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13408,7 +13584,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13441,7 +13621,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13474,7 +13658,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13507,7 +13695,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13540,7 +13732,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13573,7 +13769,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13606,7 +13806,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13639,7 +13843,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13672,7 +13880,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13705,7 +13917,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13738,7 +13954,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13771,7 +13991,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13804,7 +14028,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13837,7 +14065,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13870,7 +14102,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13903,7 +14139,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13936,7 +14176,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13969,7 +14213,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14002,7 +14250,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14035,7 +14287,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14068,7 +14324,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14101,7 +14361,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14134,7 +14398,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14167,7 +14435,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14200,7 +14472,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14233,7 +14509,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14266,7 +14546,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14299,7 +14583,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14332,7 +14620,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14365,7 +14657,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14398,7 +14694,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14431,7 +14731,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14464,7 +14768,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14497,7 +14805,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14530,7 +14842,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14563,7 +14879,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14596,7 +14916,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14629,7 +14953,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14662,7 +14990,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14695,7 +15027,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14728,7 +15064,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14761,7 +15101,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14794,7 +15138,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14827,7 +15175,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14860,7 +15212,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14893,7 +15249,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14926,7 +15286,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14959,7 +15323,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14992,7 +15360,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15025,7 +15397,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15058,7 +15434,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15091,7 +15471,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15124,7 +15508,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15157,7 +15545,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15190,7 +15582,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15223,7 +15619,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15256,7 +15656,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15289,7 +15693,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15322,7 +15730,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15355,7 +15767,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15388,7 +15804,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15421,7 +15841,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15454,7 +15878,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15487,7 +15915,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15520,7 +15952,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15553,7 +15989,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15586,7 +16026,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15619,7 +16063,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15652,7 +16100,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15685,7 +16137,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15718,7 +16174,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15751,7 +16211,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15784,7 +16248,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15817,7 +16285,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15850,7 +16322,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15883,7 +16359,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15916,7 +16396,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15949,7 +16433,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15982,7 +16470,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16015,7 +16507,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16048,7 +16544,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16081,7 +16581,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16114,7 +16618,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16147,7 +16655,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16180,7 +16692,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16213,7 +16729,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16246,7 +16766,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16279,7 +16803,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16312,7 +16840,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16345,7 +16877,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16378,7 +16914,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16411,7 +16951,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16444,7 +16988,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16477,7 +17025,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16510,7 +17062,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16543,7 +17099,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16576,7 +17136,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16609,7 +17173,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16642,7 +17210,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16675,7 +17247,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16708,7 +17284,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16741,7 +17321,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16774,7 +17358,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16807,7 +17395,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16840,7 +17432,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16873,7 +17469,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16906,7 +17506,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16939,7 +17543,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16972,7 +17580,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17005,7 +17617,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17038,7 +17654,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17071,7 +17691,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17104,7 +17728,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17137,7 +17765,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17170,7 +17802,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17203,7 +17839,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17236,7 +17876,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17269,7 +17913,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17302,7 +17950,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17335,7 +17987,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17368,7 +18024,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17401,7 +18061,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17434,7 +18098,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17467,7 +18135,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17500,7 +18172,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17533,7 +18209,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17566,7 +18246,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17599,7 +18283,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17632,7 +18320,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17665,7 +18357,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17698,7 +18394,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17731,7 +18431,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17764,7 +18468,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17797,7 +18505,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17830,7 +18542,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17863,7 +18579,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17896,7 +18616,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17929,7 +18653,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17962,7 +18690,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17995,7 +18727,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18028,7 +18764,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18061,7 +18801,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18094,7 +18838,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18127,7 +18875,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18160,7 +18912,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18193,7 +18949,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18226,7 +18986,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18259,7 +19023,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18292,7 +19060,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18325,7 +19097,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18358,7 +19134,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18387,14 +19167,16 @@
         <v>3597.035069345501</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="n">
-        <v>1</v>
-      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L518" t="inlineStr"/>
       <c r="M518" t="inlineStr"/>
     </row>
     <row r="519">
@@ -18420,7 +19202,7 @@
         <v>3581.991469345501</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18453,7 +19235,7 @@
         <v>3581.991469345501</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18486,7 +19268,7 @@
         <v>3581.991469345501</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19080,7 +19862,7 @@
         <v>2996.668026765905</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19113,7 +19895,7 @@
         <v>2971.993726765905</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19146,7 +19928,7 @@
         <v>2967.458626765905</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19212,7 +19994,7 @@
         <v>2967.750026765905</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19245,7 +20027,7 @@
         <v>2967.750026765905</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19278,7 +20060,7 @@
         <v>2965.750026765905</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19311,7 +20093,7 @@
         <v>2986.553826765905</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19344,7 +20126,7 @@
         <v>2986.553826765905</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19377,7 +20159,7 @@
         <v>2986.553826765905</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19410,7 +20192,7 @@
         <v>3006.973526765905</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19872,7 +20654,7 @@
         <v>2923.624068210403</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19905,7 +20687,7 @@
         <v>2923.624068210403</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19938,7 +20720,7 @@
         <v>2923.624068210403</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -22842,7 +23624,7 @@
         <v>3626.895201723835</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22875,7 +23657,7 @@
         <v>3621.845201723835</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22908,7 +23690,7 @@
         <v>3621.845201723835</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22941,7 +23723,7 @@
         <v>3621.845201723835</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22974,7 +23756,7 @@
         <v>3621.845201723835</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23007,7 +23789,7 @@
         <v>3643.503910929875</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23040,7 +23822,7 @@
         <v>3589.745277986405</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23073,7 +23855,7 @@
         <v>3577.978777986405</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23106,7 +23888,7 @@
         <v>3577.978777986405</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23139,7 +23921,7 @@
         <v>3536.922277986405</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23403,7 +24185,7 @@
         <v>3540.765477986405</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -25878,7 +26660,7 @@
         <v>3410.308067470812</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25911,7 +26693,7 @@
         <v>3398.703067470812</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25944,7 +26726,7 @@
         <v>3405.777767470812</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25977,7 +26759,7 @@
         <v>3390.665967470812</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26010,7 +26792,7 @@
         <v>3380.683467470812</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26043,7 +26825,7 @@
         <v>3378.165767470812</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26076,7 +26858,7 @@
         <v>3455.743367132157</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26109,7 +26891,7 @@
         <v>3455.010967132157</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26142,7 +26924,7 @@
         <v>3465.152967132157</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26175,7 +26957,7 @@
         <v>3720.409867132157</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26208,7 +26990,7 @@
         <v>3744.842267132157</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26241,7 +27023,7 @@
         <v>3814.372867132157</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26274,7 +27056,7 @@
         <v>3797.228667132157</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26307,7 +27089,7 @@
         <v>3787.532467132157</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26340,7 +27122,7 @@
         <v>3826.963267132157</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -26373,7 +27155,7 @@
         <v>3652.956367132157</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -26406,7 +27188,7 @@
         <v>3743.125867132157</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -26439,7 +27221,7 @@
         <v>3722.792967132157</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -26472,7 +27254,7 @@
         <v>3722.792967132157</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -26505,7 +27287,7 @@
         <v>3729.706667132157</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -26538,7 +27320,7 @@
         <v>3655.589667132157</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -26571,7 +27353,7 @@
         <v>3647.154967132157</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -26604,7 +27386,7 @@
         <v>3647.154967132157</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -26637,7 +27419,7 @@
         <v>3646.154967132157</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -26670,7 +27452,7 @@
         <v>3705.157367132157</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -26769,7 +27551,7 @@
         <v>3702.221867132157</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -26802,7 +27584,7 @@
         <v>3707.599267132157</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26835,7 +27617,7 @@
         <v>3707.599267132157</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -26868,7 +27650,7 @@
         <v>3673.924567132157</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26901,7 +27683,7 @@
         <v>3674.261567132157</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26934,7 +27716,7 @@
         <v>3755.038364906709</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26967,7 +27749,7 @@
         <v>3601.503064906709</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27000,7 +27782,7 @@
         <v>3558.451115706515</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27033,7 +27815,7 @@
         <v>3547.945815706516</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27066,7 +27848,7 @@
         <v>3553.210616530159</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27099,7 +27881,7 @@
         <v>3530.447116530159</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27132,7 +27914,7 @@
         <v>3531.944916530159</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27165,7 +27947,7 @@
         <v>3525.443016530159</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27198,7 +27980,7 @@
         <v>3529.803481646438</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27231,7 +28013,7 @@
         <v>3501.501481646438</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27264,7 +28046,7 @@
         <v>3501.515117128745</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -27297,7 +28079,7 @@
         <v>3491.419452611052</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -27330,7 +28112,7 @@
         <v>3326.692352611052</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27363,7 +28145,7 @@
         <v>3326.903552611052</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27396,7 +28178,7 @@
         <v>3256.520952611053</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -27429,7 +28211,7 @@
         <v>3248.974052611053</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -27462,7 +28244,7 @@
         <v>3254.111852611053</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -27495,7 +28277,7 @@
         <v>3254.111852611053</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -27528,7 +28310,7 @@
         <v>3262.782152611053</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -27561,7 +28343,7 @@
         <v>3252.762152611053</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -27594,7 +28376,7 @@
         <v>3229.389052611053</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -27627,7 +28409,7 @@
         <v>3255.626652611053</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -27660,7 +28442,7 @@
         <v>3236.885452611053</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -27693,7 +28475,7 @@
         <v>3279.593952611053</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -27726,7 +28508,7 @@
         <v>3279.593952611053</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -27759,7 +28541,7 @@
         <v>3256.940552611053</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -27792,7 +28574,7 @@
         <v>3236.442452611053</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27825,7 +28607,7 @@
         <v>3229.155352611053</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27858,7 +28640,7 @@
         <v>3236.495952611053</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27891,7 +28673,7 @@
         <v>3236.884952611053</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27924,7 +28706,7 @@
         <v>3232.838852611053</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27957,7 +28739,7 @@
         <v>3244.685052611053</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27990,7 +28772,7 @@
         <v>3242.095852611053</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -28023,7 +28805,7 @@
         <v>3235.213452611054</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -28056,7 +28838,7 @@
         <v>3204.080252611053</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -28089,7 +28871,7 @@
         <v>3201.762452611054</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -28122,7 +28904,7 @@
         <v>3217.808352611054</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -28155,7 +28937,7 @@
         <v>3221.876552611054</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -28188,7 +28970,7 @@
         <v>3217.026952611054</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -28221,7 +29003,7 @@
         <v>3217.026952611054</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28254,7 +29036,7 @@
         <v>3217.026952611054</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -28287,7 +29069,7 @@
         <v>3217.026952611054</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -28320,7 +29102,7 @@
         <v>3203.069752611054</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -28353,7 +29135,7 @@
         <v>3178.632952611054</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -28386,7 +29168,7 @@
         <v>3168.411252611054</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -28419,7 +29201,7 @@
         <v>3168.411252611054</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -28452,7 +29234,7 @@
         <v>3131.755552611054</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -28485,7 +29267,7 @@
         <v>3103.482052611054</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -28518,7 +29300,7 @@
         <v>3020.416252611054</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -28551,7 +29333,7 @@
         <v>3150.884552611054</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -28584,7 +29366,7 @@
         <v>3150.884552611054</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -28749,7 +29531,7 @@
         <v>3072.994552611054</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -28782,7 +29564,7 @@
         <v>3072.994552611054</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -28815,7 +29597,7 @@
         <v>3072.994552611054</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -34590,7 +35372,7 @@
         <v>1920.395127430615</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -34821,7 +35603,7 @@
         <v>2151.036295097605</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -34854,7 +35636,7 @@
         <v>2154.106995097605</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -34887,7 +35669,7 @@
         <v>2154.106995097605</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -34920,7 +35702,7 @@
         <v>2154.106995097605</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -34997,6 +35779,6 @@
       <c r="M1021" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest ETH.xlsx
+++ b/BackTest/2019-10-19 BackTest ETH.xlsx
@@ -451,7 +451,7 @@
         <v>105.3326951243296</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>107.5454951243296</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>205000</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>103.1312931750119</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>205100</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>70.57949317501186</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>204900</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>70.75479317501186</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>204700</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>184.3066931750118</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>204900</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>153.9666931750118</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>205000</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>158.2288931750118</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>204700</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>309.7934931750119</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>204900</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>309.7934931750119</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>205100</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>309.7934931750119</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>205100</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +878,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +915,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +952,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +989,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1026,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1059,17 @@
         <v>263.1424931750119</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>205000</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1102,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1139,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1176,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1213,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1250,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1287,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1324,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1357,17 @@
         <v>245.1587613368841</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>204800</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1396,17 @@
         <v>245.1587613368841</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>204800</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1439,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1476,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1513,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1550,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1587,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1624,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1661,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1698,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,15 +1731,15 @@
         <v>264.9466613368841</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>204800</v>
-      </c>
-      <c r="J36" t="n">
-        <v>204800</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1613,12 +1771,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>204800</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -1652,12 +1808,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>204800</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1692,7 +1846,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1725,7 +1883,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1758,7 +1920,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1791,7 +1957,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1824,7 +1994,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1857,7 +2031,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1890,7 +2068,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1923,7 +2105,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1956,7 +2142,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1989,7 +2179,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2022,7 +2216,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2055,7 +2253,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2088,7 +2290,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2121,7 +2327,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2154,7 +2364,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2187,7 +2401,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2220,7 +2438,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2253,7 +2475,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2286,7 +2512,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2319,7 +2549,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2352,7 +2586,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2385,7 +2623,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2418,7 +2660,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2451,7 +2697,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2484,7 +2734,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2517,7 +2771,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2550,7 +2808,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2583,7 +2845,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2616,7 +2882,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2649,7 +2919,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2682,7 +2956,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2715,7 +2993,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2748,7 +3030,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2781,7 +3067,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2814,7 +3104,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2847,7 +3141,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2880,7 +3178,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2913,7 +3215,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2946,7 +3252,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2979,7 +3289,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3012,7 +3326,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3045,7 +3363,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3078,7 +3400,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3111,7 +3437,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3144,7 +3474,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3177,7 +3511,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3210,7 +3548,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3243,7 +3585,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3276,7 +3622,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3309,7 +3659,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3342,7 +3696,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3375,7 +3733,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3408,7 +3770,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3441,7 +3807,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3474,7 +3844,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3507,7 +3881,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3540,7 +3918,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3573,7 +3955,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3606,7 +3992,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3639,7 +4029,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3672,7 +4066,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3705,7 +4103,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3738,7 +4140,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3771,7 +4177,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3804,7 +4214,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3833,15 +4247,13 @@
         <v>28.06054801148973</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>205200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -3872,11 +4284,9 @@
         <v>30.06054801148973</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>205100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -3911,11 +4321,9 @@
         <v>30.06054801148973</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>205300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -3987,11 +4395,9 @@
         <v>31.42054801148973</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>205100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4026,11 +4432,9 @@
         <v>30.25204801148973</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>205200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4065,11 +4469,9 @@
         <v>30.25204801148973</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>205100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4104,11 +4506,9 @@
         <v>35.15574801148973</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>205100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4143,11 +4543,9 @@
         <v>166.6067480114897</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>205300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -6365,18 +6763,16 @@
         <v>2872.834257449579</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
@@ -6402,15 +6798,11 @@
         <v>2845.749257449579</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6439,15 +6831,11 @@
         <v>2894.874457449579</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6476,15 +6864,11 @@
         <v>2890.273457449579</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6513,15 +6897,11 @@
         <v>2890.273457449579</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6550,15 +6930,11 @@
         <v>2851.230057449579</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6587,15 +6963,11 @@
         <v>2683.434857449579</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6628,11 +7000,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6665,11 +7033,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6702,11 +7066,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6739,11 +7099,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6776,11 +7132,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6813,11 +7165,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6850,11 +7198,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6887,11 +7231,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6920,15 +7260,11 @@
         <v>2696.955957449578</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6957,15 +7293,11 @@
         <v>2680.719857449578</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6998,11 +7330,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7035,11 +7363,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7072,11 +7396,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7109,11 +7429,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7146,11 +7462,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +7495,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7220,11 +7528,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7257,11 +7561,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7290,15 +7590,11 @@
         <v>2460.749781047256</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7331,11 +7627,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7368,11 +7660,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7405,11 +7693,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7442,11 +7726,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7479,11 +7759,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7516,11 +7792,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7553,11 +7825,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7590,11 +7858,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7627,11 +7891,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7660,15 +7920,11 @@
         <v>2394.295281047256</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7701,11 +7957,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7734,15 +7986,11 @@
         <v>2389.304081047256</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7775,11 +8023,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7812,11 +8056,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7849,11 +8089,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7886,11 +8122,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7923,11 +8155,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7960,11 +8188,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7997,11 +8221,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8034,11 +8254,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8071,11 +8287,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8108,11 +8320,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8145,11 +8353,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8182,11 +8386,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8219,11 +8419,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8256,11 +8452,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8293,11 +8485,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8330,11 +8518,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8367,11 +8551,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8584,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8441,11 +8617,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8478,11 +8650,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8515,11 +8683,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8552,11 +8716,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8589,11 +8749,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8626,11 +8782,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8663,11 +8815,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8700,11 +8848,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8737,11 +8881,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8774,11 +8914,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8811,11 +8947,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8848,11 +8980,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8885,11 +9013,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8922,11 +9046,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8959,11 +9079,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8996,11 +9112,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9033,11 +9145,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9070,11 +9178,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9107,11 +9211,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9144,11 +9244,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9181,11 +9277,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9218,11 +9310,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9255,11 +9343,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9292,11 +9376,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9329,11 +9409,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9366,11 +9442,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9403,11 +9475,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9440,11 +9508,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9477,11 +9541,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9514,11 +9574,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9551,11 +9607,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9588,11 +9640,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +9673,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9662,11 +9706,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9699,11 +9739,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9736,11 +9772,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9773,11 +9805,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9810,11 +9838,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9847,11 +9871,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9884,11 +9904,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9921,11 +9937,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9958,11 +9970,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9995,11 +10003,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10032,11 +10036,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10069,11 +10069,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10106,11 +10102,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10143,11 +10135,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10180,11 +10168,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10217,11 +10201,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10254,11 +10234,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10291,11 +10267,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10328,11 +10300,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10365,11 +10333,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10402,11 +10366,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10439,11 +10399,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10476,11 +10432,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10513,11 +10465,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10550,11 +10498,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10587,11 +10531,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10624,11 +10564,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10661,11 +10597,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10694,15 +10626,11 @@
         <v>2606.087043717615</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10735,11 +10663,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10772,11 +10696,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10809,11 +10729,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10846,11 +10762,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10883,11 +10795,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10920,11 +10828,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10957,11 +10861,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10994,11 +10894,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11031,11 +10927,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11068,11 +10960,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11105,11 +10993,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11142,11 +11026,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11179,11 +11059,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11216,11 +11092,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11253,11 +11125,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11290,11 +11158,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11327,11 +11191,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11364,11 +11224,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11401,11 +11257,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11438,11 +11290,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11475,11 +11323,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11512,11 +11356,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11549,11 +11389,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11586,11 +11422,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11623,11 +11455,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11660,11 +11488,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11697,11 +11521,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11734,11 +11554,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11771,11 +11587,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11808,11 +11620,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11845,11 +11653,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11882,11 +11686,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11919,11 +11719,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11956,11 +11752,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11993,11 +11785,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12030,11 +11818,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12067,11 +11851,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12104,11 +11884,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12141,11 +11917,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12178,11 +11950,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12215,11 +11983,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12252,11 +12016,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12289,11 +12049,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12326,11 +12082,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12363,11 +12115,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12400,11 +12148,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12437,11 +12181,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12474,11 +12214,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12511,11 +12247,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12548,11 +12280,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12585,11 +12313,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12622,11 +12346,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12659,11 +12379,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12696,11 +12412,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12733,11 +12445,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12770,11 +12478,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12807,11 +12511,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12844,11 +12544,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12881,11 +12577,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12918,11 +12610,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12955,11 +12643,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12992,11 +12676,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13029,11 +12709,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13066,11 +12742,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13103,11 +12775,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13140,11 +12808,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13177,11 +12841,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13214,11 +12874,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13251,11 +12907,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13288,11 +12940,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13325,11 +12973,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13362,11 +13006,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13399,11 +13039,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13436,11 +13072,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13473,11 +13105,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13510,11 +13138,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13547,11 +13171,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13584,11 +13204,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13621,11 +13237,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13658,11 +13270,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13695,11 +13303,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13732,11 +13336,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13769,11 +13369,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13806,11 +13402,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13843,11 +13435,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13880,11 +13468,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13917,11 +13501,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13954,11 +13534,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13991,11 +13567,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14028,11 +13600,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14065,11 +13633,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14102,11 +13666,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14139,11 +13699,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14176,11 +13732,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14213,11 +13765,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14250,11 +13798,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14287,11 +13831,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14324,11 +13864,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14361,11 +13897,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14398,11 +13930,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14435,11 +13963,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14472,11 +13996,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +14029,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14546,11 +14062,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14583,11 +14095,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14620,11 +14128,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14657,11 +14161,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14694,11 +14194,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14731,11 +14227,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14768,11 +14260,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14805,11 +14293,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14842,11 +14326,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14879,11 +14359,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14916,11 +14392,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14953,11 +14425,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14990,11 +14458,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15027,11 +14491,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15064,11 +14524,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15101,11 +14557,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15138,11 +14590,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15175,11 +14623,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15212,11 +14656,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15249,11 +14689,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15286,11 +14722,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15323,11 +14755,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15360,11 +14788,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15397,11 +14821,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15434,11 +14854,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15471,11 +14887,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15508,11 +14920,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15545,11 +14953,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15582,11 +14986,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15619,11 +15019,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15656,11 +15052,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15693,11 +15085,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15730,11 +15118,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15767,11 +15151,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15804,11 +15184,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15841,11 +15217,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15878,11 +15250,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15915,11 +15283,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15952,11 +15316,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15989,11 +15349,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16026,11 +15382,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16063,11 +15415,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16100,11 +15448,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16137,11 +15481,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16174,11 +15514,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16211,11 +15547,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16248,11 +15580,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16285,11 +15613,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16322,11 +15646,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16359,11 +15679,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16396,11 +15712,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16433,11 +15745,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16470,11 +15778,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16507,11 +15811,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16544,11 +15844,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16581,11 +15877,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16618,11 +15910,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16655,11 +15943,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16692,11 +15976,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16729,11 +16009,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16766,11 +16042,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16803,11 +16075,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16840,11 +16108,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16877,11 +16141,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16914,11 +16174,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16951,11 +16207,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16988,11 +16240,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17025,11 +16273,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17062,11 +16306,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17099,11 +16339,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17136,11 +16372,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17173,11 +16405,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17210,11 +16438,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17247,11 +16471,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17284,11 +16504,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17321,11 +16537,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17358,11 +16570,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17395,11 +16603,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17432,11 +16636,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17469,11 +16669,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17506,11 +16702,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17543,11 +16735,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17580,11 +16768,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17617,11 +16801,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17654,11 +16834,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17691,11 +16867,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17728,11 +16900,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17765,11 +16933,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17802,11 +16966,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17839,11 +16999,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17876,11 +17032,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17913,11 +17065,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17950,11 +17098,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17987,11 +17131,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18024,11 +17164,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18061,11 +17197,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18098,11 +17230,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18135,11 +17263,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18172,11 +17296,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18209,11 +17329,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18246,11 +17362,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18283,11 +17395,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18320,11 +17428,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18357,11 +17461,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18394,11 +17494,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18431,11 +17527,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18468,11 +17560,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18505,11 +17593,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18542,11 +17626,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18579,11 +17659,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18616,11 +17692,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18653,11 +17725,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18690,11 +17758,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18727,11 +17791,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18764,11 +17824,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18801,11 +17857,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18838,11 +17890,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18875,11 +17923,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18912,11 +17956,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18949,11 +17989,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18986,11 +18022,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19023,11 +18055,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19060,11 +18088,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19097,11 +18121,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19134,11 +18154,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19167,16 +18183,14 @@
         <v>3597.035069345501</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
+      <c r="L518" t="n">
+        <v>1</v>
+      </c>
       <c r="M518" t="inlineStr"/>
     </row>
     <row r="519">
@@ -19202,7 +18216,7 @@
         <v>3581.991469345501</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19235,7 +18249,7 @@
         <v>3581.991469345501</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19268,7 +18282,7 @@
         <v>3581.991469345501</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -26462,7 +25476,7 @@
         <v>3553.697467470812</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26561,7 +25575,7 @@
         <v>3546.347367470812</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26792,7 +25806,7 @@
         <v>3380.683467470812</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26825,7 +25839,7 @@
         <v>3378.165767470812</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26858,7 +25872,7 @@
         <v>3455.743367132157</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26990,7 +26004,7 @@
         <v>3744.842267132157</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27023,7 +26037,7 @@
         <v>3814.372867132157</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27056,7 +26070,7 @@
         <v>3797.228667132157</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27089,7 +26103,7 @@
         <v>3787.532467132157</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27122,7 +26136,7 @@
         <v>3826.963267132157</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27155,7 +26169,7 @@
         <v>3652.956367132157</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27188,7 +26202,7 @@
         <v>3743.125867132157</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27221,7 +26235,7 @@
         <v>3722.792967132157</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27254,7 +26268,7 @@
         <v>3722.792967132157</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27287,7 +26301,7 @@
         <v>3729.706667132157</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27320,7 +26334,7 @@
         <v>3655.589667132157</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27353,7 +26367,7 @@
         <v>3647.154967132157</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27386,7 +26400,7 @@
         <v>3647.154967132157</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27419,7 +26433,7 @@
         <v>3646.154967132157</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27452,7 +26466,7 @@
         <v>3705.157367132157</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27485,7 +26499,7 @@
         <v>3702.221867132157</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27716,7 +26730,7 @@
         <v>3755.038364906709</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27749,7 +26763,7 @@
         <v>3601.503064906709</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27782,7 +26796,7 @@
         <v>3558.451115706515</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -35372,7 +34386,7 @@
         <v>1920.395127430615</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35603,7 +34617,7 @@
         <v>2151.036295097605</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -35636,7 +34650,7 @@
         <v>2154.106995097605</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -35669,7 +34683,7 @@
         <v>2154.106995097605</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -35702,7 +34716,7 @@
         <v>2154.106995097605</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
